--- a/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000024258913363</v>
+      </c>
+      <c r="D3">
+        <v>0.9999859584272185</v>
+      </c>
+      <c r="E3">
         <v>1.000043569260152</v>
-      </c>
-      <c r="D3">
-        <v>0.9999346484333816</v>
-      </c>
-      <c r="E3">
-        <v>1.000016338304736</v>
       </c>
       <c r="F3">
         <v>1.000043569260152</v>
       </c>
       <c r="G3">
-        <v>0.9999859584272185</v>
+        <v>0.9999575077837839</v>
       </c>
       <c r="H3">
-        <v>1.000024258913363</v>
+        <v>1.000016338304736</v>
       </c>
       <c r="I3">
-        <v>1.000043569260152</v>
+        <v>0.9999869300283084</v>
       </c>
       <c r="J3">
         <v>0.9999346484333816</v>
       </c>
       <c r="K3">
-        <v>0.9999869300283084</v>
+        <v>1.000043569260152</v>
       </c>
       <c r="L3">
+        <v>0.9999346484333816</v>
+      </c>
+      <c r="M3">
         <v>1.000016338304736</v>
-      </c>
-      <c r="M3">
-        <v>0.9999575077837839</v>
       </c>
       <c r="N3">
         <v>1.000043569260152</v>
@@ -821,10 +713,10 @@
         <v>1.000004816737128</v>
       </c>
       <c r="W3">
-        <v>0.9999956936819598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999956936819601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.000046830348517</v>
+      </c>
+      <c r="D4">
+        <v>0.9999728927211236</v>
+      </c>
+      <c r="E4">
         <v>1.000084108154848</v>
-      </c>
-      <c r="D4">
-        <v>0.9998738405347125</v>
-      </c>
-      <c r="E4">
-        <v>1.000031539318426</v>
       </c>
       <c r="F4">
         <v>1.000084108154848</v>
       </c>
       <c r="G4">
-        <v>0.9999728927211236</v>
+        <v>0.9999179695924223</v>
       </c>
       <c r="H4">
-        <v>1.000046830348517</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="I4">
-        <v>1.000084108154848</v>
+        <v>0.9999747686191648</v>
       </c>
       <c r="J4">
         <v>0.9998738405347125</v>
       </c>
       <c r="K4">
-        <v>0.9999747686191648</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="L4">
+        <v>0.9998738405347125</v>
+      </c>
+      <c r="M4">
         <v>1.000031539318426</v>
-      </c>
-      <c r="M4">
-        <v>0.9999179695924223</v>
       </c>
       <c r="N4">
         <v>1.000084108154848</v>
@@ -895,7 +787,7 @@
         <v>0.999991686075955</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.000089741785679</v>
+      </c>
+      <c r="D5">
+        <v>0.9999480525960448</v>
+      </c>
+      <c r="E5">
         <v>1.000161182998812</v>
-      </c>
-      <c r="D5">
-        <v>0.999758230971602</v>
-      </c>
-      <c r="E5">
-        <v>1.00006044260736</v>
       </c>
       <c r="F5">
         <v>1.000161182998812</v>
       </c>
       <c r="G5">
-        <v>0.9999480525960448</v>
+        <v>0.9998428004532942</v>
       </c>
       <c r="H5">
-        <v>1.000089741785679</v>
+        <v>1.00006044260736</v>
       </c>
       <c r="I5">
-        <v>1.000161182998812</v>
+        <v>0.9999516449429066</v>
       </c>
       <c r="J5">
         <v>0.999758230971602</v>
       </c>
       <c r="K5">
-        <v>0.9999516449429066</v>
+        <v>1.000161182998812</v>
       </c>
       <c r="L5">
+        <v>0.999758230971602</v>
+      </c>
+      <c r="M5">
         <v>1.00006044260736</v>
-      </c>
-      <c r="M5">
-        <v>0.9998428004532942</v>
       </c>
       <c r="N5">
         <v>1.000161182998812</v>
@@ -966,7 +858,7 @@
         <v>0.9999840673703824</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.000131632311232</v>
+      </c>
+      <c r="D6">
+        <v>0.9999238029200505</v>
+      </c>
+      <c r="E6">
         <v>1.000236405330583</v>
-      </c>
-      <c r="D6">
-        <v>0.9996453961329435</v>
-      </c>
-      <c r="E6">
-        <v>1.000088655635477</v>
       </c>
       <c r="F6">
         <v>1.000236405330583</v>
       </c>
       <c r="G6">
-        <v>0.9999238029200505</v>
+        <v>0.9997694321200028</v>
       </c>
       <c r="H6">
-        <v>1.000131632311232</v>
+        <v>1.000088655635477</v>
       </c>
       <c r="I6">
-        <v>1.000236405330583</v>
+        <v>0.9999290787082596</v>
       </c>
       <c r="J6">
         <v>0.9996453961329435</v>
       </c>
       <c r="K6">
-        <v>0.9999290787082596</v>
+        <v>1.000236405330583</v>
       </c>
       <c r="L6">
+        <v>0.9996453961329435</v>
+      </c>
+      <c r="M6">
         <v>1.000088655635477</v>
-      </c>
-      <c r="M6">
-        <v>0.9997694321200028</v>
       </c>
       <c r="N6">
         <v>1.000236405330583</v>
@@ -1037,7 +929,7 @@
         <v>0.9999766323492532</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000001859583906</v>
+      </c>
+      <c r="D7">
+        <v>0.9999989252949232</v>
+      </c>
+      <c r="E7">
         <v>1.000003339177924</v>
-      </c>
-      <c r="D7">
-        <v>0.9999949932043901</v>
-      </c>
-      <c r="E7">
-        <v>1.000001252510038</v>
       </c>
       <c r="F7">
         <v>1.000003339177924</v>
       </c>
       <c r="G7">
-        <v>0.9999989252949232</v>
+        <v>0.999996744455788</v>
       </c>
       <c r="H7">
-        <v>1.000001859583906</v>
+        <v>1.000001252510038</v>
       </c>
       <c r="I7">
-        <v>1.000003339177924</v>
+        <v>0.9999989987071303</v>
       </c>
       <c r="J7">
         <v>0.9999949932043901</v>
       </c>
       <c r="K7">
-        <v>0.9999989987071303</v>
+        <v>1.000003339177924</v>
       </c>
       <c r="L7">
+        <v>0.9999949932043901</v>
+      </c>
+      <c r="M7">
         <v>1.000001252510038</v>
-      </c>
-      <c r="M7">
-        <v>0.9999967444557878</v>
       </c>
       <c r="N7">
         <v>1.000003339177924</v>
@@ -1105,10 +997,10 @@
         <v>1.00000036987304</v>
       </c>
       <c r="W7">
-        <v>0.9999996706805173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.9999996706805174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000005386698843</v>
+      </c>
+      <c r="D8">
+        <v>0.9999968836032992</v>
+      </c>
+      <c r="E8">
         <v>1.000009673715371</v>
-      </c>
-      <c r="D8">
-        <v>0.9999854913714307</v>
-      </c>
-      <c r="E8">
-        <v>1.000003627996212</v>
       </c>
       <c r="F8">
         <v>1.000009673715371</v>
       </c>
       <c r="G8">
-        <v>0.9999968836032991</v>
+        <v>0.9999905663779187</v>
       </c>
       <c r="H8">
-        <v>1.000005386698843</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="I8">
-        <v>1.000009673715371</v>
+        <v>0.9999970982912442</v>
       </c>
       <c r="J8">
         <v>0.9999854913714307</v>
       </c>
       <c r="K8">
-        <v>0.9999970982912442</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="L8">
+        <v>0.9999854913714307</v>
+      </c>
+      <c r="M8">
         <v>1.000003627996212</v>
-      </c>
-      <c r="M8">
-        <v>0.9999905663779187</v>
       </c>
       <c r="N8">
         <v>1.000009673715371</v>
@@ -1164,7 +1056,7 @@
         <v>0.999999597694338</v>
       </c>
       <c r="S8">
-        <v>0.9999953343236472</v>
+        <v>0.9999953343236473</v>
       </c>
       <c r="T8">
         <v>0.999999597694338</v>
@@ -1179,7 +1071,7 @@
         <v>0.9999990445063165</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00000743275074</v>
+      </c>
+      <c r="D9">
+        <v>0.999995699664006</v>
+      </c>
+      <c r="E9">
         <v>1.000013347470214</v>
-      </c>
-      <c r="D9">
-        <v>0.9999799807265741</v>
-      </c>
-      <c r="E9">
-        <v>1.000005005689587</v>
       </c>
       <c r="F9">
         <v>1.000013347470214</v>
       </c>
       <c r="G9">
-        <v>0.999995699664006</v>
+        <v>0.9999869831097878</v>
       </c>
       <c r="H9">
-        <v>1.00000743275074</v>
+        <v>1.000005005689587</v>
       </c>
       <c r="I9">
-        <v>1.000013347470214</v>
+        <v>0.9999959962033543</v>
       </c>
       <c r="J9">
         <v>0.9999799807265741</v>
       </c>
       <c r="K9">
-        <v>0.9999959962033543</v>
+        <v>1.000013347470214</v>
       </c>
       <c r="L9">
+        <v>0.9999799807265741</v>
+      </c>
+      <c r="M9">
         <v>1.000005005689587</v>
-      </c>
-      <c r="M9">
-        <v>0.9999869831097878</v>
       </c>
       <c r="N9">
         <v>1.000013347470214</v>
@@ -1250,7 +1142,7 @@
         <v>0.9999986814129811</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000028846938665</v>
+        <v>1.000016060952471</v>
       </c>
       <c r="D10">
-        <v>0.9999567309414127</v>
+        <v>0.9999907045202605</v>
       </c>
       <c r="E10">
+        <v>1.000028846938666</v>
+      </c>
+      <c r="F10">
+        <v>1.000028846938666</v>
+      </c>
+      <c r="G10">
+        <v>0.9999718668523058</v>
+      </c>
+      <c r="H10">
         <v>1.000010819061263</v>
       </c>
-      <c r="F10">
-        <v>1.000028846938665</v>
-      </c>
-      <c r="G10">
-        <v>0.9999907045202605</v>
-      </c>
-      <c r="H10">
-        <v>1.000016060952471</v>
-      </c>
       <c r="I10">
-        <v>1.000028846938665</v>
+        <v>0.9999913462776222</v>
       </c>
       <c r="J10">
         <v>0.9999567309414127</v>
       </c>
       <c r="K10">
-        <v>0.9999913462776222</v>
+        <v>1.000028846938666</v>
       </c>
       <c r="L10">
+        <v>0.9999567309414127</v>
+      </c>
+      <c r="M10">
         <v>1.000010819061263</v>
       </c>
-      <c r="M10">
-        <v>0.9999718668523058</v>
-      </c>
       <c r="N10">
-        <v>1.000028846938665</v>
+        <v>1.000028846938666</v>
       </c>
       <c r="O10">
         <v>1.000010819061263</v>
@@ -1321,7 +1213,7 @@
         <v>0.9999971493256579</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000026899420351</v>
+      </c>
+      <c r="D11">
+        <v>0.9999844325912599</v>
+      </c>
+      <c r="E11">
         <v>1.000048307154465</v>
-      </c>
-      <c r="D11">
-        <v>0.9999275402935068</v>
-      </c>
-      <c r="E11">
-        <v>1.00001811897967</v>
       </c>
       <c r="F11">
         <v>1.000048307154465</v>
       </c>
       <c r="G11">
-        <v>0.9999844325912599</v>
+        <v>0.9999528887715676</v>
       </c>
       <c r="H11">
-        <v>1.000026899420351</v>
+        <v>1.00001811897967</v>
       </c>
       <c r="I11">
-        <v>1.000048307154465</v>
+        <v>0.9999855083622662</v>
       </c>
       <c r="J11">
         <v>0.9999275402935068</v>
       </c>
       <c r="K11">
-        <v>0.9999855083622662</v>
+        <v>1.000048307154465</v>
       </c>
       <c r="L11">
+        <v>0.9999275402935068</v>
+      </c>
+      <c r="M11">
         <v>1.00001811897967</v>
-      </c>
-      <c r="M11">
-        <v>0.9999528887715676</v>
       </c>
       <c r="N11">
         <v>1.000048307154465</v>
@@ -1392,7 +1284,7 @@
         <v>0.9999952268190947</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,49 +1292,49 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9996197386281405</v>
+      </c>
+      <c r="D12">
+        <v>1.000220127180249</v>
+      </c>
+      <c r="E12">
         <v>0.9993170378978251</v>
-      </c>
-      <c r="D12">
-        <v>1.001024441259902</v>
-      </c>
-      <c r="E12">
-        <v>0.9997438903312169</v>
       </c>
       <c r="F12">
         <v>0.9993170378978251</v>
       </c>
       <c r="G12">
-        <v>1.000220127180249</v>
+        <v>1.000666094573274</v>
       </c>
       <c r="H12">
-        <v>0.9996197386281405</v>
+        <v>0.9997438903312167</v>
       </c>
       <c r="I12">
-        <v>0.9993170378978251</v>
+        <v>1.000204892840112</v>
       </c>
       <c r="J12">
         <v>1.001024441259902</v>
       </c>
       <c r="K12">
-        <v>1.000204892840112</v>
+        <v>0.9993170378978251</v>
       </c>
       <c r="L12">
-        <v>0.9997438903312169</v>
+        <v>1.001024441259902</v>
       </c>
       <c r="M12">
-        <v>1.000666094573274</v>
+        <v>0.9997438903312167</v>
       </c>
       <c r="N12">
         <v>0.9993170378978251</v>
       </c>
       <c r="O12">
-        <v>0.9997438903312169</v>
+        <v>0.9997438903312167</v>
       </c>
       <c r="P12">
         <v>1.000384165795559</v>
       </c>
       <c r="Q12">
-        <v>0.9999820087557332</v>
+        <v>0.999982008755733</v>
       </c>
       <c r="R12">
         <v>1.000028456496315</v>
@@ -1463,7 +1355,7 @@
         <v>1.000067514130242</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9999013919139135</v>
+      </c>
+      <c r="D13">
+        <v>1.000057084164284</v>
+      </c>
+      <c r="E13">
         <v>0.9998229032557282</v>
-      </c>
-      <c r="D13">
-        <v>1.000265638310051</v>
-      </c>
-      <c r="E13">
-        <v>0.9999335899456648</v>
       </c>
       <c r="F13">
         <v>0.9998229032557282</v>
       </c>
       <c r="G13">
-        <v>1.000057084164284</v>
+        <v>1.000172721091205</v>
       </c>
       <c r="H13">
-        <v>0.9999013919139135</v>
+        <v>0.9999335899456648</v>
       </c>
       <c r="I13">
-        <v>0.9998229032557282</v>
+        <v>1.000053127353346</v>
       </c>
       <c r="J13">
         <v>1.000265638310051</v>
       </c>
       <c r="K13">
-        <v>1.000053127353346</v>
+        <v>0.9998229032557282</v>
       </c>
       <c r="L13">
+        <v>1.000265638310051</v>
+      </c>
+      <c r="M13">
         <v>0.9999335899456648</v>
-      </c>
-      <c r="M13">
-        <v>1.000172721091205</v>
       </c>
       <c r="N13">
         <v>0.9998229032557282</v>
@@ -1534,7 +1426,7 @@
         <v>1.000017505747482</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9988102947714953</v>
+      </c>
+      <c r="D14">
+        <v>1.000688686572624</v>
+      </c>
+      <c r="E14">
         <v>0.9978632677161556</v>
-      </c>
-      <c r="D14">
-        <v>1.00320508131413</v>
-      </c>
-      <c r="E14">
-        <v>0.9991987250610594</v>
       </c>
       <c r="F14">
         <v>0.9978632677161556</v>
       </c>
       <c r="G14">
-        <v>1.000688686572624</v>
+        <v>1.002083980368774</v>
       </c>
       <c r="H14">
-        <v>0.9988102947714953</v>
+        <v>0.9991987250610594</v>
       </c>
       <c r="I14">
+        <v>1.000641020265506</v>
+      </c>
+      <c r="J14">
+        <v>1.003205081314129</v>
+      </c>
+      <c r="K14">
         <v>0.9978632677161556</v>
       </c>
-      <c r="J14">
-        <v>1.00320508131413</v>
-      </c>
-      <c r="K14">
-        <v>1.000641020265506</v>
-      </c>
       <c r="L14">
+        <v>1.003205081314129</v>
+      </c>
+      <c r="M14">
         <v>0.9991987250610594</v>
-      </c>
-      <c r="M14">
-        <v>1.002083980368774</v>
       </c>
       <c r="N14">
         <v>0.9978632677161556</v>
@@ -1605,7 +1497,7 @@
         <v>1.00021122264135</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9996823969090204</v>
+      </c>
+      <c r="D15">
+        <v>1.000183856412997</v>
+      </c>
+      <c r="E15">
         <v>0.9994295731410595</v>
-      </c>
-      <c r="D15">
-        <v>1.000855633959365</v>
-      </c>
-      <c r="E15">
-        <v>0.999786091092604</v>
       </c>
       <c r="F15">
         <v>0.9994295731410595</v>
       </c>
       <c r="G15">
-        <v>1.000183856412997</v>
+        <v>1.000556339015841</v>
       </c>
       <c r="H15">
-        <v>0.9996823969090204</v>
+        <v>0.999786091092604</v>
       </c>
       <c r="I15">
-        <v>0.9994295731410595</v>
+        <v>1.000171135636562</v>
       </c>
       <c r="J15">
         <v>1.000855633959365</v>
       </c>
       <c r="K15">
-        <v>1.000171135636562</v>
+        <v>0.9994295731410595</v>
       </c>
       <c r="L15">
+        <v>1.000855633959365</v>
+      </c>
+      <c r="M15">
         <v>0.999786091092604</v>
-      </c>
-      <c r="M15">
-        <v>1.000556339015841</v>
       </c>
       <c r="N15">
         <v>0.9994295731410595</v>
@@ -1676,7 +1568,7 @@
         <v>1.000056389657507</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000181278928</v>
+        <v>1.000473241003937</v>
       </c>
       <c r="D16">
-        <v>0.9999997296217834</v>
+        <v>0.9997260454027683</v>
       </c>
       <c r="E16">
-        <v>1.000000068338834</v>
+        <v>1.000849959627848</v>
       </c>
       <c r="F16">
-        <v>1.000000181278928</v>
+        <v>1.000849959627848</v>
       </c>
       <c r="G16">
-        <v>0.9999999430818357</v>
+        <v>0.9991710329084884</v>
       </c>
       <c r="H16">
-        <v>1.00000010142273</v>
+        <v>1.000318732649276</v>
       </c>
       <c r="I16">
-        <v>1.000000181278928</v>
+        <v>0.9997450197477969</v>
       </c>
       <c r="J16">
-        <v>0.9999997296217834</v>
+        <v>0.9987250757338815</v>
       </c>
       <c r="K16">
-        <v>0.9999999460394408</v>
+        <v>1.000849959627848</v>
       </c>
       <c r="L16">
-        <v>1.000000068338834</v>
+        <v>0.9987250757338815</v>
       </c>
       <c r="M16">
-        <v>0.9999998241261623</v>
+        <v>1.000318732649276</v>
       </c>
       <c r="N16">
-        <v>1.000000181278928</v>
+        <v>1.000849959627848</v>
       </c>
       <c r="O16">
-        <v>1.000000068338834</v>
+        <v>1.000318732649276</v>
       </c>
       <c r="P16">
-        <v>0.9999998989803089</v>
+        <v>0.9995219041915787</v>
       </c>
       <c r="Q16">
-        <v>1.000000005710335</v>
+        <v>1.000022389026022</v>
       </c>
       <c r="R16">
-        <v>0.9999999930798484</v>
+        <v>0.9999645893370021</v>
       </c>
       <c r="S16">
-        <v>0.9999999136808179</v>
+        <v>0.9995899512619753</v>
       </c>
       <c r="T16">
-        <v>0.9999999930798484</v>
+        <v>0.9999645893370021</v>
       </c>
       <c r="U16">
-        <v>0.9999999805803452</v>
+        <v>0.9999049533534436</v>
       </c>
       <c r="V16">
-        <v>1.000000020720062</v>
+        <v>1.000093954608325</v>
       </c>
       <c r="W16">
-        <v>0.9999999827810686</v>
+        <v>0.999915979965409</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003811406484</v>
+        <v>1.00038754100453</v>
       </c>
       <c r="D17">
-        <v>0.9999942840346907</v>
+        <v>0.9997756574407193</v>
       </c>
       <c r="E17">
-        <v>1.00000142986533</v>
+        <v>1.000696036964239</v>
       </c>
       <c r="F17">
-        <v>1.000003811406484</v>
+        <v>1.000696036964239</v>
       </c>
       <c r="G17">
-        <v>0.9999987730881021</v>
+        <v>0.9993211533008335</v>
       </c>
       <c r="H17">
-        <v>1.000002122849555</v>
+        <v>1.000261012005009</v>
       </c>
       <c r="I17">
-        <v>1.000003811406484</v>
+        <v>0.9997911940679103</v>
       </c>
       <c r="J17">
-        <v>0.9999942840346907</v>
+        <v>0.9989559548928871</v>
       </c>
       <c r="K17">
-        <v>0.9999988564359558</v>
+        <v>1.000696036964239</v>
       </c>
       <c r="L17">
-        <v>1.00000142986533</v>
+        <v>0.9989559548928871</v>
       </c>
       <c r="M17">
-        <v>0.9999962835668212</v>
+        <v>1.000261012005009</v>
       </c>
       <c r="N17">
-        <v>1.000003811406484</v>
+        <v>1.000696036964239</v>
       </c>
       <c r="O17">
-        <v>1.00000142986533</v>
+        <v>1.000261012005009</v>
       </c>
       <c r="P17">
-        <v>0.9999978569500104</v>
+        <v>0.9996084834489483</v>
       </c>
       <c r="Q17">
-        <v>1.000000101476716</v>
+        <v>1.000018334722864</v>
       </c>
       <c r="R17">
-        <v>0.9999998417688349</v>
+        <v>0.9999710012873786</v>
       </c>
       <c r="S17">
-        <v>0.9999981623293742</v>
+        <v>0.9996642081128719</v>
       </c>
       <c r="T17">
-        <v>0.9999998417688349</v>
+        <v>0.9999710012873786</v>
       </c>
       <c r="U17">
-        <v>0.9999995745986517</v>
+        <v>0.9999221653257138</v>
       </c>
       <c r="V17">
-        <v>1.000000421960218</v>
+        <v>1.000076939653419</v>
       </c>
       <c r="W17">
-        <v>0.9999996238890337</v>
+        <v>0.9999311952101423</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013416810785</v>
+        <v>1.000215750146111</v>
       </c>
       <c r="D18">
-        <v>0.9999798786429422</v>
+        <v>0.9998751061220446</v>
       </c>
       <c r="E18">
-        <v>1.000005030523864</v>
+        <v>1.000387493529998</v>
       </c>
       <c r="F18">
-        <v>1.000013416810785</v>
+        <v>1.000387493529998</v>
       </c>
       <c r="G18">
-        <v>0.9999956803766743</v>
+        <v>0.9996220754412228</v>
       </c>
       <c r="H18">
-        <v>1.000007471388479</v>
+        <v>1.000145310634304</v>
       </c>
       <c r="I18">
-        <v>1.000013416810785</v>
+        <v>0.9998837517047789</v>
       </c>
       <c r="J18">
-        <v>0.9999798786429422</v>
+        <v>0.9994187591452897</v>
       </c>
       <c r="K18">
-        <v>0.9999959755372089</v>
+        <v>1.000387493529998</v>
       </c>
       <c r="L18">
-        <v>1.000005030523864</v>
+        <v>0.9994187591452897</v>
       </c>
       <c r="M18">
-        <v>0.9999869170957105</v>
+        <v>1.000145310634304</v>
       </c>
       <c r="N18">
-        <v>1.000013416810785</v>
+        <v>1.000387493529998</v>
       </c>
       <c r="O18">
-        <v>1.000005030523864</v>
+        <v>1.000145310634304</v>
       </c>
       <c r="P18">
-        <v>0.9999924545834031</v>
+        <v>0.9997820348897969</v>
       </c>
       <c r="Q18">
-        <v>1.000000355450269</v>
+        <v>1.000010208378174</v>
       </c>
       <c r="R18">
-        <v>0.9999994419925303</v>
+        <v>0.9999838544365307</v>
       </c>
       <c r="S18">
-        <v>0.9999935298478269</v>
+        <v>0.9998130586338795</v>
       </c>
       <c r="T18">
-        <v>0.9999994419925303</v>
+        <v>0.9999838544365307</v>
       </c>
       <c r="U18">
-        <v>0.9999985015885663</v>
+        <v>0.9999566673579092</v>
       </c>
       <c r="V18">
-        <v>1.00000148463301</v>
+        <v>1.000042832592327</v>
       </c>
       <c r="W18">
-        <v>0.999998675112441</v>
+        <v>0.9999616946697566</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000240449479785</v>
+      </c>
+      <c r="D19">
+        <v>0.9998608112639474</v>
+      </c>
+      <c r="E19">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="F19">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="G19">
+        <v>0.9995788141659721</v>
+      </c>
+      <c r="H19">
+        <v>1.000161938877257</v>
+      </c>
+      <c r="I19">
+        <v>0.9998704448924566</v>
+      </c>
+      <c r="J19">
+        <v>0.9993522234378114</v>
+      </c>
+      <c r="K19">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="L19">
+        <v>0.9993522234378114</v>
+      </c>
+      <c r="M19">
+        <v>1.000161938877257</v>
+      </c>
+      <c r="N19">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="O19">
+        <v>1.000161938877257</v>
+      </c>
+      <c r="P19">
+        <v>0.9997570811575343</v>
+      </c>
+      <c r="Q19">
+        <v>1.000011375070602</v>
+      </c>
+      <c r="R19">
+        <v>0.9999820030608491</v>
+      </c>
+      <c r="S19">
+        <v>0.9997916578596721</v>
+      </c>
+      <c r="T19">
+        <v>0.9999820030608491</v>
+      </c>
+      <c r="U19">
+        <v>0.9999517051116237</v>
+      </c>
+      <c r="V19">
+        <v>1.000047733462795</v>
+      </c>
+      <c r="W19">
+        <v>0.9999573084827457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00000010142273</v>
+      </c>
+      <c r="D20">
+        <v>0.9999999430818357</v>
+      </c>
+      <c r="E20">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="F20">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="G20">
+        <v>0.9999998241261623</v>
+      </c>
+      <c r="H20">
+        <v>1.000000068338834</v>
+      </c>
+      <c r="I20">
+        <v>0.9999999460394408</v>
+      </c>
+      <c r="J20">
+        <v>0.9999997296217834</v>
+      </c>
+      <c r="K20">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="L20">
+        <v>0.9999997296217834</v>
+      </c>
+      <c r="M20">
+        <v>1.000000068338834</v>
+      </c>
+      <c r="N20">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="O20">
+        <v>1.000000068338834</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998989803089</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000005710335</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999930798484</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999136808179</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999930798484</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999805803452</v>
+      </c>
+      <c r="V20">
+        <v>1.000000020720062</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999827810686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000002122849556</v>
+      </c>
+      <c r="D21">
+        <v>0.9999987730881021</v>
+      </c>
+      <c r="E21">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="F21">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="G21">
+        <v>0.9999962835668212</v>
+      </c>
+      <c r="H21">
+        <v>1.00000142986533</v>
+      </c>
+      <c r="I21">
+        <v>0.9999988564359558</v>
+      </c>
+      <c r="J21">
+        <v>0.9999942840346907</v>
+      </c>
+      <c r="K21">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="L21">
+        <v>0.9999942840346907</v>
+      </c>
+      <c r="M21">
+        <v>1.00000142986533</v>
+      </c>
+      <c r="N21">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="O21">
+        <v>1.00000142986533</v>
+      </c>
+      <c r="P21">
+        <v>0.9999978569500104</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000101476716</v>
+      </c>
+      <c r="R21">
+        <v>0.9999998417688351</v>
+      </c>
+      <c r="S21">
+        <v>0.9999981623293742</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998417688351</v>
+      </c>
+      <c r="U21">
+        <v>0.9999995745986519</v>
+      </c>
+      <c r="V21">
+        <v>1.000000421960218</v>
+      </c>
+      <c r="W21">
+        <v>0.9999996238890337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000007471388479</v>
+      </c>
+      <c r="D22">
+        <v>0.9999956803766743</v>
+      </c>
+      <c r="E22">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="F22">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="G22">
+        <v>0.9999869170957105</v>
+      </c>
+      <c r="H22">
+        <v>1.000005030523864</v>
+      </c>
+      <c r="I22">
+        <v>0.9999959755372088</v>
+      </c>
+      <c r="J22">
+        <v>0.9999798786429422</v>
+      </c>
+      <c r="K22">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="L22">
+        <v>0.9999798786429422</v>
+      </c>
+      <c r="M22">
+        <v>1.000005030523864</v>
+      </c>
+      <c r="N22">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="O22">
+        <v>1.000005030523864</v>
+      </c>
+      <c r="P22">
+        <v>0.9999924545834031</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000355450269</v>
+      </c>
+      <c r="R22">
+        <v>0.9999994419925303</v>
+      </c>
+      <c r="S22">
+        <v>0.9999935298478269</v>
+      </c>
+      <c r="T22">
+        <v>0.9999994419925303</v>
+      </c>
+      <c r="U22">
+        <v>0.9999985015885663</v>
+      </c>
+      <c r="V22">
+        <v>1.00000148463301</v>
+      </c>
+      <c r="W22">
+        <v>0.999998675112441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000017496226953</v>
+      </c>
+      <c r="D23">
+        <v>0.9999898706203463</v>
+      </c>
+      <c r="E23">
         <v>1.000031426554662</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.000031426554662</v>
+      </c>
+      <c r="G23">
+        <v>0.9999693500357598</v>
+      </c>
+      <c r="H23">
+        <v>1.000011785312644</v>
+      </c>
+      <c r="I23">
+        <v>0.9999905702070723</v>
+      </c>
+      <c r="J23">
         <v>0.9999528617839161</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>1.000031426554662</v>
+      </c>
+      <c r="L23">
+        <v>0.9999528617839161</v>
+      </c>
+      <c r="M23">
         <v>1.000011785312644</v>
       </c>
-      <c r="F19">
+      <c r="N23">
         <v>1.000031426554662</v>
       </c>
-      <c r="G19">
-        <v>0.9999898706203463</v>
-      </c>
-      <c r="H19">
-        <v>1.000017496226953</v>
-      </c>
-      <c r="I19">
-        <v>1.000031426554662</v>
-      </c>
-      <c r="J19">
-        <v>0.9999528617839161</v>
-      </c>
-      <c r="K19">
-        <v>0.9999905702070726</v>
-      </c>
-      <c r="L19">
+      <c r="O23">
         <v>1.000011785312644</v>
       </c>
-      <c r="M19">
-        <v>0.9999693500357598</v>
-      </c>
-      <c r="N19">
-        <v>1.000031426554662</v>
-      </c>
-      <c r="O19">
-        <v>1.000011785312644</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999823235482801</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000000827966495</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999986912170741</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999848392389689</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999986912170741</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999964860678922</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000003474165246</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999968932567498</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000024258913363</v>
+        <v>1.000270790734868</v>
       </c>
       <c r="D3">
-        <v>0.9999859584272185</v>
+        <v>0.9998432460734898</v>
       </c>
       <c r="E3">
-        <v>1.000043569260152</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="F3">
-        <v>1.000043569260152</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="G3">
-        <v>0.9999575077837839</v>
+        <v>0.9995256668011516</v>
       </c>
       <c r="H3">
-        <v>1.000016338304736</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="I3">
-        <v>0.9999869300283084</v>
+        <v>0.9998540976224762</v>
       </c>
       <c r="J3">
-        <v>0.9999346484333816</v>
+        <v>0.9992704871541801</v>
       </c>
       <c r="K3">
-        <v>1.000043569260152</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="L3">
-        <v>0.9999346484333816</v>
+        <v>0.9992704871541801</v>
       </c>
       <c r="M3">
-        <v>1.000016338304736</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="N3">
-        <v>1.000043569260152</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="O3">
-        <v>1.000016338304736</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="P3">
-        <v>0.999975493369059</v>
+        <v>0.9997264319560526</v>
       </c>
       <c r="Q3">
-        <v>1.000001148365977</v>
+        <v>1.000012811415707</v>
       </c>
       <c r="R3">
-        <v>0.9999981853327565</v>
+        <v>0.9999797355211347</v>
       </c>
       <c r="S3">
-        <v>0.9999789817217789</v>
+        <v>0.9997653699951984</v>
       </c>
       <c r="T3">
-        <v>0.9999981853327565</v>
+        <v>0.9999797355211347</v>
       </c>
       <c r="U3">
-        <v>0.9999951286063721</v>
+        <v>0.9999456131592235</v>
       </c>
       <c r="V3">
-        <v>1.000004816737128</v>
+        <v>1.000053759057639</v>
       </c>
       <c r="W3">
-        <v>0.9999956936819601</v>
+        <v>0.9999519230691644</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000046830348517</v>
+        <v>1.000240946606407</v>
       </c>
       <c r="D4">
-        <v>0.9999728927211236</v>
+        <v>0.9998605221310077</v>
       </c>
       <c r="E4">
-        <v>1.000084108154848</v>
+        <v>1.000432742590379</v>
       </c>
       <c r="F4">
-        <v>1.000084108154848</v>
+        <v>1.000432742590379</v>
       </c>
       <c r="G4">
-        <v>0.9999179695924223</v>
+        <v>0.999577943282708</v>
       </c>
       <c r="H4">
-        <v>1.000031539318426</v>
+        <v>1.000162277033171</v>
       </c>
       <c r="I4">
-        <v>0.9999747686191648</v>
+        <v>0.9998701775242239</v>
       </c>
       <c r="J4">
-        <v>0.9998738405347125</v>
+        <v>0.9993508870126711</v>
       </c>
       <c r="K4">
-        <v>1.000084108154848</v>
+        <v>1.000432742590379</v>
       </c>
       <c r="L4">
-        <v>0.9998738405347125</v>
+        <v>0.9993508870126711</v>
       </c>
       <c r="M4">
-        <v>1.000031539318426</v>
+        <v>1.000162277033171</v>
       </c>
       <c r="N4">
-        <v>1.000084108154848</v>
+        <v>1.000432742590379</v>
       </c>
       <c r="O4">
-        <v>1.000031539318426</v>
+        <v>1.000162277033171</v>
       </c>
       <c r="P4">
-        <v>0.9999526899265692</v>
+        <v>0.9997565820229211</v>
       </c>
       <c r="Q4">
-        <v>1.000002216019775</v>
+        <v>1.000011399582089</v>
       </c>
       <c r="R4">
-        <v>0.9999964960026623</v>
+        <v>0.9999819688787404</v>
       </c>
       <c r="S4">
-        <v>0.9999594241914206</v>
+        <v>0.9997912287256167</v>
       </c>
       <c r="T4">
-        <v>0.9999964960026623</v>
+        <v>0.9999819688787404</v>
       </c>
       <c r="U4">
-        <v>0.9999905951822776</v>
+        <v>0.9999516071918072</v>
       </c>
       <c r="V4">
-        <v>1.000009297776792</v>
+        <v>1.000047834271522</v>
       </c>
       <c r="W4">
-        <v>0.999991686075955</v>
+        <v>0.9999572216517173</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000089741785679</v>
+        <v>1.000327216495957</v>
       </c>
       <c r="D5">
-        <v>0.9999480525960448</v>
+        <v>0.9998105826415085</v>
       </c>
       <c r="E5">
-        <v>1.000161182998812</v>
+        <v>1.000587686253369</v>
       </c>
       <c r="F5">
-        <v>1.000161182998812</v>
+        <v>1.000587686253369</v>
       </c>
       <c r="G5">
-        <v>0.9998428004532942</v>
+        <v>0.9994268264959559</v>
       </c>
       <c r="H5">
-        <v>1.00006044260736</v>
+        <v>1.0002203787062</v>
       </c>
       <c r="I5">
-        <v>0.9999516449429066</v>
+        <v>0.999823693584908</v>
       </c>
       <c r="J5">
-        <v>0.999758230971602</v>
+        <v>0.9991184712129394</v>
       </c>
       <c r="K5">
-        <v>1.000161182998812</v>
+        <v>1.000587686253369</v>
       </c>
       <c r="L5">
-        <v>0.999758230971602</v>
+        <v>0.9991184712129394</v>
       </c>
       <c r="M5">
-        <v>1.00006044260736</v>
+        <v>1.0002203787062</v>
       </c>
       <c r="N5">
-        <v>1.000161182998812</v>
+        <v>1.000587686253369</v>
       </c>
       <c r="O5">
-        <v>1.00006044260736</v>
+        <v>1.0002203787062</v>
       </c>
       <c r="P5">
-        <v>0.9999093367894811</v>
+        <v>0.9996694249595695</v>
       </c>
       <c r="Q5">
-        <v>1.000004247601703</v>
+        <v>1.000015480673854</v>
       </c>
       <c r="R5">
-        <v>0.9999932855259247</v>
+        <v>0.9999755120575026</v>
       </c>
       <c r="S5">
-        <v>0.9999222420583357</v>
+        <v>0.9997164775202158</v>
       </c>
       <c r="T5">
-        <v>0.9999932855259247</v>
+        <v>0.9999755120575026</v>
       </c>
       <c r="U5">
-        <v>0.9999819772934547</v>
+        <v>0.999934279703504</v>
       </c>
       <c r="V5">
-        <v>1.000017818434526</v>
+        <v>1.000064961013477</v>
       </c>
       <c r="W5">
-        <v>0.9999840673703824</v>
+        <v>0.9999419042621296</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000131632311232</v>
+        <v>1.00037961215909</v>
       </c>
       <c r="D6">
-        <v>0.9999238029200505</v>
+        <v>0.9997802572727276</v>
       </c>
       <c r="E6">
-        <v>1.000236405330583</v>
+        <v>1.000681775454546</v>
       </c>
       <c r="F6">
-        <v>1.000236405330583</v>
+        <v>1.000681775454546</v>
       </c>
       <c r="G6">
-        <v>0.9997694321200028</v>
+        <v>0.999335059147728</v>
       </c>
       <c r="H6">
-        <v>1.000088655635477</v>
+        <v>1.000255661818181</v>
       </c>
       <c r="I6">
-        <v>0.9999290787082596</v>
+        <v>0.9997954663636361</v>
       </c>
       <c r="J6">
-        <v>0.9996453961329435</v>
+        <v>0.9989773321590912</v>
       </c>
       <c r="K6">
-        <v>1.000236405330583</v>
+        <v>1.000681775454546</v>
       </c>
       <c r="L6">
-        <v>0.9996453961329435</v>
+        <v>0.9989773321590912</v>
       </c>
       <c r="M6">
-        <v>1.000088655635477</v>
+        <v>1.000255661818181</v>
       </c>
       <c r="N6">
-        <v>1.000236405330583</v>
+        <v>1.000681775454546</v>
       </c>
       <c r="O6">
-        <v>1.000088655635477</v>
+        <v>1.000255661818181</v>
       </c>
       <c r="P6">
-        <v>0.9998670258842102</v>
+        <v>0.9996164969886363</v>
       </c>
       <c r="Q6">
-        <v>1.000006229277764</v>
+        <v>1.000017959545454</v>
       </c>
       <c r="R6">
-        <v>0.9999901523663346</v>
+        <v>0.9999715898106062</v>
       </c>
       <c r="S6">
-        <v>0.9998859515628236</v>
+        <v>0.99967108375</v>
       </c>
       <c r="T6">
-        <v>0.9999901523663346</v>
+        <v>0.9999715898106062</v>
       </c>
       <c r="U6">
-        <v>0.9999735650047635</v>
+        <v>0.9999237566761365</v>
       </c>
       <c r="V6">
-        <v>1.000026133069927</v>
+        <v>1.000075360431818</v>
       </c>
       <c r="W6">
-        <v>0.9999766323492532</v>
+        <v>0.9999326032741478</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000001859583906</v>
+        <v>1.001492967552216</v>
       </c>
       <c r="D7">
-        <v>0.9999989252949232</v>
+        <v>0.9991357492662731</v>
       </c>
       <c r="E7">
-        <v>1.000003339177924</v>
+        <v>1.002681399465379</v>
       </c>
       <c r="F7">
-        <v>1.000003339177924</v>
+        <v>1.002681399465379</v>
       </c>
       <c r="G7">
-        <v>0.999996744455788</v>
+        <v>0.9973848113507674</v>
       </c>
       <c r="H7">
-        <v>1.000001252510038</v>
+        <v>1.001005529236368</v>
       </c>
       <c r="I7">
-        <v>0.9999989987071303</v>
+        <v>0.999195579845793</v>
       </c>
       <c r="J7">
-        <v>0.9999949932043901</v>
+        <v>0.9959779030646327</v>
       </c>
       <c r="K7">
-        <v>1.000003339177924</v>
+        <v>1.002681399465379</v>
       </c>
       <c r="L7">
-        <v>0.9999949932043901</v>
+        <v>0.9959779030646327</v>
       </c>
       <c r="M7">
-        <v>1.000001252510038</v>
+        <v>1.001005529236368</v>
       </c>
       <c r="N7">
-        <v>1.000003339177924</v>
+        <v>1.002681399465379</v>
       </c>
       <c r="O7">
-        <v>1.000001252510038</v>
+        <v>1.001005529236368</v>
       </c>
       <c r="P7">
-        <v>0.9999981228572142</v>
+        <v>0.9984917161505004</v>
       </c>
       <c r="Q7">
-        <v>1.000000088902481</v>
+        <v>1.000070639251321</v>
       </c>
       <c r="R7">
-        <v>0.9999998616307844</v>
+        <v>0.9998882772554601</v>
       </c>
       <c r="S7">
-        <v>0.9999983903364505</v>
+        <v>0.998706393855758</v>
       </c>
       <c r="T7">
-        <v>0.9999998616307844</v>
+        <v>0.9998882772554601</v>
       </c>
       <c r="U7">
-        <v>0.999999627546819</v>
+        <v>0.9997001452581633</v>
       </c>
       <c r="V7">
-        <v>1.00000036987304</v>
+        <v>1.000296396099607</v>
       </c>
       <c r="W7">
-        <v>0.9999996706805174</v>
+        <v>0.9997349336272247</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000005386698843</v>
+        <v>1.001492967522347</v>
       </c>
       <c r="D8">
-        <v>0.9999968836032992</v>
+        <v>0.9991357493825589</v>
       </c>
       <c r="E8">
-        <v>1.000009673715371</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="F8">
-        <v>1.000009673715371</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="G8">
-        <v>0.9999905663779187</v>
+        <v>0.9973848117088376</v>
       </c>
       <c r="H8">
-        <v>1.000003627996212</v>
+        <v>1.00100552906182</v>
       </c>
       <c r="I8">
-        <v>0.9999970982912442</v>
+        <v>0.9991955799532822</v>
       </c>
       <c r="J8">
-        <v>0.9999854913714307</v>
+        <v>0.9959779036076972</v>
       </c>
       <c r="K8">
-        <v>1.000009673715371</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="L8">
-        <v>0.9999854913714307</v>
+        <v>0.9959779036076972</v>
       </c>
       <c r="M8">
-        <v>1.000003627996212</v>
+        <v>1.00100552906182</v>
       </c>
       <c r="N8">
-        <v>1.000009673715371</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="O8">
-        <v>1.000003627996212</v>
+        <v>1.00100552906182</v>
       </c>
       <c r="P8">
-        <v>0.9999945596838213</v>
+        <v>0.9984917163347586</v>
       </c>
       <c r="Q8">
-        <v>1.000000255799756</v>
+        <v>1.000070639222189</v>
       </c>
       <c r="R8">
-        <v>0.999999597694338</v>
+        <v>0.9998882772435546</v>
       </c>
       <c r="S8">
-        <v>0.9999953343236473</v>
+        <v>0.9987063940173587</v>
       </c>
       <c r="T8">
-        <v>0.999999597694338</v>
+        <v>0.9998882772435546</v>
       </c>
       <c r="U8">
-        <v>0.9999989191715783</v>
+        <v>0.9997001452783056</v>
       </c>
       <c r="V8">
-        <v>1.000001070080337</v>
+        <v>1.000296396034874</v>
       </c>
       <c r="W8">
-        <v>0.9999990445063165</v>
+        <v>0.9997349336699386</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00000743275074</v>
+        <v>1.001492967566802</v>
       </c>
       <c r="D9">
-        <v>0.999995699664006</v>
+        <v>0.9991357494387229</v>
       </c>
       <c r="E9">
-        <v>1.000013347470214</v>
+        <v>1.002681398928622</v>
       </c>
       <c r="F9">
-        <v>1.000013347470214</v>
+        <v>1.002681398928622</v>
       </c>
       <c r="G9">
-        <v>0.9999869831097878</v>
+        <v>0.9973848118574015</v>
       </c>
       <c r="H9">
-        <v>1.000005005689587</v>
+        <v>1.001005528920932</v>
       </c>
       <c r="I9">
-        <v>0.9999959962033543</v>
+        <v>0.9991955799976964</v>
       </c>
       <c r="J9">
-        <v>0.9999799807265741</v>
+        <v>0.9959779038312745</v>
       </c>
       <c r="K9">
-        <v>1.000013347470214</v>
+        <v>1.002681398928622</v>
       </c>
       <c r="L9">
-        <v>0.9999799807265741</v>
+        <v>0.9959779038312745</v>
       </c>
       <c r="M9">
-        <v>1.000005005689587</v>
+        <v>1.001005528920932</v>
       </c>
       <c r="N9">
-        <v>1.000013347470214</v>
+        <v>1.002681398928622</v>
       </c>
       <c r="O9">
-        <v>1.000005005689587</v>
+        <v>1.001005528920932</v>
       </c>
       <c r="P9">
-        <v>0.9999924932080804</v>
+        <v>0.9984917163761033</v>
       </c>
       <c r="Q9">
-        <v>1.000000352676796</v>
+        <v>1.000070639179828</v>
       </c>
       <c r="R9">
-        <v>0.9999994446287914</v>
+        <v>0.9998882772269431</v>
       </c>
       <c r="S9">
-        <v>0.9999935620267223</v>
+        <v>0.9987063940636433</v>
       </c>
       <c r="T9">
-        <v>0.9999994446287914</v>
+        <v>0.999888277226943</v>
       </c>
       <c r="U9">
-        <v>0.9999985083875951</v>
+        <v>0.9997001452798879</v>
       </c>
       <c r="V9">
-        <v>1.000001476204119</v>
+        <v>1.000296396009635</v>
       </c>
       <c r="W9">
-        <v>0.9999986814129811</v>
+        <v>0.9997349336827979</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000016060952471</v>
+        <v>1.001492967045197</v>
       </c>
       <c r="D10">
-        <v>0.9999907045202605</v>
+        <v>0.999135749982445</v>
       </c>
       <c r="E10">
-        <v>1.000028846938666</v>
+        <v>1.002681396991698</v>
       </c>
       <c r="F10">
-        <v>1.000028846938666</v>
+        <v>1.002681396991698</v>
       </c>
       <c r="G10">
-        <v>0.9999718668523058</v>
+        <v>0.9973848135753169</v>
       </c>
       <c r="H10">
-        <v>1.000010819061263</v>
+        <v>1.001005528453988</v>
       </c>
       <c r="I10">
-        <v>0.9999913462776222</v>
+        <v>0.9991955805052442</v>
       </c>
       <c r="J10">
-        <v>0.9999567309414127</v>
+        <v>0.9959779064481313</v>
       </c>
       <c r="K10">
-        <v>1.000028846938666</v>
+        <v>1.002681396991698</v>
       </c>
       <c r="L10">
-        <v>0.9999567309414127</v>
+        <v>0.9959779064481313</v>
       </c>
       <c r="M10">
-        <v>1.000010819061263</v>
+        <v>1.001005528453988</v>
       </c>
       <c r="N10">
-        <v>1.000028846938666</v>
+        <v>1.002681396991698</v>
       </c>
       <c r="O10">
-        <v>1.000010819061263</v>
+        <v>1.001005528453988</v>
       </c>
       <c r="P10">
-        <v>0.9999837750013376</v>
+        <v>0.9984917174510597</v>
       </c>
       <c r="Q10">
-        <v>1.000000761790762</v>
+        <v>1.000070639218217</v>
       </c>
       <c r="R10">
-        <v>0.9999987989804469</v>
+        <v>0.9998882772979391</v>
       </c>
       <c r="S10">
-        <v>0.9999860848409785</v>
+        <v>0.9987063949615215</v>
       </c>
       <c r="T10">
-        <v>0.9999987989804469</v>
+        <v>0.9998882772979391</v>
       </c>
       <c r="U10">
-        <v>0.9999967753654002</v>
+        <v>0.9997001454690655</v>
       </c>
       <c r="V10">
-        <v>1.000003189680053</v>
+        <v>1.000296395773592</v>
       </c>
       <c r="W10">
-        <v>0.9999971493256579</v>
+        <v>0.999734933932001</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000026899420351</v>
+        <v>1.000031818500059</v>
       </c>
       <c r="D11">
-        <v>0.9999844325912599</v>
+        <v>0.9999815823300934</v>
       </c>
       <c r="E11">
-        <v>1.000048307154465</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="F11">
-        <v>1.000048307154465</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="G11">
-        <v>0.9999528887715676</v>
+        <v>0.9999442660605599</v>
       </c>
       <c r="H11">
-        <v>1.00001811897967</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="I11">
-        <v>0.9999855083622662</v>
+        <v>0.9999828564003238</v>
       </c>
       <c r="J11">
-        <v>0.9999275402935068</v>
+        <v>0.9999142830886733</v>
       </c>
       <c r="K11">
-        <v>1.000048307154465</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="L11">
-        <v>0.9999275402935068</v>
+        <v>0.9999142830886733</v>
       </c>
       <c r="M11">
-        <v>1.00001811897967</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="N11">
-        <v>1.000048307154465</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="O11">
-        <v>1.00001811897967</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="P11">
-        <v>0.9999728296365886</v>
+        <v>0.9999678565466901</v>
       </c>
       <c r="Q11">
-        <v>1.000001275785465</v>
+        <v>1.0000015061674</v>
       </c>
       <c r="R11">
-        <v>0.999997988809214</v>
+        <v>0.9999976197409657</v>
       </c>
       <c r="S11">
-        <v>0.9999766972881456</v>
+        <v>0.9999724318078246</v>
       </c>
       <c r="T11">
-        <v>0.999997988809214</v>
+        <v>0.9999976197409657</v>
       </c>
       <c r="U11">
-        <v>0.9999945997547255</v>
+        <v>0.9999936103882476</v>
       </c>
       <c r="V11">
-        <v>1.000005341234673</v>
+        <v>1.000006317536501</v>
       </c>
       <c r="W11">
-        <v>0.9999952268190947</v>
+        <v>0.99999435156483</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9996197386281405</v>
+        <v>1.000019339160281</v>
       </c>
       <c r="D12">
-        <v>1.000220127180249</v>
+        <v>0.9999888066539355</v>
       </c>
       <c r="E12">
-        <v>0.9993170378978251</v>
+        <v>1.000034732660927</v>
       </c>
       <c r="F12">
-        <v>0.9993170378978251</v>
+        <v>1.000034732660927</v>
       </c>
       <c r="G12">
-        <v>1.000666094573274</v>
+        <v>0.9999661260634037</v>
       </c>
       <c r="H12">
-        <v>0.9997438903312167</v>
+        <v>1.000013025103178</v>
       </c>
       <c r="I12">
-        <v>1.000204892840112</v>
+        <v>0.9999895807763201</v>
       </c>
       <c r="J12">
-        <v>1.001024441259902</v>
+        <v>0.999947903086866</v>
       </c>
       <c r="K12">
-        <v>0.9993170378978251</v>
+        <v>1.000034732660927</v>
       </c>
       <c r="L12">
-        <v>1.001024441259902</v>
+        <v>0.999947903086866</v>
       </c>
       <c r="M12">
-        <v>0.9997438903312167</v>
+        <v>1.000013025103178</v>
       </c>
       <c r="N12">
-        <v>0.9993170378978251</v>
+        <v>1.000034732660927</v>
       </c>
       <c r="O12">
-        <v>0.9997438903312167</v>
+        <v>1.000013025103178</v>
       </c>
       <c r="P12">
-        <v>1.000384165795559</v>
+        <v>0.9999804640950218</v>
       </c>
       <c r="Q12">
-        <v>0.999982008755733</v>
+        <v>1.000000915878557</v>
       </c>
       <c r="R12">
-        <v>1.000028456496315</v>
+        <v>0.9999985536169902</v>
       </c>
       <c r="S12">
-        <v>1.000329486257123</v>
+        <v>0.9999832449479932</v>
       </c>
       <c r="T12">
-        <v>1.000028456496315</v>
+        <v>0.9999985536169902</v>
       </c>
       <c r="U12">
-        <v>1.000076374167298</v>
+        <v>0.9999961168762266</v>
       </c>
       <c r="V12">
-        <v>0.9999245069134035</v>
+        <v>1.000003840033167</v>
       </c>
       <c r="W12">
-        <v>1.000067514130242</v>
+        <v>0.9999965673260112</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999013919139135</v>
+        <v>1.000064591121134</v>
       </c>
       <c r="D13">
-        <v>1.000057084164284</v>
+        <v>0.9999626116743842</v>
       </c>
       <c r="E13">
-        <v>0.9998229032557282</v>
+        <v>1.000116008075942</v>
       </c>
       <c r="F13">
-        <v>0.9998229032557282</v>
+        <v>1.000116008075942</v>
       </c>
       <c r="G13">
-        <v>1.000172721091205</v>
+        <v>0.9998868585455247</v>
       </c>
       <c r="H13">
-        <v>0.9999335899456648</v>
+        <v>1.000043499292633</v>
       </c>
       <c r="I13">
-        <v>1.000053127353346</v>
+        <v>0.9999651977732283</v>
       </c>
       <c r="J13">
-        <v>1.000265638310051</v>
+        <v>0.9998259940756916</v>
       </c>
       <c r="K13">
-        <v>0.9998229032557282</v>
+        <v>1.000116008075942</v>
       </c>
       <c r="L13">
-        <v>1.000265638310051</v>
+        <v>0.9998259940756916</v>
       </c>
       <c r="M13">
-        <v>0.9999335899456648</v>
+        <v>1.000043499292633</v>
       </c>
       <c r="N13">
-        <v>0.9998229032557282</v>
+        <v>1.000116008075942</v>
       </c>
       <c r="O13">
-        <v>0.9999335899456648</v>
+        <v>1.000043499292633</v>
       </c>
       <c r="P13">
-        <v>1.000099614127858</v>
+        <v>0.9999347466841624</v>
       </c>
       <c r="Q13">
-        <v>0.9999953370549743</v>
+        <v>1.000003055483509</v>
       </c>
       <c r="R13">
-        <v>1.000007377170481</v>
+        <v>0.999995167148089</v>
       </c>
       <c r="S13">
-        <v>1.000085437473333</v>
+        <v>0.9999440350142362</v>
       </c>
       <c r="T13">
-        <v>1.000007377170481</v>
+        <v>0.999995167148089</v>
       </c>
       <c r="U13">
-        <v>1.000019803918932</v>
+        <v>0.9999870282796628</v>
       </c>
       <c r="V13">
-        <v>0.9999804237862913</v>
+        <v>1.000012824238919</v>
       </c>
       <c r="W13">
-        <v>1.000017505747482</v>
+        <v>0.9999885324813964</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9988102947714953</v>
+        <v>1.000067981386414</v>
       </c>
       <c r="D14">
-        <v>1.000688686572624</v>
+        <v>0.9999606502129298</v>
       </c>
       <c r="E14">
-        <v>0.9978632677161556</v>
+        <v>1.000122093067016</v>
       </c>
       <c r="F14">
-        <v>0.9978632677161556</v>
+        <v>1.000122093067016</v>
       </c>
       <c r="G14">
-        <v>1.002083980368774</v>
+        <v>0.9998809250340424</v>
       </c>
       <c r="H14">
-        <v>0.9991987250610594</v>
+        <v>1.000045783131587</v>
       </c>
       <c r="I14">
-        <v>1.000641020265506</v>
+        <v>0.9999633720131877</v>
       </c>
       <c r="J14">
-        <v>1.003205081314129</v>
+        <v>0.9998168609668437</v>
       </c>
       <c r="K14">
-        <v>0.9978632677161556</v>
+        <v>1.000122093067016</v>
       </c>
       <c r="L14">
-        <v>1.003205081314129</v>
+        <v>0.9998168609668437</v>
       </c>
       <c r="M14">
-        <v>0.9991987250610594</v>
+        <v>1.000045783131587</v>
       </c>
       <c r="N14">
-        <v>0.9978632677161556</v>
+        <v>1.000122093067016</v>
       </c>
       <c r="O14">
-        <v>0.9991987250610594</v>
+        <v>1.000045783131587</v>
       </c>
       <c r="P14">
-        <v>1.001201903187594</v>
+        <v>0.9999313220492152</v>
       </c>
       <c r="Q14">
-        <v>0.9999437058168419</v>
+        <v>1.000003216672258</v>
       </c>
       <c r="R14">
-        <v>1.000089024697115</v>
+        <v>0.9999949123884821</v>
       </c>
       <c r="S14">
-        <v>1.001030830982604</v>
+        <v>0.9999410981037867</v>
       </c>
       <c r="T14">
-        <v>1.000089024697115</v>
+        <v>0.9999949123884821</v>
       </c>
       <c r="U14">
-        <v>1.000238940165992</v>
+        <v>0.9999863468445941</v>
       </c>
       <c r="V14">
-        <v>0.9997638056760249</v>
+        <v>1.000013496089079</v>
       </c>
       <c r="W14">
-        <v>1.00021122264135</v>
+        <v>0.9999879311179508</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9996823969090204</v>
+        <v>1.000024258913363</v>
       </c>
       <c r="D15">
-        <v>1.000183856412997</v>
+        <v>0.9999859584272185</v>
       </c>
       <c r="E15">
-        <v>0.9994295731410595</v>
+        <v>1.000043569260152</v>
       </c>
       <c r="F15">
-        <v>0.9994295731410595</v>
+        <v>1.000043569260152</v>
       </c>
       <c r="G15">
-        <v>1.000556339015841</v>
+        <v>0.9999575077837839</v>
       </c>
       <c r="H15">
-        <v>0.999786091092604</v>
+        <v>1.000016338304736</v>
       </c>
       <c r="I15">
-        <v>1.000171135636562</v>
+        <v>0.9999869300283084</v>
       </c>
       <c r="J15">
-        <v>1.000855633959365</v>
+        <v>0.9999346484333816</v>
       </c>
       <c r="K15">
-        <v>0.9994295731410595</v>
+        <v>1.000043569260152</v>
       </c>
       <c r="L15">
-        <v>1.000855633959365</v>
+        <v>0.9999346484333816</v>
       </c>
       <c r="M15">
-        <v>0.999786091092604</v>
+        <v>1.000016338304736</v>
       </c>
       <c r="N15">
-        <v>0.9994295731410595</v>
+        <v>1.000043569260152</v>
       </c>
       <c r="O15">
-        <v>0.999786091092604</v>
+        <v>1.000016338304736</v>
       </c>
       <c r="P15">
-        <v>1.000320862525985</v>
+        <v>0.999975493369059</v>
       </c>
       <c r="Q15">
-        <v>0.9999849737528005</v>
+        <v>1.000001148365977</v>
       </c>
       <c r="R15">
-        <v>1.000023766064343</v>
+        <v>0.9999981853327565</v>
       </c>
       <c r="S15">
-        <v>1.000275193821655</v>
+        <v>0.9999789817217789</v>
       </c>
       <c r="T15">
-        <v>1.000023766064343</v>
+        <v>0.9999981853327565</v>
       </c>
       <c r="U15">
-        <v>1.000063788651506</v>
+        <v>0.9999951286063721</v>
       </c>
       <c r="V15">
-        <v>0.999936945549417</v>
+        <v>1.000004816737128</v>
       </c>
       <c r="W15">
-        <v>1.000056389657507</v>
+        <v>0.9999956936819601</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000473241003937</v>
+        <v>1.000046830348517</v>
       </c>
       <c r="D16">
-        <v>0.9997260454027683</v>
+        <v>0.9999728927211236</v>
       </c>
       <c r="E16">
-        <v>1.000849959627848</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="F16">
-        <v>1.000849959627848</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="G16">
-        <v>0.9991710329084884</v>
+        <v>0.9999179695924223</v>
       </c>
       <c r="H16">
-        <v>1.000318732649276</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="I16">
-        <v>0.9997450197477969</v>
+        <v>0.9999747686191648</v>
       </c>
       <c r="J16">
-        <v>0.9987250757338815</v>
+        <v>0.9998738405347125</v>
       </c>
       <c r="K16">
-        <v>1.000849959627848</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="L16">
-        <v>0.9987250757338815</v>
+        <v>0.9998738405347125</v>
       </c>
       <c r="M16">
-        <v>1.000318732649276</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="N16">
-        <v>1.000849959627848</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="O16">
-        <v>1.000318732649276</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="P16">
-        <v>0.9995219041915787</v>
+        <v>0.9999526899265692</v>
       </c>
       <c r="Q16">
-        <v>1.000022389026022</v>
+        <v>1.000002216019775</v>
       </c>
       <c r="R16">
-        <v>0.9999645893370021</v>
+        <v>0.9999964960026623</v>
       </c>
       <c r="S16">
-        <v>0.9995899512619753</v>
+        <v>0.9999594241914206</v>
       </c>
       <c r="T16">
-        <v>0.9999645893370021</v>
+        <v>0.9999964960026623</v>
       </c>
       <c r="U16">
-        <v>0.9999049533534436</v>
+        <v>0.9999905951822776</v>
       </c>
       <c r="V16">
-        <v>1.000093954608325</v>
+        <v>1.000009297776792</v>
       </c>
       <c r="W16">
-        <v>0.999915979965409</v>
+        <v>0.999991686075955</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.00038754100453</v>
+        <v>1.000089741785679</v>
       </c>
       <c r="D17">
-        <v>0.9997756574407193</v>
+        <v>0.9999480525960448</v>
       </c>
       <c r="E17">
-        <v>1.000696036964239</v>
+        <v>1.000161182998812</v>
       </c>
       <c r="F17">
-        <v>1.000696036964239</v>
+        <v>1.000161182998812</v>
       </c>
       <c r="G17">
-        <v>0.9993211533008335</v>
+        <v>0.9998428004532942</v>
       </c>
       <c r="H17">
-        <v>1.000261012005009</v>
+        <v>1.00006044260736</v>
       </c>
       <c r="I17">
-        <v>0.9997911940679103</v>
+        <v>0.9999516449429066</v>
       </c>
       <c r="J17">
-        <v>0.9989559548928871</v>
+        <v>0.999758230971602</v>
       </c>
       <c r="K17">
-        <v>1.000696036964239</v>
+        <v>1.000161182998812</v>
       </c>
       <c r="L17">
-        <v>0.9989559548928871</v>
+        <v>0.999758230971602</v>
       </c>
       <c r="M17">
-        <v>1.000261012005009</v>
+        <v>1.00006044260736</v>
       </c>
       <c r="N17">
-        <v>1.000696036964239</v>
+        <v>1.000161182998812</v>
       </c>
       <c r="O17">
-        <v>1.000261012005009</v>
+        <v>1.00006044260736</v>
       </c>
       <c r="P17">
-        <v>0.9996084834489483</v>
+        <v>0.9999093367894811</v>
       </c>
       <c r="Q17">
-        <v>1.000018334722864</v>
+        <v>1.000004247601703</v>
       </c>
       <c r="R17">
-        <v>0.9999710012873786</v>
+        <v>0.9999932855259247</v>
       </c>
       <c r="S17">
-        <v>0.9996642081128719</v>
+        <v>0.9999222420583357</v>
       </c>
       <c r="T17">
-        <v>0.9999710012873786</v>
+        <v>0.9999932855259247</v>
       </c>
       <c r="U17">
-        <v>0.9999221653257138</v>
+        <v>0.9999819772934547</v>
       </c>
       <c r="V17">
-        <v>1.000076939653419</v>
+        <v>1.000017818434526</v>
       </c>
       <c r="W17">
-        <v>0.9999311952101423</v>
+        <v>0.9999840673703824</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000215750146111</v>
+        <v>1.000131632311232</v>
       </c>
       <c r="D18">
-        <v>0.9998751061220446</v>
+        <v>0.9999238029200505</v>
       </c>
       <c r="E18">
-        <v>1.000387493529998</v>
+        <v>1.000236405330583</v>
       </c>
       <c r="F18">
-        <v>1.000387493529998</v>
+        <v>1.000236405330583</v>
       </c>
       <c r="G18">
-        <v>0.9996220754412228</v>
+        <v>0.9997694321200028</v>
       </c>
       <c r="H18">
-        <v>1.000145310634304</v>
+        <v>1.000088655635477</v>
       </c>
       <c r="I18">
-        <v>0.9998837517047789</v>
+        <v>0.9999290787082596</v>
       </c>
       <c r="J18">
-        <v>0.9994187591452897</v>
+        <v>0.9996453961329435</v>
       </c>
       <c r="K18">
-        <v>1.000387493529998</v>
+        <v>1.000236405330583</v>
       </c>
       <c r="L18">
-        <v>0.9994187591452897</v>
+        <v>0.9996453961329435</v>
       </c>
       <c r="M18">
-        <v>1.000145310634304</v>
+        <v>1.000088655635477</v>
       </c>
       <c r="N18">
-        <v>1.000387493529998</v>
+        <v>1.000236405330583</v>
       </c>
       <c r="O18">
-        <v>1.000145310634304</v>
+        <v>1.000088655635477</v>
       </c>
       <c r="P18">
-        <v>0.9997820348897969</v>
+        <v>0.9998670258842102</v>
       </c>
       <c r="Q18">
-        <v>1.000010208378174</v>
+        <v>1.000006229277764</v>
       </c>
       <c r="R18">
-        <v>0.9999838544365307</v>
+        <v>0.9999901523663346</v>
       </c>
       <c r="S18">
-        <v>0.9998130586338795</v>
+        <v>0.9998859515628236</v>
       </c>
       <c r="T18">
-        <v>0.9999838544365307</v>
+        <v>0.9999901523663346</v>
       </c>
       <c r="U18">
-        <v>0.9999566673579092</v>
+        <v>0.9999735650047635</v>
       </c>
       <c r="V18">
-        <v>1.000042832592327</v>
+        <v>1.000026133069927</v>
       </c>
       <c r="W18">
-        <v>0.9999616946697566</v>
+        <v>0.9999766323492532</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000240449479785</v>
+        <v>1.000001859583906</v>
       </c>
       <c r="D19">
-        <v>0.9998608112639474</v>
+        <v>0.9999989252949232</v>
       </c>
       <c r="E19">
-        <v>1.000431846867479</v>
+        <v>1.000003339177924</v>
       </c>
       <c r="F19">
-        <v>1.000431846867479</v>
+        <v>1.000003339177924</v>
       </c>
       <c r="G19">
-        <v>0.9995788141659721</v>
+        <v>0.999996744455788</v>
       </c>
       <c r="H19">
-        <v>1.000161938877257</v>
+        <v>1.000001252510038</v>
       </c>
       <c r="I19">
-        <v>0.9998704448924566</v>
+        <v>0.9999989987071303</v>
       </c>
       <c r="J19">
-        <v>0.9993522234378114</v>
+        <v>0.9999949932043901</v>
       </c>
       <c r="K19">
-        <v>1.000431846867479</v>
+        <v>1.000003339177924</v>
       </c>
       <c r="L19">
-        <v>0.9993522234378114</v>
+        <v>0.9999949932043901</v>
       </c>
       <c r="M19">
-        <v>1.000161938877257</v>
+        <v>1.000001252510038</v>
       </c>
       <c r="N19">
-        <v>1.000431846867479</v>
+        <v>1.000003339177924</v>
       </c>
       <c r="O19">
-        <v>1.000161938877257</v>
+        <v>1.000001252510038</v>
       </c>
       <c r="P19">
-        <v>0.9997570811575343</v>
+        <v>0.9999981228572142</v>
       </c>
       <c r="Q19">
-        <v>1.000011375070602</v>
+        <v>1.000000088902481</v>
       </c>
       <c r="R19">
-        <v>0.9999820030608491</v>
+        <v>0.9999998616307844</v>
       </c>
       <c r="S19">
-        <v>0.9997916578596721</v>
+        <v>0.9999983903364505</v>
       </c>
       <c r="T19">
-        <v>0.9999820030608491</v>
+        <v>0.9999998616307844</v>
       </c>
       <c r="U19">
-        <v>0.9999517051116237</v>
+        <v>0.999999627546819</v>
       </c>
       <c r="V19">
-        <v>1.000047733462795</v>
+        <v>1.00000036987304</v>
       </c>
       <c r="W19">
-        <v>0.9999573084827457</v>
+        <v>0.9999996706805174</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00000010142273</v>
+        <v>1.000005386698843</v>
       </c>
       <c r="D20">
-        <v>0.9999999430818357</v>
+        <v>0.9999968836032992</v>
       </c>
       <c r="E20">
-        <v>1.000000181278928</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="F20">
-        <v>1.000000181278928</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="G20">
-        <v>0.9999998241261623</v>
+        <v>0.9999905663779187</v>
       </c>
       <c r="H20">
-        <v>1.000000068338834</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="I20">
-        <v>0.9999999460394408</v>
+        <v>0.9999970982912442</v>
       </c>
       <c r="J20">
-        <v>0.9999997296217834</v>
+        <v>0.9999854913714307</v>
       </c>
       <c r="K20">
-        <v>1.000000181278928</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="L20">
-        <v>0.9999997296217834</v>
+        <v>0.9999854913714307</v>
       </c>
       <c r="M20">
-        <v>1.000000068338834</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="N20">
-        <v>1.000000181278928</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="O20">
-        <v>1.000000068338834</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="P20">
-        <v>0.9999998989803089</v>
+        <v>0.9999945596838213</v>
       </c>
       <c r="Q20">
-        <v>1.000000005710335</v>
+        <v>1.000000255799756</v>
       </c>
       <c r="R20">
-        <v>0.9999999930798484</v>
+        <v>0.999999597694338</v>
       </c>
       <c r="S20">
-        <v>0.9999999136808179</v>
+        <v>0.9999953343236473</v>
       </c>
       <c r="T20">
-        <v>0.9999999930798484</v>
+        <v>0.999999597694338</v>
       </c>
       <c r="U20">
-        <v>0.9999999805803452</v>
+        <v>0.9999989191715783</v>
       </c>
       <c r="V20">
-        <v>1.000000020720062</v>
+        <v>1.000001070080337</v>
       </c>
       <c r="W20">
-        <v>0.9999999827810686</v>
+        <v>0.9999990445063165</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000002122849556</v>
+        <v>1.00000743275074</v>
       </c>
       <c r="D21">
-        <v>0.9999987730881021</v>
+        <v>0.999995699664006</v>
       </c>
       <c r="E21">
-        <v>1.000003811406484</v>
+        <v>1.000013347470214</v>
       </c>
       <c r="F21">
-        <v>1.000003811406484</v>
+        <v>1.000013347470214</v>
       </c>
       <c r="G21">
-        <v>0.9999962835668212</v>
+        <v>0.9999869831097878</v>
       </c>
       <c r="H21">
-        <v>1.00000142986533</v>
+        <v>1.000005005689587</v>
       </c>
       <c r="I21">
-        <v>0.9999988564359558</v>
+        <v>0.9999959962033543</v>
       </c>
       <c r="J21">
-        <v>0.9999942840346907</v>
+        <v>0.9999799807265741</v>
       </c>
       <c r="K21">
-        <v>1.000003811406484</v>
+        <v>1.000013347470214</v>
       </c>
       <c r="L21">
-        <v>0.9999942840346907</v>
+        <v>0.9999799807265741</v>
       </c>
       <c r="M21">
-        <v>1.00000142986533</v>
+        <v>1.000005005689587</v>
       </c>
       <c r="N21">
-        <v>1.000003811406484</v>
+        <v>1.000013347470214</v>
       </c>
       <c r="O21">
-        <v>1.00000142986533</v>
+        <v>1.000005005689587</v>
       </c>
       <c r="P21">
-        <v>0.9999978569500104</v>
+        <v>0.9999924932080804</v>
       </c>
       <c r="Q21">
-        <v>1.000000101476716</v>
+        <v>1.000000352676796</v>
       </c>
       <c r="R21">
-        <v>0.9999998417688351</v>
+        <v>0.9999994446287914</v>
       </c>
       <c r="S21">
-        <v>0.9999981623293742</v>
+        <v>0.9999935620267223</v>
       </c>
       <c r="T21">
-        <v>0.9999998417688351</v>
+        <v>0.9999994446287914</v>
       </c>
       <c r="U21">
-        <v>0.9999995745986519</v>
+        <v>0.9999985083875951</v>
       </c>
       <c r="V21">
-        <v>1.000000421960218</v>
+        <v>1.000001476204119</v>
       </c>
       <c r="W21">
-        <v>0.9999996238890337</v>
+        <v>0.9999986814129811</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000007471388479</v>
+        <v>1.000016060952471</v>
       </c>
       <c r="D22">
-        <v>0.9999956803766743</v>
+        <v>0.9999907045202605</v>
       </c>
       <c r="E22">
-        <v>1.000013416810785</v>
+        <v>1.000028846938666</v>
       </c>
       <c r="F22">
-        <v>1.000013416810785</v>
+        <v>1.000028846938666</v>
       </c>
       <c r="G22">
-        <v>0.9999869170957105</v>
+        <v>0.9999718668523058</v>
       </c>
       <c r="H22">
-        <v>1.000005030523864</v>
+        <v>1.000010819061263</v>
       </c>
       <c r="I22">
-        <v>0.9999959755372088</v>
+        <v>0.9999913462776222</v>
       </c>
       <c r="J22">
-        <v>0.9999798786429422</v>
+        <v>0.9999567309414127</v>
       </c>
       <c r="K22">
-        <v>1.000013416810785</v>
+        <v>1.000028846938666</v>
       </c>
       <c r="L22">
-        <v>0.9999798786429422</v>
+        <v>0.9999567309414127</v>
       </c>
       <c r="M22">
-        <v>1.000005030523864</v>
+        <v>1.000010819061263</v>
       </c>
       <c r="N22">
-        <v>1.000013416810785</v>
+        <v>1.000028846938666</v>
       </c>
       <c r="O22">
-        <v>1.000005030523864</v>
+        <v>1.000010819061263</v>
       </c>
       <c r="P22">
-        <v>0.9999924545834031</v>
+        <v>0.9999837750013376</v>
       </c>
       <c r="Q22">
-        <v>1.000000355450269</v>
+        <v>1.000000761790762</v>
       </c>
       <c r="R22">
-        <v>0.9999994419925303</v>
+        <v>0.9999987989804469</v>
       </c>
       <c r="S22">
-        <v>0.9999935298478269</v>
+        <v>0.9999860848409785</v>
       </c>
       <c r="T22">
-        <v>0.9999994419925303</v>
+        <v>0.9999987989804469</v>
       </c>
       <c r="U22">
-        <v>0.9999985015885663</v>
+        <v>0.9999967753654002</v>
       </c>
       <c r="V22">
-        <v>1.00000148463301</v>
+        <v>1.000003189680053</v>
       </c>
       <c r="W22">
-        <v>0.999998675112441</v>
+        <v>0.9999971493256579</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000026899420351</v>
+      </c>
+      <c r="D23">
+        <v>0.9999844325912599</v>
+      </c>
+      <c r="E23">
+        <v>1.000048307154465</v>
+      </c>
+      <c r="F23">
+        <v>1.000048307154465</v>
+      </c>
+      <c r="G23">
+        <v>0.9999528887715676</v>
+      </c>
+      <c r="H23">
+        <v>1.00001811897967</v>
+      </c>
+      <c r="I23">
+        <v>0.9999855083622662</v>
+      </c>
+      <c r="J23">
+        <v>0.9999275402935068</v>
+      </c>
+      <c r="K23">
+        <v>1.000048307154465</v>
+      </c>
+      <c r="L23">
+        <v>0.9999275402935068</v>
+      </c>
+      <c r="M23">
+        <v>1.00001811897967</v>
+      </c>
+      <c r="N23">
+        <v>1.000048307154465</v>
+      </c>
+      <c r="O23">
+        <v>1.00001811897967</v>
+      </c>
+      <c r="P23">
+        <v>0.9999728296365886</v>
+      </c>
+      <c r="Q23">
+        <v>1.000001275785465</v>
+      </c>
+      <c r="R23">
+        <v>0.999997988809214</v>
+      </c>
+      <c r="S23">
+        <v>0.9999766972881456</v>
+      </c>
+      <c r="T23">
+        <v>0.999997988809214</v>
+      </c>
+      <c r="U23">
+        <v>0.9999945997547255</v>
+      </c>
+      <c r="V23">
+        <v>1.000005341234673</v>
+      </c>
+      <c r="W23">
+        <v>0.9999952268190947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996197386281405</v>
+      </c>
+      <c r="D24">
+        <v>1.000220127180249</v>
+      </c>
+      <c r="E24">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="F24">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="G24">
+        <v>1.000666094573274</v>
+      </c>
+      <c r="H24">
+        <v>0.9997438903312167</v>
+      </c>
+      <c r="I24">
+        <v>1.000204892840112</v>
+      </c>
+      <c r="J24">
+        <v>1.001024441259902</v>
+      </c>
+      <c r="K24">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="L24">
+        <v>1.001024441259902</v>
+      </c>
+      <c r="M24">
+        <v>0.9997438903312167</v>
+      </c>
+      <c r="N24">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="O24">
+        <v>0.9997438903312167</v>
+      </c>
+      <c r="P24">
+        <v>1.000384165795559</v>
+      </c>
+      <c r="Q24">
+        <v>0.999982008755733</v>
+      </c>
+      <c r="R24">
+        <v>1.000028456496315</v>
+      </c>
+      <c r="S24">
+        <v>1.000329486257123</v>
+      </c>
+      <c r="T24">
+        <v>1.000028456496315</v>
+      </c>
+      <c r="U24">
+        <v>1.000076374167298</v>
+      </c>
+      <c r="V24">
+        <v>0.9999245069134035</v>
+      </c>
+      <c r="W24">
+        <v>1.000067514130242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9999013919139135</v>
+      </c>
+      <c r="D25">
+        <v>1.000057084164284</v>
+      </c>
+      <c r="E25">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="F25">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="G25">
+        <v>1.000172721091205</v>
+      </c>
+      <c r="H25">
+        <v>0.9999335899456648</v>
+      </c>
+      <c r="I25">
+        <v>1.000053127353346</v>
+      </c>
+      <c r="J25">
+        <v>1.000265638310051</v>
+      </c>
+      <c r="K25">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="L25">
+        <v>1.000265638310051</v>
+      </c>
+      <c r="M25">
+        <v>0.9999335899456648</v>
+      </c>
+      <c r="N25">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="O25">
+        <v>0.9999335899456648</v>
+      </c>
+      <c r="P25">
+        <v>1.000099614127858</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999953370549743</v>
+      </c>
+      <c r="R25">
+        <v>1.000007377170481</v>
+      </c>
+      <c r="S25">
+        <v>1.000085437473333</v>
+      </c>
+      <c r="T25">
+        <v>1.000007377170481</v>
+      </c>
+      <c r="U25">
+        <v>1.000019803918932</v>
+      </c>
+      <c r="V25">
+        <v>0.9999804237862913</v>
+      </c>
+      <c r="W25">
+        <v>1.000017505747482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9988102947714953</v>
+      </c>
+      <c r="D26">
+        <v>1.000688686572624</v>
+      </c>
+      <c r="E26">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="F26">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="G26">
+        <v>1.002083980368774</v>
+      </c>
+      <c r="H26">
+        <v>0.9991987250610594</v>
+      </c>
+      <c r="I26">
+        <v>1.000641020265506</v>
+      </c>
+      <c r="J26">
+        <v>1.003205081314129</v>
+      </c>
+      <c r="K26">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="L26">
+        <v>1.003205081314129</v>
+      </c>
+      <c r="M26">
+        <v>0.9991987250610594</v>
+      </c>
+      <c r="N26">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="O26">
+        <v>0.9991987250610594</v>
+      </c>
+      <c r="P26">
+        <v>1.001201903187594</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999437058168419</v>
+      </c>
+      <c r="R26">
+        <v>1.000089024697115</v>
+      </c>
+      <c r="S26">
+        <v>1.001030830982604</v>
+      </c>
+      <c r="T26">
+        <v>1.000089024697115</v>
+      </c>
+      <c r="U26">
+        <v>1.000238940165992</v>
+      </c>
+      <c r="V26">
+        <v>0.9997638056760249</v>
+      </c>
+      <c r="W26">
+        <v>1.00021122264135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9996823969090204</v>
+      </c>
+      <c r="D27">
+        <v>1.000183856412997</v>
+      </c>
+      <c r="E27">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="F27">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="G27">
+        <v>1.000556339015841</v>
+      </c>
+      <c r="H27">
+        <v>0.999786091092604</v>
+      </c>
+      <c r="I27">
+        <v>1.000171135636562</v>
+      </c>
+      <c r="J27">
+        <v>1.000855633959365</v>
+      </c>
+      <c r="K27">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="L27">
+        <v>1.000855633959365</v>
+      </c>
+      <c r="M27">
+        <v>0.999786091092604</v>
+      </c>
+      <c r="N27">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="O27">
+        <v>0.999786091092604</v>
+      </c>
+      <c r="P27">
+        <v>1.000320862525985</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999849737528005</v>
+      </c>
+      <c r="R27">
+        <v>1.000023766064343</v>
+      </c>
+      <c r="S27">
+        <v>1.000275193821655</v>
+      </c>
+      <c r="T27">
+        <v>1.000023766064343</v>
+      </c>
+      <c r="U27">
+        <v>1.000063788651506</v>
+      </c>
+      <c r="V27">
+        <v>0.999936945549417</v>
+      </c>
+      <c r="W27">
+        <v>1.000056389657507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000473241003937</v>
+      </c>
+      <c r="D28">
+        <v>0.9997260454027683</v>
+      </c>
+      <c r="E28">
+        <v>1.000849959627848</v>
+      </c>
+      <c r="F28">
+        <v>1.000849959627848</v>
+      </c>
+      <c r="G28">
+        <v>0.9991710329084884</v>
+      </c>
+      <c r="H28">
+        <v>1.000318732649276</v>
+      </c>
+      <c r="I28">
+        <v>0.9997450197477969</v>
+      </c>
+      <c r="J28">
+        <v>0.9987250757338815</v>
+      </c>
+      <c r="K28">
+        <v>1.000849959627848</v>
+      </c>
+      <c r="L28">
+        <v>0.9987250757338815</v>
+      </c>
+      <c r="M28">
+        <v>1.000318732649276</v>
+      </c>
+      <c r="N28">
+        <v>1.000849959627848</v>
+      </c>
+      <c r="O28">
+        <v>1.000318732649276</v>
+      </c>
+      <c r="P28">
+        <v>0.9995219041915787</v>
+      </c>
+      <c r="Q28">
+        <v>1.000022389026022</v>
+      </c>
+      <c r="R28">
+        <v>0.9999645893370021</v>
+      </c>
+      <c r="S28">
+        <v>0.9995899512619753</v>
+      </c>
+      <c r="T28">
+        <v>0.9999645893370021</v>
+      </c>
+      <c r="U28">
+        <v>0.9999049533534436</v>
+      </c>
+      <c r="V28">
+        <v>1.000093954608325</v>
+      </c>
+      <c r="W28">
+        <v>0.999915979965409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.00038754100453</v>
+      </c>
+      <c r="D29">
+        <v>0.9997756574407193</v>
+      </c>
+      <c r="E29">
+        <v>1.000696036964239</v>
+      </c>
+      <c r="F29">
+        <v>1.000696036964239</v>
+      </c>
+      <c r="G29">
+        <v>0.9993211533008335</v>
+      </c>
+      <c r="H29">
+        <v>1.000261012005009</v>
+      </c>
+      <c r="I29">
+        <v>0.9997911940679103</v>
+      </c>
+      <c r="J29">
+        <v>0.9989559548928871</v>
+      </c>
+      <c r="K29">
+        <v>1.000696036964239</v>
+      </c>
+      <c r="L29">
+        <v>0.9989559548928871</v>
+      </c>
+      <c r="M29">
+        <v>1.000261012005009</v>
+      </c>
+      <c r="N29">
+        <v>1.000696036964239</v>
+      </c>
+      <c r="O29">
+        <v>1.000261012005009</v>
+      </c>
+      <c r="P29">
+        <v>0.9996084834489483</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018334722864</v>
+      </c>
+      <c r="R29">
+        <v>0.9999710012873786</v>
+      </c>
+      <c r="S29">
+        <v>0.9996642081128719</v>
+      </c>
+      <c r="T29">
+        <v>0.9999710012873786</v>
+      </c>
+      <c r="U29">
+        <v>0.9999221653257138</v>
+      </c>
+      <c r="V29">
+        <v>1.000076939653419</v>
+      </c>
+      <c r="W29">
+        <v>0.9999311952101423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000215750146111</v>
+      </c>
+      <c r="D30">
+        <v>0.9998751061220446</v>
+      </c>
+      <c r="E30">
+        <v>1.000387493529998</v>
+      </c>
+      <c r="F30">
+        <v>1.000387493529998</v>
+      </c>
+      <c r="G30">
+        <v>0.9996220754412228</v>
+      </c>
+      <c r="H30">
+        <v>1.000145310634304</v>
+      </c>
+      <c r="I30">
+        <v>0.9998837517047789</v>
+      </c>
+      <c r="J30">
+        <v>0.9994187591452897</v>
+      </c>
+      <c r="K30">
+        <v>1.000387493529998</v>
+      </c>
+      <c r="L30">
+        <v>0.9994187591452897</v>
+      </c>
+      <c r="M30">
+        <v>1.000145310634304</v>
+      </c>
+      <c r="N30">
+        <v>1.000387493529998</v>
+      </c>
+      <c r="O30">
+        <v>1.000145310634304</v>
+      </c>
+      <c r="P30">
+        <v>0.9997820348897969</v>
+      </c>
+      <c r="Q30">
+        <v>1.000010208378174</v>
+      </c>
+      <c r="R30">
+        <v>0.9999838544365307</v>
+      </c>
+      <c r="S30">
+        <v>0.9998130586338795</v>
+      </c>
+      <c r="T30">
+        <v>0.9999838544365307</v>
+      </c>
+      <c r="U30">
+        <v>0.9999566673579092</v>
+      </c>
+      <c r="V30">
+        <v>1.000042832592327</v>
+      </c>
+      <c r="W30">
+        <v>0.9999616946697566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000240449479785</v>
+      </c>
+      <c r="D31">
+        <v>0.9998608112639474</v>
+      </c>
+      <c r="E31">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="F31">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="G31">
+        <v>0.9995788141659721</v>
+      </c>
+      <c r="H31">
+        <v>1.000161938877257</v>
+      </c>
+      <c r="I31">
+        <v>0.9998704448924566</v>
+      </c>
+      <c r="J31">
+        <v>0.9993522234378114</v>
+      </c>
+      <c r="K31">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="L31">
+        <v>0.9993522234378114</v>
+      </c>
+      <c r="M31">
+        <v>1.000161938877257</v>
+      </c>
+      <c r="N31">
+        <v>1.000431846867479</v>
+      </c>
+      <c r="O31">
+        <v>1.000161938877257</v>
+      </c>
+      <c r="P31">
+        <v>0.9997570811575343</v>
+      </c>
+      <c r="Q31">
+        <v>1.000011375070602</v>
+      </c>
+      <c r="R31">
+        <v>0.9999820030608491</v>
+      </c>
+      <c r="S31">
+        <v>0.9997916578596721</v>
+      </c>
+      <c r="T31">
+        <v>0.9999820030608491</v>
+      </c>
+      <c r="U31">
+        <v>0.9999517051116237</v>
+      </c>
+      <c r="V31">
+        <v>1.000047733462795</v>
+      </c>
+      <c r="W31">
+        <v>0.9999573084827457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.000572641369863</v>
+      </c>
+      <c r="D32">
+        <v>0.9996685027397261</v>
+      </c>
+      <c r="E32">
+        <v>1.001028487123288</v>
+      </c>
+      <c r="F32">
+        <v>1.001028487123288</v>
+      </c>
+      <c r="G32">
+        <v>0.99899691479452</v>
+      </c>
+      <c r="H32">
+        <v>1.000385680821918</v>
+      </c>
+      <c r="I32">
+        <v>0.9996914636986299</v>
+      </c>
+      <c r="J32">
+        <v>0.9984572884931506</v>
+      </c>
+      <c r="K32">
+        <v>1.001028487123288</v>
+      </c>
+      <c r="L32">
+        <v>0.9984572884931506</v>
+      </c>
+      <c r="M32">
+        <v>1.000385680821918</v>
+      </c>
+      <c r="N32">
+        <v>1.001028487123288</v>
+      </c>
+      <c r="O32">
+        <v>1.000385680821918</v>
+      </c>
+      <c r="P32">
+        <v>0.9994214846575344</v>
+      </c>
+      <c r="Q32">
+        <v>1.000027091780822</v>
+      </c>
+      <c r="R32">
+        <v>0.999957152146119</v>
+      </c>
+      <c r="S32">
+        <v>0.999503824018265</v>
+      </c>
+      <c r="T32">
+        <v>0.999957152146119</v>
+      </c>
+      <c r="U32">
+        <v>0.9998849897945208</v>
+      </c>
+      <c r="V32">
+        <v>1.000113689260274</v>
+      </c>
+      <c r="W32">
+        <v>0.9998983324828767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000674421578947</v>
+      </c>
+      <c r="D33">
+        <v>0.9996095889473684</v>
+      </c>
+      <c r="E33">
+        <v>1.001211267894737</v>
+      </c>
+      <c r="F33">
+        <v>1.001211267894737</v>
+      </c>
+      <c r="G33">
+        <v>0.9988186368421051</v>
+      </c>
+      <c r="H33">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="I33">
+        <v>0.9996366189473683</v>
+      </c>
+      <c r="J33">
+        <v>0.9981830857894737</v>
+      </c>
+      <c r="K33">
+        <v>1.001211267894737</v>
+      </c>
+      <c r="L33">
+        <v>0.9981830857894737</v>
+      </c>
+      <c r="M33">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="N33">
+        <v>1.001211267894737</v>
+      </c>
+      <c r="O33">
+        <v>1.000454223157895</v>
+      </c>
+      <c r="P33">
+        <v>0.9993186544736843</v>
+      </c>
+      <c r="Q33">
+        <v>1.000031906052631</v>
+      </c>
+      <c r="R33">
+        <v>0.9999495256140353</v>
+      </c>
+      <c r="S33">
+        <v>0.9994156326315791</v>
+      </c>
+      <c r="T33">
+        <v>0.9999495256140351</v>
+      </c>
+      <c r="U33">
+        <v>0.9998645414473684</v>
+      </c>
+      <c r="V33">
+        <v>1.000133886736842</v>
+      </c>
+      <c r="W33">
+        <v>0.9998802582894737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001492968421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9991357505263155</v>
+      </c>
+      <c r="E34">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="F34">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="G34">
+        <v>0.9973848152631581</v>
+      </c>
+      <c r="H34">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="I34">
+        <v>0.9991955810526315</v>
+      </c>
+      <c r="J34">
+        <v>0.9959779089473684</v>
+      </c>
+      <c r="K34">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="L34">
+        <v>0.9959779089473684</v>
+      </c>
+      <c r="M34">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="N34">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="O34">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="P34">
+        <v>0.9984917176315792</v>
+      </c>
+      <c r="Q34">
+        <v>1.000070638421053</v>
+      </c>
+      <c r="R34">
+        <v>0.9998882766666668</v>
+      </c>
+      <c r="S34">
+        <v>0.998706395263158</v>
+      </c>
+      <c r="T34">
+        <v>0.9998882766666668</v>
+      </c>
+      <c r="U34">
+        <v>0.999700145131579</v>
+      </c>
+      <c r="V34">
+        <v>1.000296395052632</v>
+      </c>
+      <c r="W34">
+        <v>0.9997349339473685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.000851501046482</v>
+      </c>
+      <c r="D35">
+        <v>0.9995070924961087</v>
+      </c>
+      <c r="E35">
+        <v>1.001529283112946</v>
+      </c>
+      <c r="F35">
+        <v>1.001529283112946</v>
+      </c>
+      <c r="G35">
+        <v>0.9985084785758167</v>
+      </c>
+      <c r="H35">
+        <v>1.000573467996217</v>
+      </c>
+      <c r="I35">
+        <v>0.9995412152026936</v>
+      </c>
+      <c r="J35">
+        <v>0.9977060756056081</v>
+      </c>
+      <c r="K35">
+        <v>1.001529283112946</v>
+      </c>
+      <c r="L35">
+        <v>0.9977060756056081</v>
+      </c>
+      <c r="M35">
+        <v>1.000573467996217</v>
+      </c>
+      <c r="N35">
+        <v>1.001529283112946</v>
+      </c>
+      <c r="O35">
+        <v>1.000573467996217</v>
+      </c>
+      <c r="P35">
+        <v>0.9991397718009123</v>
+      </c>
+      <c r="Q35">
+        <v>1.000040280246163</v>
+      </c>
+      <c r="R35">
+        <v>0.99993627557159</v>
+      </c>
+      <c r="S35">
+        <v>0.9992622120326443</v>
+      </c>
+      <c r="T35">
+        <v>0.9999362755715903</v>
+      </c>
+      <c r="U35">
+        <v>0.9998289798027198</v>
+      </c>
+      <c r="V35">
+        <v>1.000169040464765</v>
+      </c>
+      <c r="W35">
+        <v>0.999848822754011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.00000010142273</v>
+      </c>
+      <c r="D36">
+        <v>0.9999999430818357</v>
+      </c>
+      <c r="E36">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="F36">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="G36">
+        <v>0.9999998241261623</v>
+      </c>
+      <c r="H36">
+        <v>1.000000068338834</v>
+      </c>
+      <c r="I36">
+        <v>0.9999999460394408</v>
+      </c>
+      <c r="J36">
+        <v>0.9999997296217834</v>
+      </c>
+      <c r="K36">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="L36">
+        <v>0.9999997296217834</v>
+      </c>
+      <c r="M36">
+        <v>1.000000068338834</v>
+      </c>
+      <c r="N36">
+        <v>1.000000181278928</v>
+      </c>
+      <c r="O36">
+        <v>1.000000068338834</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998989803089</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000005710335</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999930798484</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999136808179</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999930798484</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999805803452</v>
+      </c>
+      <c r="V36">
+        <v>1.000000020720062</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999827810686</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000002122849556</v>
+      </c>
+      <c r="D37">
+        <v>0.9999987730881021</v>
+      </c>
+      <c r="E37">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="F37">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="G37">
+        <v>0.9999962835668212</v>
+      </c>
+      <c r="H37">
+        <v>1.00000142986533</v>
+      </c>
+      <c r="I37">
+        <v>0.9999988564359558</v>
+      </c>
+      <c r="J37">
+        <v>0.9999942840346907</v>
+      </c>
+      <c r="K37">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="L37">
+        <v>0.9999942840346907</v>
+      </c>
+      <c r="M37">
+        <v>1.00000142986533</v>
+      </c>
+      <c r="N37">
+        <v>1.000003811406484</v>
+      </c>
+      <c r="O37">
+        <v>1.00000142986533</v>
+      </c>
+      <c r="P37">
+        <v>0.9999978569500104</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000101476716</v>
+      </c>
+      <c r="R37">
+        <v>0.9999998417688351</v>
+      </c>
+      <c r="S37">
+        <v>0.9999981623293742</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998417688351</v>
+      </c>
+      <c r="U37">
+        <v>0.9999995745986519</v>
+      </c>
+      <c r="V37">
+        <v>1.000000421960218</v>
+      </c>
+      <c r="W37">
+        <v>0.9999996238890337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000007471388479</v>
+      </c>
+      <c r="D38">
+        <v>0.9999956803766743</v>
+      </c>
+      <c r="E38">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="F38">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="G38">
+        <v>0.9999869170957105</v>
+      </c>
+      <c r="H38">
+        <v>1.000005030523864</v>
+      </c>
+      <c r="I38">
+        <v>0.9999959755372088</v>
+      </c>
+      <c r="J38">
+        <v>0.9999798786429422</v>
+      </c>
+      <c r="K38">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="L38">
+        <v>0.9999798786429422</v>
+      </c>
+      <c r="M38">
+        <v>1.000005030523864</v>
+      </c>
+      <c r="N38">
+        <v>1.000013416810785</v>
+      </c>
+      <c r="O38">
+        <v>1.000005030523864</v>
+      </c>
+      <c r="P38">
+        <v>0.9999924545834031</v>
+      </c>
+      <c r="Q38">
+        <v>1.000000355450269</v>
+      </c>
+      <c r="R38">
+        <v>0.9999994419925303</v>
+      </c>
+      <c r="S38">
+        <v>0.9999935298478269</v>
+      </c>
+      <c r="T38">
+        <v>0.9999994419925303</v>
+      </c>
+      <c r="U38">
+        <v>0.9999985015885663</v>
+      </c>
+      <c r="V38">
+        <v>1.00000148463301</v>
+      </c>
+      <c r="W38">
+        <v>0.999998675112441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000017496226953</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999898706203463</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000031426554662</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000031426554662</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999693500357598</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000011785312644</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999905702070723</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999528617839161</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000031426554662</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999528617839161</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000011785312644</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000031426554662</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000011785312644</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999823235482801</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000000827966495</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999986912170741</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999848392389689</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999986912170741</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999964860678922</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000003474165246</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999968932567498</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000539946993403</v>
+      </c>
+      <c r="D40">
+        <v>0.9996874355045371</v>
+      </c>
+      <c r="E40">
+        <v>1.000969755941717</v>
+      </c>
+      <c r="F40">
+        <v>1.000969755941717</v>
+      </c>
+      <c r="G40">
+        <v>0.9990541895896751</v>
+      </c>
+      <c r="H40">
+        <v>1.000363658296492</v>
+      </c>
+      <c r="I40">
+        <v>0.9997090736801967</v>
+      </c>
+      <c r="J40">
+        <v>0.9985453678368221</v>
+      </c>
+      <c r="K40">
+        <v>1.000969755941717</v>
+      </c>
+      <c r="L40">
+        <v>0.9985453678368221</v>
+      </c>
+      <c r="M40">
+        <v>1.000363658296492</v>
+      </c>
+      <c r="N40">
+        <v>1.000969755941717</v>
+      </c>
+      <c r="O40">
+        <v>1.000363658296492</v>
+      </c>
+      <c r="P40">
+        <v>0.9994545130666572</v>
+      </c>
+      <c r="Q40">
+        <v>1.000025546900515</v>
+      </c>
+      <c r="R40">
+        <v>0.9999595940250104</v>
+      </c>
+      <c r="S40">
+        <v>0.9995321538792838</v>
+      </c>
+      <c r="T40">
+        <v>0.9999595940250104</v>
+      </c>
+      <c r="U40">
+        <v>0.9998915543948921</v>
+      </c>
+      <c r="V40">
+        <v>1.000107194704257</v>
+      </c>
+      <c r="W40">
+        <v>0.9999041357674168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999948094150638</v>
+      </c>
+      <c r="D41">
+        <v>1.000003007733153</v>
+      </c>
+      <c r="E41">
+        <v>0.9999906785833652</v>
+      </c>
+      <c r="F41">
+        <v>0.9999906785833652</v>
+      </c>
+      <c r="G41">
+        <v>1.000009093388558</v>
+      </c>
+      <c r="H41">
+        <v>0.9999965059586353</v>
+      </c>
+      <c r="I41">
+        <v>1.000002797533942</v>
+      </c>
+      <c r="J41">
+        <v>1.000013987367738</v>
+      </c>
+      <c r="K41">
+        <v>0.9999906785833652</v>
+      </c>
+      <c r="L41">
+        <v>1.000013987367738</v>
+      </c>
+      <c r="M41">
+        <v>0.9999965059586353</v>
+      </c>
+      <c r="N41">
+        <v>0.9999906785833652</v>
+      </c>
+      <c r="O41">
+        <v>0.9999965059586353</v>
+      </c>
+      <c r="P41">
+        <v>1.000005246663187</v>
+      </c>
+      <c r="Q41">
+        <v>0.999999756845894</v>
+      </c>
+      <c r="R41">
+        <v>1.000000390636579</v>
+      </c>
+      <c r="S41">
+        <v>1.000004500353175</v>
+      </c>
+      <c r="T41">
+        <v>1.000000390636579</v>
+      </c>
+      <c r="U41">
+        <v>1.000001044910723</v>
+      </c>
+      <c r="V41">
+        <v>0.9999989716452513</v>
+      </c>
+      <c r="W41">
+        <v>1.000000923242386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000540205844537</v>
+      </c>
+      <c r="D42">
+        <v>0.9996872847596071</v>
+      </c>
+      <c r="E42">
+        <v>1.000970222036019</v>
+      </c>
+      <c r="F42">
+        <v>1.000970222036019</v>
+      </c>
+      <c r="G42">
+        <v>0.9990537334547791</v>
+      </c>
+      <c r="H42">
+        <v>1.000363835676051</v>
+      </c>
+      <c r="I42">
+        <v>0.9997089312928009</v>
+      </c>
+      <c r="J42">
+        <v>0.9985446699220411</v>
+      </c>
+      <c r="K42">
+        <v>1.000970222036019</v>
+      </c>
+      <c r="L42">
+        <v>0.9985446699220411</v>
+      </c>
+      <c r="M42">
+        <v>1.000363835676051</v>
+      </c>
+      <c r="N42">
+        <v>1.000970222036019</v>
+      </c>
+      <c r="O42">
+        <v>1.000363835676051</v>
+      </c>
+      <c r="P42">
+        <v>0.9994542527990462</v>
+      </c>
+      <c r="Q42">
+        <v>1.000025560217829</v>
+      </c>
+      <c r="R42">
+        <v>0.9999595758780372</v>
+      </c>
+      <c r="S42">
+        <v>0.9995319301192332</v>
+      </c>
+      <c r="T42">
+        <v>0.9999595758780372</v>
+      </c>
+      <c r="U42">
+        <v>0.9998915030984297</v>
+      </c>
+      <c r="V42">
+        <v>1.000107246885948</v>
+      </c>
+      <c r="W42">
+        <v>0.9999040898327358</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,68 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -630,130 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -761,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000043569260152</v>
+        <v>1.000005386698843</v>
       </c>
       <c r="D3">
-        <v>0.9999346484333816</v>
+        <v>0.9999968836032992</v>
       </c>
       <c r="E3">
-        <v>1.000016338304736</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="F3">
-        <v>1.000043569260152</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="G3">
-        <v>0.9999859584272185</v>
+        <v>0.9999905663779187</v>
       </c>
       <c r="H3">
-        <v>1.000024258913363</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="I3">
-        <v>1.000043569260152</v>
+        <v>0.9999970982912442</v>
       </c>
       <c r="J3">
-        <v>0.9999346484333816</v>
+        <v>0.9999854913714307</v>
       </c>
       <c r="K3">
-        <v>0.9999869300283084</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="L3">
-        <v>1.000016338304736</v>
+        <v>0.9999854913714307</v>
       </c>
       <c r="M3">
-        <v>0.9999575077837839</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="N3">
-        <v>1.000043569260152</v>
+        <v>1.000009673715371</v>
       </c>
       <c r="O3">
-        <v>1.000016338304736</v>
+        <v>1.000003627996212</v>
       </c>
       <c r="P3">
-        <v>0.999975493369059</v>
+        <v>0.9999945596838213</v>
       </c>
       <c r="Q3">
-        <v>1.000001148365977</v>
+        <v>1.000000255799756</v>
       </c>
       <c r="R3">
-        <v>0.9999981853327565</v>
+        <v>0.999999597694338</v>
       </c>
       <c r="S3">
-        <v>0.9999789817217789</v>
+        <v>0.9999953343236473</v>
       </c>
       <c r="T3">
-        <v>0.9999981853327565</v>
+        <v>0.999999597694338</v>
       </c>
       <c r="U3">
-        <v>0.9999951286063721</v>
+        <v>0.9999989191715783</v>
       </c>
       <c r="V3">
-        <v>1.000004816737128</v>
+        <v>1.000001070080337</v>
       </c>
       <c r="W3">
-        <v>0.9999956936819598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43">
+        <v>0.9999990445063165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -832,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084108154848</v>
+        <v>1.000539946993403</v>
       </c>
       <c r="D4">
-        <v>0.9998738405347125</v>
+        <v>0.9996874355045371</v>
       </c>
       <c r="E4">
-        <v>1.000031539318426</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="F4">
-        <v>1.000084108154848</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="G4">
-        <v>0.9999728927211236</v>
+        <v>0.9990541895896751</v>
       </c>
       <c r="H4">
-        <v>1.000046830348517</v>
+        <v>1.000363658296492</v>
       </c>
       <c r="I4">
-        <v>1.000084108154848</v>
+        <v>0.9997090736801967</v>
       </c>
       <c r="J4">
-        <v>0.9998738405347125</v>
+        <v>0.9985453678368221</v>
       </c>
       <c r="K4">
-        <v>0.9999747686191648</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="L4">
-        <v>1.000031539318426</v>
+        <v>0.9985453678368221</v>
       </c>
       <c r="M4">
-        <v>0.9999179695924223</v>
+        <v>1.000363658296492</v>
       </c>
       <c r="N4">
-        <v>1.000084108154848</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="O4">
-        <v>1.000031539318426</v>
+        <v>1.000363658296492</v>
       </c>
       <c r="P4">
-        <v>0.9999526899265692</v>
+        <v>0.9994545130666572</v>
       </c>
       <c r="Q4">
-        <v>1.000002216019775</v>
+        <v>1.000025546900515</v>
       </c>
       <c r="R4">
-        <v>0.9999964960026623</v>
+        <v>0.9999595940250104</v>
       </c>
       <c r="S4">
-        <v>0.9999594241914206</v>
+        <v>0.9995321538792838</v>
       </c>
       <c r="T4">
-        <v>0.9999964960026623</v>
+        <v>0.9999595940250104</v>
       </c>
       <c r="U4">
-        <v>0.9999905951822776</v>
+        <v>0.9998915543948921</v>
       </c>
       <c r="V4">
-        <v>1.000009297776792</v>
+        <v>1.000107194704257</v>
       </c>
       <c r="W4">
-        <v>0.999991686075955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43">
+        <v>0.9999041357674168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -903,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161182998812</v>
+        <v>1.000270790734868</v>
       </c>
       <c r="D5">
-        <v>0.999758230971602</v>
+        <v>0.9998432460734898</v>
       </c>
       <c r="E5">
-        <v>1.00006044260736</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="F5">
-        <v>1.000161182998812</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="G5">
-        <v>0.9999480525960448</v>
+        <v>0.9995256668011516</v>
       </c>
       <c r="H5">
-        <v>1.000089741785679</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="I5">
-        <v>1.000161182998812</v>
+        <v>0.9998540976224762</v>
       </c>
       <c r="J5">
-        <v>0.999758230971602</v>
+        <v>0.9992704871541801</v>
       </c>
       <c r="K5">
-        <v>0.9999516449429066</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="L5">
-        <v>1.00006044260736</v>
+        <v>0.9992704871541801</v>
       </c>
       <c r="M5">
-        <v>0.9998428004532942</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="N5">
-        <v>1.000161182998812</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="O5">
-        <v>1.00006044260736</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="P5">
-        <v>0.9999093367894811</v>
+        <v>0.9997264319560526</v>
       </c>
       <c r="Q5">
-        <v>1.000004247601703</v>
+        <v>1.000012811415707</v>
       </c>
       <c r="R5">
-        <v>0.9999932855259247</v>
+        <v>0.9999797355211347</v>
       </c>
       <c r="S5">
-        <v>0.9999222420583357</v>
+        <v>0.9997653699951984</v>
       </c>
       <c r="T5">
-        <v>0.9999932855259247</v>
+        <v>0.9999797355211347</v>
       </c>
       <c r="U5">
-        <v>0.9999819772934547</v>
+        <v>0.9999456131592235</v>
       </c>
       <c r="V5">
-        <v>1.000017818434526</v>
+        <v>1.000053759057639</v>
       </c>
       <c r="W5">
-        <v>0.9999840673703824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>0.9999519230691644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -974,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236405330583</v>
+        <v>1.000851501046482</v>
       </c>
       <c r="D6">
-        <v>0.9996453961329435</v>
+        <v>0.9995070924961087</v>
       </c>
       <c r="E6">
-        <v>1.000088655635477</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="F6">
-        <v>1.000236405330583</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="G6">
-        <v>0.9999238029200505</v>
+        <v>0.9985084785758167</v>
       </c>
       <c r="H6">
-        <v>1.000131632311232</v>
+        <v>1.000573467996217</v>
       </c>
       <c r="I6">
-        <v>1.000236405330583</v>
+        <v>0.9995412152026936</v>
       </c>
       <c r="J6">
-        <v>0.9996453961329435</v>
+        <v>0.9977060756056081</v>
       </c>
       <c r="K6">
-        <v>0.9999290787082596</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="L6">
-        <v>1.000088655635477</v>
+        <v>0.9977060756056081</v>
       </c>
       <c r="M6">
-        <v>0.9997694321200028</v>
+        <v>1.000573467996217</v>
       </c>
       <c r="N6">
-        <v>1.000236405330583</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="O6">
-        <v>1.000088655635477</v>
+        <v>1.000573467996217</v>
       </c>
       <c r="P6">
-        <v>0.9998670258842102</v>
+        <v>0.9991397718009123</v>
       </c>
       <c r="Q6">
-        <v>1.000006229277764</v>
+        <v>1.000040280246163</v>
       </c>
       <c r="R6">
-        <v>0.9999901523663346</v>
+        <v>0.99993627557159</v>
       </c>
       <c r="S6">
-        <v>0.9998859515628236</v>
+        <v>0.9992622120326443</v>
       </c>
       <c r="T6">
-        <v>0.9999901523663346</v>
+        <v>0.9999362755715903</v>
       </c>
       <c r="U6">
-        <v>0.9999735650047635</v>
+        <v>0.9998289798027198</v>
       </c>
       <c r="V6">
-        <v>1.000026133069927</v>
+        <v>1.000169040464765</v>
       </c>
       <c r="W6">
-        <v>0.9999766323492532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>0.999848822754011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1045,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000003339177924</v>
+        <v>1.000031818500059</v>
       </c>
       <c r="D7">
-        <v>0.9999949932043901</v>
+        <v>0.9999815823300934</v>
       </c>
       <c r="E7">
-        <v>1.000001252510038</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="F7">
-        <v>1.000003339177924</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="G7">
-        <v>0.9999989252949232</v>
+        <v>0.9999442660605599</v>
       </c>
       <c r="H7">
-        <v>1.000001859583906</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="I7">
-        <v>1.000003339177924</v>
+        <v>0.9999828564003238</v>
       </c>
       <c r="J7">
-        <v>0.9999949932043901</v>
+        <v>0.9999142830886733</v>
       </c>
       <c r="K7">
-        <v>0.9999989987071303</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="L7">
-        <v>1.000001252510038</v>
+        <v>0.9999142830886733</v>
       </c>
       <c r="M7">
-        <v>0.9999967444557878</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="N7">
-        <v>1.000003339177924</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="O7">
-        <v>1.000001252510038</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="P7">
-        <v>0.9999981228572142</v>
+        <v>0.9999678565466901</v>
       </c>
       <c r="Q7">
-        <v>1.000000088902481</v>
+        <v>1.0000015061674</v>
       </c>
       <c r="R7">
-        <v>0.9999998616307844</v>
+        <v>0.9999976197409657</v>
       </c>
       <c r="S7">
-        <v>0.9999983903364505</v>
+        <v>0.9999724318078246</v>
       </c>
       <c r="T7">
-        <v>0.9999998616307844</v>
+        <v>0.9999976197409657</v>
       </c>
       <c r="U7">
-        <v>0.999999627546819</v>
+        <v>0.9999936103882476</v>
       </c>
       <c r="V7">
-        <v>1.00000036987304</v>
+        <v>1.000006317536501</v>
       </c>
       <c r="W7">
-        <v>0.9999996706805173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>0.99999435156483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1116,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000009673715371</v>
+        <v>1.000002122849556</v>
       </c>
       <c r="D8">
-        <v>0.9999854913714307</v>
+        <v>0.9999987730881021</v>
       </c>
       <c r="E8">
-        <v>1.000003627996212</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="F8">
-        <v>1.000009673715371</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="G8">
-        <v>0.9999968836032991</v>
+        <v>0.9999962835668212</v>
       </c>
       <c r="H8">
-        <v>1.000005386698843</v>
+        <v>1.00000142986533</v>
       </c>
       <c r="I8">
-        <v>1.000009673715371</v>
+        <v>0.9999988564359558</v>
       </c>
       <c r="J8">
-        <v>0.9999854913714307</v>
+        <v>0.9999942840346907</v>
       </c>
       <c r="K8">
-        <v>0.9999970982912442</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="L8">
-        <v>1.000003627996212</v>
+        <v>0.9999942840346907</v>
       </c>
       <c r="M8">
-        <v>0.9999905663779187</v>
+        <v>1.00000142986533</v>
       </c>
       <c r="N8">
-        <v>1.000009673715371</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="O8">
-        <v>1.000003627996212</v>
+        <v>1.00000142986533</v>
       </c>
       <c r="P8">
-        <v>0.9999945596838213</v>
+        <v>0.9999978569500104</v>
       </c>
       <c r="Q8">
-        <v>1.000000255799756</v>
+        <v>1.000000101476716</v>
       </c>
       <c r="R8">
-        <v>0.999999597694338</v>
+        <v>0.9999998417688351</v>
       </c>
       <c r="S8">
-        <v>0.9999953343236472</v>
+        <v>0.9999981623293742</v>
       </c>
       <c r="T8">
-        <v>0.999999597694338</v>
+        <v>0.9999998417688351</v>
       </c>
       <c r="U8">
-        <v>0.9999989191715783</v>
+        <v>0.9999995745986519</v>
       </c>
       <c r="V8">
-        <v>1.000001070080337</v>
+        <v>1.000000421960218</v>
       </c>
       <c r="W8">
-        <v>0.9999990445063165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>0.9999996238890337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000013347470214</v>
+        <v>1.000046830348517</v>
       </c>
       <c r="D9">
-        <v>0.9999799807265741</v>
+        <v>0.9999728927211236</v>
       </c>
       <c r="E9">
-        <v>1.000005005689587</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="F9">
-        <v>1.000013347470214</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="G9">
-        <v>0.999995699664006</v>
+        <v>0.9999179695924223</v>
       </c>
       <c r="H9">
-        <v>1.00000743275074</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="I9">
-        <v>1.000013347470214</v>
+        <v>0.9999747686191648</v>
       </c>
       <c r="J9">
-        <v>0.9999799807265741</v>
+        <v>0.9998738405347125</v>
       </c>
       <c r="K9">
-        <v>0.9999959962033543</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="L9">
-        <v>1.000005005689587</v>
+        <v>0.9998738405347125</v>
       </c>
       <c r="M9">
-        <v>0.9999869831097878</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="N9">
-        <v>1.000013347470214</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="O9">
-        <v>1.000005005689587</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="P9">
-        <v>0.9999924932080804</v>
+        <v>0.9999526899265692</v>
       </c>
       <c r="Q9">
-        <v>1.000000352676796</v>
+        <v>1.000002216019775</v>
       </c>
       <c r="R9">
-        <v>0.9999994446287914</v>
+        <v>0.9999964960026623</v>
       </c>
       <c r="S9">
-        <v>0.9999935620267223</v>
+        <v>0.9999594241914206</v>
       </c>
       <c r="T9">
-        <v>0.9999994446287914</v>
+        <v>0.9999964960026623</v>
       </c>
       <c r="U9">
-        <v>0.9999985083875951</v>
+        <v>0.9999905951822776</v>
       </c>
       <c r="V9">
-        <v>1.000001476204119</v>
+        <v>1.000009297776792</v>
       </c>
       <c r="W9">
-        <v>0.9999986814129811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43">
+        <v>0.999991686075955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1258,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000028846938665</v>
+        <v>1.000864147849654</v>
       </c>
       <c r="D10">
-        <v>0.9999567309414127</v>
+        <v>0.9994997711021779</v>
       </c>
       <c r="E10">
-        <v>1.000010819061263</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="F10">
-        <v>1.000028846938665</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="G10">
-        <v>0.9999907045202605</v>
+        <v>0.9984863249025804</v>
       </c>
       <c r="H10">
-        <v>1.000016060952471</v>
+        <v>1.000581985439615</v>
       </c>
       <c r="I10">
-        <v>1.000028846938665</v>
+        <v>0.9995344008029509</v>
       </c>
       <c r="J10">
-        <v>0.9999567309414127</v>
+        <v>0.9976720035066111</v>
       </c>
       <c r="K10">
-        <v>0.9999913462776222</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="L10">
-        <v>1.000010819061263</v>
+        <v>0.9976720035066111</v>
       </c>
       <c r="M10">
-        <v>0.9999718668523058</v>
+        <v>1.000581985439615</v>
       </c>
       <c r="N10">
-        <v>1.000028846938665</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="O10">
-        <v>1.000010819061263</v>
+        <v>1.000581985439615</v>
       </c>
       <c r="P10">
-        <v>0.9999837750013376</v>
+        <v>0.999126994473113</v>
       </c>
       <c r="Q10">
-        <v>1.000000761790762</v>
+        <v>1.000040878270896</v>
       </c>
       <c r="R10">
-        <v>0.9999987989804469</v>
+        <v>0.9999353288409609</v>
       </c>
       <c r="S10">
-        <v>0.9999860848409785</v>
+        <v>0.9992512533494681</v>
       </c>
       <c r="T10">
-        <v>0.9999987989804469</v>
+        <v>0.9999353288409609</v>
       </c>
       <c r="U10">
-        <v>0.9999967753654002</v>
+        <v>0.9998264394062651</v>
       </c>
       <c r="V10">
-        <v>1.000003189680053</v>
+        <v>1.000171551040343</v>
       </c>
       <c r="W10">
-        <v>0.9999971493256579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>0.9998465770774827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1329,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000048307154465</v>
+        <v>1.000539970786799</v>
       </c>
       <c r="D11">
-        <v>0.9999275402935068</v>
+        <v>0.9996874221594511</v>
       </c>
       <c r="E11">
-        <v>1.00001811897967</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="F11">
-        <v>1.000048307154465</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="G11">
-        <v>0.9999844325912599</v>
+        <v>0.9990541460769073</v>
       </c>
       <c r="H11">
-        <v>1.000026899420351</v>
+        <v>1.000363676419317</v>
       </c>
       <c r="I11">
-        <v>1.000048307154465</v>
+        <v>0.9997090604557489</v>
       </c>
       <c r="J11">
-        <v>0.9999275402935068</v>
+        <v>0.9985453023500878</v>
       </c>
       <c r="K11">
-        <v>0.9999855083622662</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="L11">
-        <v>1.00001811897967</v>
+        <v>0.9985453023500878</v>
       </c>
       <c r="M11">
-        <v>0.9999528887715676</v>
+        <v>1.000363676419317</v>
       </c>
       <c r="N11">
-        <v>1.000048307154465</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="O11">
-        <v>1.00001811897967</v>
+        <v>1.000363676419317</v>
       </c>
       <c r="P11">
-        <v>0.9999728296365886</v>
+        <v>0.9994544893847026</v>
       </c>
       <c r="Q11">
-        <v>1.000001275785465</v>
+        <v>1.000025549289384</v>
       </c>
       <c r="R11">
-        <v>0.999997988809214</v>
+        <v>0.9999595934619064</v>
       </c>
       <c r="S11">
-        <v>0.9999766972881456</v>
+        <v>0.9995321336429521</v>
       </c>
       <c r="T11">
-        <v>0.999997988809214</v>
+        <v>0.9999595934619064</v>
       </c>
       <c r="U11">
-        <v>0.9999945997547255</v>
+        <v>0.9998915506362926</v>
       </c>
       <c r="V11">
-        <v>1.000005341234673</v>
+        <v>1.000107200832297</v>
       </c>
       <c r="W11">
-        <v>0.9999952268190947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43">
+        <v>0.9999041320354929</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1400,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9993170378978251</v>
+        <v>1.000276216357891</v>
       </c>
       <c r="D12">
-        <v>1.001024441259902</v>
+        <v>0.9998401048736845</v>
       </c>
       <c r="E12">
-        <v>0.9997438903312169</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="F12">
-        <v>0.9993170378978251</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="G12">
-        <v>1.000220127180249</v>
+        <v>0.9995161621894734</v>
       </c>
       <c r="H12">
-        <v>0.9996197386281405</v>
+        <v>1.000186029578947</v>
       </c>
       <c r="I12">
-        <v>0.9993170378978251</v>
+        <v>0.9998511738210515</v>
       </c>
       <c r="J12">
-        <v>1.001024441259902</v>
+        <v>0.9992558682526318</v>
       </c>
       <c r="K12">
-        <v>1.000204892840112</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="L12">
-        <v>0.9997438903312169</v>
+        <v>0.9992558682526318</v>
       </c>
       <c r="M12">
-        <v>1.000666094573274</v>
+        <v>1.000186029578947</v>
       </c>
       <c r="N12">
-        <v>0.9993170378978251</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="O12">
-        <v>0.9997438903312169</v>
+        <v>1.000186029578947</v>
       </c>
       <c r="P12">
-        <v>1.000384165795559</v>
+        <v>0.9997209489157896</v>
       </c>
       <c r="Q12">
-        <v>0.9999820087557332</v>
+        <v>1.000013067226316</v>
       </c>
       <c r="R12">
-        <v>1.000028456496315</v>
+        <v>0.9999793283087728</v>
       </c>
       <c r="S12">
-        <v>1.000329486257123</v>
+        <v>0.9997606675684212</v>
       </c>
       <c r="T12">
-        <v>1.000028456496315</v>
+        <v>0.9999793283087728</v>
       </c>
       <c r="U12">
-        <v>1.000076374167298</v>
+        <v>0.9999445224500008</v>
       </c>
       <c r="V12">
-        <v>0.9999245069134035</v>
+        <v>1.000054835378948</v>
       </c>
       <c r="W12">
-        <v>1.000067514130242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>0.9999509589684208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1471,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998229032557282</v>
+        <v>0.9998300473722072</v>
       </c>
       <c r="D13">
-        <v>1.000265638310051</v>
+        <v>1.000098382417335</v>
       </c>
       <c r="E13">
-        <v>0.9999335899456648</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="F13">
-        <v>0.9998229032557282</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="G13">
-        <v>1.000057084164284</v>
+        <v>1.000297699494365</v>
       </c>
       <c r="H13">
-        <v>0.9999013919139135</v>
+        <v>0.9998855359759488</v>
       </c>
       <c r="I13">
-        <v>0.9998229032557282</v>
+        <v>1.000091569975472</v>
       </c>
       <c r="J13">
-        <v>1.000265638310051</v>
+        <v>1.000457853191121</v>
       </c>
       <c r="K13">
-        <v>1.000053127353346</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="L13">
-        <v>0.9999335899456648</v>
+        <v>1.000457853191121</v>
       </c>
       <c r="M13">
-        <v>1.000172721091205</v>
+        <v>0.9998855359759488</v>
       </c>
       <c r="N13">
-        <v>0.9998229032557282</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="O13">
-        <v>0.9999335899456648</v>
+        <v>0.9998855359759488</v>
       </c>
       <c r="P13">
-        <v>1.000099614127858</v>
+        <v>1.000171694583535</v>
       </c>
       <c r="Q13">
-        <v>0.9999953370549743</v>
+        <v>0.9999919591966417</v>
       </c>
       <c r="R13">
-        <v>1.000007377170481</v>
+        <v>1.000012717515205</v>
       </c>
       <c r="S13">
-        <v>1.000085437473333</v>
+        <v>1.000147257194801</v>
       </c>
       <c r="T13">
-        <v>1.000007377170481</v>
+        <v>1.000012717515205</v>
       </c>
       <c r="U13">
-        <v>1.000019803918932</v>
+        <v>1.000034133740737</v>
       </c>
       <c r="V13">
-        <v>0.9999804237862913</v>
+        <v>0.999966259668299</v>
       </c>
       <c r="W13">
-        <v>1.000017505747482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <v>1.000030173472618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1542,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9978632677161556</v>
+        <v>1.001492999999998</v>
       </c>
       <c r="D14">
-        <v>1.00320508131413</v>
+        <v>0.99913575</v>
       </c>
       <c r="E14">
-        <v>0.9991987250610594</v>
+        <v>1.0026814</v>
       </c>
       <c r="F14">
-        <v>0.9978632677161556</v>
+        <v>1.0026814</v>
       </c>
       <c r="G14">
-        <v>1.000688686572624</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="H14">
-        <v>0.9988102947714953</v>
+        <v>1.0010055</v>
       </c>
       <c r="I14">
-        <v>0.9978632677161556</v>
+        <v>0.9991955799999999</v>
       </c>
       <c r="J14">
-        <v>1.00320508131413</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K14">
-        <v>1.000641020265506</v>
+        <v>1.0026814</v>
       </c>
       <c r="L14">
-        <v>0.9991987250610594</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M14">
-        <v>1.002083980368774</v>
+        <v>1.0010055</v>
       </c>
       <c r="N14">
-        <v>0.9978632677161556</v>
+        <v>1.0026814</v>
       </c>
       <c r="O14">
-        <v>0.9991987250610594</v>
+        <v>1.0010055</v>
       </c>
       <c r="P14">
-        <v>1.001201903187594</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q14">
-        <v>0.9999437058168419</v>
+        <v>1.000070625</v>
       </c>
       <c r="R14">
-        <v>1.000089024697115</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S14">
-        <v>1.001030830982604</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T14">
-        <v>1.000089024697115</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U14">
-        <v>1.000238940165992</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V14">
-        <v>0.9997638056760249</v>
+        <v>1.00029639</v>
       </c>
       <c r="W14">
-        <v>1.00021122264135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <v>0.9997349299999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9994295731410595</v>
+        <v>1.0014929</v>
       </c>
       <c r="D15">
-        <v>1.000855633959365</v>
+        <v>0.9991357999999999</v>
       </c>
       <c r="E15">
-        <v>0.999786091092604</v>
+        <v>1.0026812</v>
       </c>
       <c r="F15">
-        <v>0.9994295731410595</v>
+        <v>1.0026812</v>
       </c>
       <c r="G15">
-        <v>1.000183856412997</v>
+        <v>0.99738498</v>
       </c>
       <c r="H15">
-        <v>0.9996823969090204</v>
+        <v>1.0010055</v>
       </c>
       <c r="I15">
-        <v>0.9994295731410595</v>
+        <v>0.99919563</v>
       </c>
       <c r="J15">
-        <v>1.000855633959365</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="K15">
-        <v>1.000171135636562</v>
+        <v>1.0026812</v>
       </c>
       <c r="L15">
-        <v>0.999786091092604</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="M15">
-        <v>1.000556339015841</v>
+        <v>1.0010055</v>
       </c>
       <c r="N15">
-        <v>0.9994295731410595</v>
+        <v>1.0026812</v>
       </c>
       <c r="O15">
-        <v>0.999786091092604</v>
+        <v>1.0010055</v>
       </c>
       <c r="P15">
-        <v>1.000320862525985</v>
+        <v>0.99849183</v>
       </c>
       <c r="Q15">
-        <v>0.9999849737528005</v>
+        <v>1.00007065</v>
       </c>
       <c r="R15">
-        <v>1.000023766064343</v>
+        <v>0.9998882866666667</v>
       </c>
       <c r="S15">
-        <v>1.000275193821655</v>
+        <v>0.9987064866666667</v>
       </c>
       <c r="T15">
-        <v>1.000023766064343</v>
+        <v>0.9998882866666667</v>
       </c>
       <c r="U15">
-        <v>1.000063788651506</v>
+        <v>0.999700165</v>
       </c>
       <c r="V15">
-        <v>0.999936945549417</v>
+        <v>1.000296372</v>
       </c>
       <c r="W15">
-        <v>1.000056389657507</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <v>0.99973495875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1684,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000181278928</v>
+        <v>1.0039812</v>
       </c>
       <c r="D16">
-        <v>0.9999997296217834</v>
+        <v>0.99769533</v>
       </c>
       <c r="E16">
-        <v>1.000000068338834</v>
+        <v>1.0071504</v>
       </c>
       <c r="F16">
-        <v>1.000000181278928</v>
+        <v>1.0071504</v>
       </c>
       <c r="G16">
-        <v>0.9999999430818357</v>
+        <v>0.99302616</v>
       </c>
       <c r="H16">
-        <v>1.00000010142273</v>
+        <v>1.0026814</v>
       </c>
       <c r="I16">
-        <v>1.000000181278928</v>
+        <v>0.99785488</v>
       </c>
       <c r="J16">
-        <v>0.9999997296217834</v>
+        <v>0.98927441</v>
       </c>
       <c r="K16">
-        <v>0.9999999460394408</v>
+        <v>1.0071504</v>
       </c>
       <c r="L16">
-        <v>1.000000068338834</v>
+        <v>0.98927441</v>
       </c>
       <c r="M16">
-        <v>0.9999998241261623</v>
+        <v>1.0026814</v>
       </c>
       <c r="N16">
-        <v>1.000000181278928</v>
+        <v>1.0071504</v>
       </c>
       <c r="O16">
-        <v>1.000000068338834</v>
+        <v>1.0026814</v>
       </c>
       <c r="P16">
-        <v>0.9999998989803089</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="Q16">
-        <v>1.000000005710335</v>
+        <v>1.000188365</v>
       </c>
       <c r="R16">
-        <v>0.9999999930798484</v>
+        <v>0.99970207</v>
       </c>
       <c r="S16">
-        <v>0.9999999136808179</v>
+        <v>0.99655038</v>
       </c>
       <c r="T16">
-        <v>0.9999999930798484</v>
+        <v>0.99970207</v>
       </c>
       <c r="U16">
-        <v>0.9999999805803452</v>
+        <v>0.999200385</v>
       </c>
       <c r="V16">
-        <v>1.000000020720062</v>
+        <v>1.000790388</v>
       </c>
       <c r="W16">
-        <v>0.9999999827810686</v>
+        <v>0.9992931475</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1755,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003811406484</v>
+        <v>1.0000933</v>
       </c>
       <c r="D17">
-        <v>0.9999942840346907</v>
+        <v>0.99994602</v>
       </c>
       <c r="E17">
-        <v>1.00000142986533</v>
+        <v>1.0001675</v>
       </c>
       <c r="F17">
-        <v>1.000003811406484</v>
+        <v>1.0001675</v>
       </c>
       <c r="G17">
-        <v>0.9999987730881021</v>
+        <v>0.9998366400000001</v>
       </c>
       <c r="H17">
-        <v>1.000002122849555</v>
+        <v>1.0000628</v>
       </c>
       <c r="I17">
-        <v>1.000003811406484</v>
+        <v>0.99994975</v>
       </c>
       <c r="J17">
-        <v>0.9999942840346907</v>
+        <v>0.9997487599999999</v>
       </c>
       <c r="K17">
-        <v>0.9999988564359558</v>
+        <v>1.0001675</v>
       </c>
       <c r="L17">
-        <v>1.00000142986533</v>
+        <v>0.9997487599999999</v>
       </c>
       <c r="M17">
-        <v>0.9999962835668212</v>
+        <v>1.0000628</v>
       </c>
       <c r="N17">
-        <v>1.000003811406484</v>
+        <v>1.0001675</v>
       </c>
       <c r="O17">
-        <v>1.00000142986533</v>
+        <v>1.0000628</v>
       </c>
       <c r="P17">
-        <v>0.9999978569500104</v>
+        <v>0.99990578</v>
       </c>
       <c r="Q17">
-        <v>1.000000101476716</v>
+        <v>1.00000441</v>
       </c>
       <c r="R17">
-        <v>0.9999998417688349</v>
+        <v>0.9999930200000001</v>
       </c>
       <c r="S17">
-        <v>0.9999981623293742</v>
+        <v>0.9999191933333332</v>
       </c>
       <c r="T17">
-        <v>0.9999998417688349</v>
+        <v>0.9999930200000001</v>
       </c>
       <c r="U17">
-        <v>0.9999995745986517</v>
+        <v>0.99998127</v>
       </c>
       <c r="V17">
-        <v>1.000000421960218</v>
+        <v>1.000018516</v>
       </c>
       <c r="W17">
-        <v>0.9999996238890337</v>
+        <v>0.99998344625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1826,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013416810785</v>
+        <v>1.000572641369863</v>
       </c>
       <c r="D18">
-        <v>0.9999798786429422</v>
+        <v>0.9996685027397261</v>
       </c>
       <c r="E18">
-        <v>1.000005030523864</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="F18">
-        <v>1.000013416810785</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="G18">
-        <v>0.9999956803766743</v>
+        <v>0.99899691479452</v>
       </c>
       <c r="H18">
-        <v>1.000007471388479</v>
+        <v>1.000385680821918</v>
       </c>
       <c r="I18">
-        <v>1.000013416810785</v>
+        <v>0.9996914636986299</v>
       </c>
       <c r="J18">
-        <v>0.9999798786429422</v>
+        <v>0.9984572884931506</v>
       </c>
       <c r="K18">
-        <v>0.9999959755372089</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="L18">
-        <v>1.000005030523864</v>
+        <v>0.9984572884931506</v>
       </c>
       <c r="M18">
-        <v>0.9999869170957105</v>
+        <v>1.000385680821918</v>
       </c>
       <c r="N18">
-        <v>1.000013416810785</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="O18">
-        <v>1.000005030523864</v>
+        <v>1.000385680821918</v>
       </c>
       <c r="P18">
-        <v>0.9999924545834031</v>
+        <v>0.9994214846575344</v>
       </c>
       <c r="Q18">
-        <v>1.000000355450269</v>
+        <v>1.000027091780822</v>
       </c>
       <c r="R18">
-        <v>0.9999994419925303</v>
+        <v>0.999957152146119</v>
       </c>
       <c r="S18">
-        <v>0.9999935298478269</v>
+        <v>0.999503824018265</v>
       </c>
       <c r="T18">
-        <v>0.9999994419925303</v>
+        <v>0.999957152146119</v>
       </c>
       <c r="U18">
-        <v>0.9999985015885663</v>
+        <v>0.9998849897945208</v>
       </c>
       <c r="V18">
-        <v>1.00000148463301</v>
+        <v>1.000113689260274</v>
       </c>
       <c r="W18">
-        <v>0.999998675112441</v>
+        <v>0.9998983324828767</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1897,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031426554662</v>
+        <v>1.000674421578947</v>
       </c>
       <c r="D19">
-        <v>0.9999528617839161</v>
+        <v>0.9996095889473684</v>
       </c>
       <c r="E19">
-        <v>1.000011785312644</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="F19">
-        <v>1.000031426554662</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="G19">
-        <v>0.9999898706203463</v>
+        <v>0.9988186368421051</v>
       </c>
       <c r="H19">
-        <v>1.000017496226953</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="I19">
-        <v>1.000031426554662</v>
+        <v>0.9996366189473683</v>
       </c>
       <c r="J19">
-        <v>0.9999528617839161</v>
+        <v>0.9981830857894737</v>
       </c>
       <c r="K19">
-        <v>0.9999905702070726</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="L19">
-        <v>1.000011785312644</v>
+        <v>0.9981830857894737</v>
       </c>
       <c r="M19">
-        <v>0.9999693500357598</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="N19">
-        <v>1.000031426554662</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="O19">
-        <v>1.000011785312644</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="P19">
-        <v>0.9999823235482801</v>
+        <v>0.9993186544736843</v>
       </c>
       <c r="Q19">
-        <v>1.000000827966495</v>
+        <v>1.000031906052631</v>
       </c>
       <c r="R19">
-        <v>0.9999986912170741</v>
+        <v>0.9999495256140353</v>
       </c>
       <c r="S19">
-        <v>0.9999848392389689</v>
+        <v>0.9994156326315791</v>
       </c>
       <c r="T19">
-        <v>0.9999986912170741</v>
+        <v>0.9999495256140351</v>
       </c>
       <c r="U19">
-        <v>0.9999964860678922</v>
+        <v>0.9998645414473684</v>
       </c>
       <c r="V19">
-        <v>1.000003474165246</v>
+        <v>1.000133886736842</v>
       </c>
       <c r="W19">
-        <v>0.9999968932567498</v>
+        <v>0.9998802582894737</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001492968421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9991357505263155</v>
+      </c>
+      <c r="E20">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="F20">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="G20">
+        <v>0.9973848152631581</v>
+      </c>
+      <c r="H20">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="I20">
+        <v>0.9991955810526315</v>
+      </c>
+      <c r="J20">
+        <v>0.9959779089473684</v>
+      </c>
+      <c r="K20">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="L20">
+        <v>0.9959779089473684</v>
+      </c>
+      <c r="M20">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="N20">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="O20">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="P20">
+        <v>0.9984917176315792</v>
+      </c>
+      <c r="Q20">
+        <v>1.000070638421053</v>
+      </c>
+      <c r="R20">
+        <v>0.9998882766666668</v>
+      </c>
+      <c r="S20">
+        <v>0.998706395263158</v>
+      </c>
+      <c r="T20">
+        <v>0.9998882766666668</v>
+      </c>
+      <c r="U20">
+        <v>0.999700145131579</v>
+      </c>
+      <c r="V20">
+        <v>1.000296395052632</v>
+      </c>
+      <c r="W20">
+        <v>0.9997349339473685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9988102947714953</v>
+      </c>
+      <c r="D21">
+        <v>1.000688686572624</v>
+      </c>
+      <c r="E21">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="F21">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="G21">
+        <v>1.002083980368774</v>
+      </c>
+      <c r="H21">
+        <v>0.9991987250610594</v>
+      </c>
+      <c r="I21">
+        <v>1.000641020265506</v>
+      </c>
+      <c r="J21">
+        <v>1.003205081314129</v>
+      </c>
+      <c r="K21">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="L21">
+        <v>1.003205081314129</v>
+      </c>
+      <c r="M21">
+        <v>0.9991987250610594</v>
+      </c>
+      <c r="N21">
+        <v>0.9978632677161556</v>
+      </c>
+      <c r="O21">
+        <v>0.9991987250610594</v>
+      </c>
+      <c r="P21">
+        <v>1.001201903187594</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999437058168419</v>
+      </c>
+      <c r="R21">
+        <v>1.000089024697115</v>
+      </c>
+      <c r="S21">
+        <v>1.001030830982604</v>
+      </c>
+      <c r="T21">
+        <v>1.000089024697115</v>
+      </c>
+      <c r="U21">
+        <v>1.000238940165992</v>
+      </c>
+      <c r="V21">
+        <v>0.9997638056760249</v>
+      </c>
+      <c r="W21">
+        <v>1.00021122264135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9996823969090204</v>
+      </c>
+      <c r="D22">
+        <v>1.000183856412997</v>
+      </c>
+      <c r="E22">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="F22">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="G22">
+        <v>1.000556339015841</v>
+      </c>
+      <c r="H22">
+        <v>0.999786091092604</v>
+      </c>
+      <c r="I22">
+        <v>1.000171135636562</v>
+      </c>
+      <c r="J22">
+        <v>1.000855633959365</v>
+      </c>
+      <c r="K22">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="L22">
+        <v>1.000855633959365</v>
+      </c>
+      <c r="M22">
+        <v>0.999786091092604</v>
+      </c>
+      <c r="N22">
+        <v>0.9994295731410595</v>
+      </c>
+      <c r="O22">
+        <v>0.999786091092604</v>
+      </c>
+      <c r="P22">
+        <v>1.000320862525985</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999849737528005</v>
+      </c>
+      <c r="R22">
+        <v>1.000023766064343</v>
+      </c>
+      <c r="S22">
+        <v>1.000275193821655</v>
+      </c>
+      <c r="T22">
+        <v>1.000023766064343</v>
+      </c>
+      <c r="U22">
+        <v>1.000063788651506</v>
+      </c>
+      <c r="V22">
+        <v>0.999936945549417</v>
+      </c>
+      <c r="W22">
+        <v>1.000056389657507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9996197386281405</v>
+      </c>
+      <c r="D23">
+        <v>1.000220127180249</v>
+      </c>
+      <c r="E23">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="F23">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="G23">
+        <v>1.000666094573274</v>
+      </c>
+      <c r="H23">
+        <v>0.9997438903312167</v>
+      </c>
+      <c r="I23">
+        <v>1.000204892840112</v>
+      </c>
+      <c r="J23">
+        <v>1.001024441259902</v>
+      </c>
+      <c r="K23">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="L23">
+        <v>1.001024441259902</v>
+      </c>
+      <c r="M23">
+        <v>0.9997438903312167</v>
+      </c>
+      <c r="N23">
+        <v>0.9993170378978251</v>
+      </c>
+      <c r="O23">
+        <v>0.9997438903312167</v>
+      </c>
+      <c r="P23">
+        <v>1.000384165795559</v>
+      </c>
+      <c r="Q23">
+        <v>0.999982008755733</v>
+      </c>
+      <c r="R23">
+        <v>1.000028456496315</v>
+      </c>
+      <c r="S23">
+        <v>1.000329486257123</v>
+      </c>
+      <c r="T23">
+        <v>1.000028456496315</v>
+      </c>
+      <c r="U23">
+        <v>1.000076374167298</v>
+      </c>
+      <c r="V23">
+        <v>0.9999245069134035</v>
+      </c>
+      <c r="W23">
+        <v>1.000067514130242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999013919139135</v>
+      </c>
+      <c r="D24">
+        <v>1.000057084164284</v>
+      </c>
+      <c r="E24">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="F24">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="G24">
+        <v>1.000172721091205</v>
+      </c>
+      <c r="H24">
+        <v>0.9999335899456648</v>
+      </c>
+      <c r="I24">
+        <v>1.000053127353346</v>
+      </c>
+      <c r="J24">
+        <v>1.000265638310051</v>
+      </c>
+      <c r="K24">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="L24">
+        <v>1.000265638310051</v>
+      </c>
+      <c r="M24">
+        <v>0.9999335899456648</v>
+      </c>
+      <c r="N24">
+        <v>0.9998229032557282</v>
+      </c>
+      <c r="O24">
+        <v>0.9999335899456648</v>
+      </c>
+      <c r="P24">
+        <v>1.000099614127858</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999953370549743</v>
+      </c>
+      <c r="R24">
+        <v>1.000007377170481</v>
+      </c>
+      <c r="S24">
+        <v>1.000085437473333</v>
+      </c>
+      <c r="T24">
+        <v>1.000007377170481</v>
+      </c>
+      <c r="U24">
+        <v>1.000019803918932</v>
+      </c>
+      <c r="V24">
+        <v>0.9999804237862913</v>
+      </c>
+      <c r="W24">
+        <v>1.000017505747482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.001167632012898</v>
+      </c>
+      <c r="D25">
+        <v>0.9993240778638219</v>
+      </c>
+      <c r="E25">
+        <v>1.002097100633146</v>
+      </c>
+      <c r="F25">
+        <v>1.002097100633146</v>
+      </c>
+      <c r="G25">
+        <v>0.9979546875536024</v>
+      </c>
+      <c r="H25">
+        <v>1.000786404164449</v>
+      </c>
+      <c r="I25">
+        <v>0.9993708713611218</v>
+      </c>
+      <c r="J25">
+        <v>0.9968543618284069</v>
+      </c>
+      <c r="K25">
+        <v>1.002097100633146</v>
+      </c>
+      <c r="L25">
+        <v>0.9968543618284069</v>
+      </c>
+      <c r="M25">
+        <v>1.000786404164449</v>
+      </c>
+      <c r="N25">
+        <v>1.002097100633146</v>
+      </c>
+      <c r="O25">
+        <v>1.000786404164449</v>
+      </c>
+      <c r="P25">
+        <v>0.9988203829964278</v>
+      </c>
+      <c r="Q25">
+        <v>1.000055241014135</v>
+      </c>
+      <c r="R25">
+        <v>0.9999126222086673</v>
+      </c>
+      <c r="S25">
+        <v>0.9989882812855592</v>
+      </c>
+      <c r="T25">
+        <v>0.9999126222086673</v>
+      </c>
+      <c r="U25">
+        <v>0.9997654861224559</v>
+      </c>
+      <c r="V25">
+        <v>1.000231809024594</v>
+      </c>
+      <c r="W25">
+        <v>0.9997926924477369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000312757115541</v>
+      </c>
+      <c r="D26">
+        <v>0.9998189554299206</v>
+      </c>
+      <c r="E26">
+        <v>1.000561718777046</v>
+      </c>
+      <c r="F26">
+        <v>1.000561718777046</v>
+      </c>
+      <c r="G26">
+        <v>0.9994521494688489</v>
+      </c>
+      <c r="H26">
+        <v>1.000210645786653</v>
+      </c>
+      <c r="I26">
+        <v>0.9998314881139966</v>
+      </c>
+      <c r="J26">
+        <v>0.9991574225324154</v>
+      </c>
+      <c r="K26">
+        <v>1.000561718777046</v>
+      </c>
+      <c r="L26">
+        <v>0.9991574225324154</v>
+      </c>
+      <c r="M26">
+        <v>1.000210645786653</v>
+      </c>
+      <c r="N26">
+        <v>1.000561718777046</v>
+      </c>
+      <c r="O26">
+        <v>1.000210645786653</v>
+      </c>
+      <c r="P26">
+        <v>0.9996840341595343</v>
+      </c>
+      <c r="Q26">
+        <v>1.000014800608287</v>
+      </c>
+      <c r="R26">
+        <v>0.9999765956987048</v>
+      </c>
+      <c r="S26">
+        <v>0.9997290079163298</v>
+      </c>
+      <c r="T26">
+        <v>0.9999765956987048</v>
+      </c>
+      <c r="U26">
+        <v>0.9999371856315087</v>
+      </c>
+      <c r="V26">
+        <v>1.000062092260616</v>
+      </c>
+      <c r="W26">
+        <v>0.9999444728763842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000088983482497</v>
+      </c>
+      <c r="D27">
+        <v>0.999948484251433</v>
+      </c>
+      <c r="E27">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="F27">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="G27">
+        <v>0.9998441414523235</v>
+      </c>
+      <c r="H27">
+        <v>1.000059935681941</v>
+      </c>
+      <c r="I27">
+        <v>0.999952052812367</v>
+      </c>
+      <c r="J27">
+        <v>0.9997602684672413</v>
+      </c>
+      <c r="K27">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="L27">
+        <v>0.9997602684672413</v>
+      </c>
+      <c r="M27">
+        <v>1.000059935681941</v>
+      </c>
+      <c r="N27">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="O27">
+        <v>1.000059935681941</v>
+      </c>
+      <c r="P27">
+        <v>0.9999101020745913</v>
+      </c>
+      <c r="Q27">
+        <v>1.000004209966687</v>
+      </c>
+      <c r="R27">
+        <v>0.9999933374199234</v>
+      </c>
+      <c r="S27">
+        <v>0.9999228961335386</v>
+      </c>
+      <c r="T27">
+        <v>0.9999933374199234</v>
+      </c>
+      <c r="U27">
+        <v>0.9999821241278007</v>
+      </c>
+      <c r="V27">
+        <v>1.000017660924358</v>
+      </c>
+      <c r="W27">
+        <v>0.9999842012425415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000154433158064</v>
+      </c>
+      <c r="D28">
+        <v>0.9999106012701982</v>
+      </c>
+      <c r="E28">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="F28">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="G28">
+        <v>0.999729476172482</v>
+      </c>
+      <c r="H28">
+        <v>1.000104018159949</v>
+      </c>
+      <c r="I28">
+        <v>0.9999167906986328</v>
+      </c>
+      <c r="J28">
+        <v>0.9995839465749847</v>
+      </c>
+      <c r="K28">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="L28">
+        <v>0.9995839465749847</v>
+      </c>
+      <c r="M28">
+        <v>1.000104018159949</v>
+      </c>
+      <c r="N28">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="O28">
+        <v>1.000104018159949</v>
+      </c>
+      <c r="P28">
+        <v>0.9998439823674669</v>
+      </c>
+      <c r="Q28">
+        <v>1.000007309715074</v>
+      </c>
+      <c r="R28">
+        <v>0.9999884472040398</v>
+      </c>
+      <c r="S28">
+        <v>0.9998661886683773</v>
+      </c>
+      <c r="T28">
+        <v>0.9999884472040398</v>
+      </c>
+      <c r="U28">
+        <v>0.9999689857205794</v>
+      </c>
+      <c r="V28">
+        <v>1.000030663951901</v>
+      </c>
+      <c r="W28">
+        <v>0.9999725826339307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9998702757171415</v>
+      </c>
+      <c r="D29">
+        <v>1.000075099224972</v>
+      </c>
+      <c r="E29">
+        <v>0.9997670243458768</v>
+      </c>
+      <c r="F29">
+        <v>0.9997670243458768</v>
+      </c>
+      <c r="G29">
+        <v>1.000227227581387</v>
+      </c>
+      <c r="H29">
+        <v>0.9999126431470846</v>
+      </c>
+      <c r="I29">
+        <v>1.000069889763716</v>
+      </c>
+      <c r="J29">
+        <v>1.000349467957848</v>
+      </c>
+      <c r="K29">
+        <v>0.9997670243458768</v>
+      </c>
+      <c r="L29">
+        <v>1.000349467957848</v>
+      </c>
+      <c r="M29">
+        <v>0.9999126431470846</v>
+      </c>
+      <c r="N29">
+        <v>0.9997670243458768</v>
+      </c>
+      <c r="O29">
+        <v>0.9999126431470846</v>
+      </c>
+      <c r="P29">
+        <v>1.000131055552466</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999938711860282</v>
+      </c>
+      <c r="R29">
+        <v>1.000009711816936</v>
+      </c>
+      <c r="S29">
+        <v>1.000112403443302</v>
+      </c>
+      <c r="T29">
+        <v>1.000009711816936</v>
+      </c>
+      <c r="U29">
+        <v>1.000026058668945</v>
+      </c>
+      <c r="V29">
+        <v>0.9999742518043316</v>
+      </c>
+      <c r="W29">
+        <v>1.000023033860639</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/BrassA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000539946993403</v>
+        <v>1.000210117714988</v>
       </c>
       <c r="D4">
-        <v>0.9996874355045371</v>
+        <v>0.9998783682322792</v>
       </c>
       <c r="E4">
-        <v>1.000969755941717</v>
+        <v>1.000377373745478</v>
       </c>
       <c r="F4">
-        <v>1.000969755941717</v>
+        <v>1.000377373745478</v>
       </c>
       <c r="G4">
-        <v>0.9990541895896751</v>
+        <v>0.9996319447283011</v>
       </c>
       <c r="H4">
-        <v>1.000363658296492</v>
+        <v>1.0001415140596</v>
       </c>
       <c r="I4">
-        <v>0.9997090736801967</v>
+        <v>0.9998867880652406</v>
       </c>
       <c r="J4">
-        <v>0.9985453678368221</v>
+        <v>0.9994339398466967</v>
       </c>
       <c r="K4">
-        <v>1.000969755941717</v>
+        <v>1.000377373745478</v>
       </c>
       <c r="L4">
-        <v>0.9985453678368221</v>
+        <v>0.9994339398466967</v>
       </c>
       <c r="M4">
-        <v>1.000363658296492</v>
+        <v>1.0001415140596</v>
       </c>
       <c r="N4">
-        <v>1.000969755941717</v>
+        <v>1.000377373745478</v>
       </c>
       <c r="O4">
-        <v>1.000363658296492</v>
+        <v>1.0001415140596</v>
       </c>
       <c r="P4">
-        <v>0.9994545130666572</v>
+        <v>0.9997877269531484</v>
       </c>
       <c r="Q4">
-        <v>1.000025546900515</v>
+        <v>1.00000994114594</v>
       </c>
       <c r="R4">
-        <v>0.9999595940250104</v>
+        <v>0.999984275883925</v>
       </c>
       <c r="S4">
-        <v>0.9995321538792838</v>
+        <v>0.9998179407128586</v>
       </c>
       <c r="T4">
-        <v>0.9999595940250104</v>
+        <v>0.999984275883925</v>
       </c>
       <c r="U4">
-        <v>0.9998915543948921</v>
+        <v>0.9999577989710136</v>
       </c>
       <c r="V4">
-        <v>1.000107194704257</v>
+        <v>1.000041713925906</v>
       </c>
       <c r="W4">
-        <v>0.9999041357674168</v>
+        <v>0.999962695056523</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000270790734868</v>
+        <v>1.001492967522347</v>
       </c>
       <c r="D5">
-        <v>0.9998432460734898</v>
+        <v>0.9991357493825589</v>
       </c>
       <c r="E5">
-        <v>1.000486342651299</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="F5">
-        <v>1.000486342651299</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="G5">
-        <v>0.9995256668011516</v>
+        <v>0.9973848117088376</v>
       </c>
       <c r="H5">
-        <v>1.000182376757925</v>
+        <v>1.00100552906182</v>
       </c>
       <c r="I5">
-        <v>0.9998540976224762</v>
+        <v>0.9991955799532822</v>
       </c>
       <c r="J5">
-        <v>0.9992704871541801</v>
+        <v>0.9959779036076972</v>
       </c>
       <c r="K5">
-        <v>1.000486342651299</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="L5">
-        <v>0.9992704871541801</v>
+        <v>0.9959779036076972</v>
       </c>
       <c r="M5">
-        <v>1.000182376757925</v>
+        <v>1.00100552906182</v>
       </c>
       <c r="N5">
-        <v>1.000486342651299</v>
+        <v>1.002681399061146</v>
       </c>
       <c r="O5">
-        <v>1.000182376757925</v>
+        <v>1.00100552906182</v>
       </c>
       <c r="P5">
-        <v>0.9997264319560526</v>
+        <v>0.9984917163347586</v>
       </c>
       <c r="Q5">
-        <v>1.000012811415707</v>
+        <v>1.000070639222189</v>
       </c>
       <c r="R5">
-        <v>0.9999797355211347</v>
+        <v>0.9998882772435546</v>
       </c>
       <c r="S5">
-        <v>0.9997653699951984</v>
+        <v>0.9987063940173587</v>
       </c>
       <c r="T5">
-        <v>0.9999797355211347</v>
+        <v>0.9998882772435546</v>
       </c>
       <c r="U5">
-        <v>0.9999456131592235</v>
+        <v>0.9997001452783056</v>
       </c>
       <c r="V5">
-        <v>1.000053759057639</v>
+        <v>1.000296396034874</v>
       </c>
       <c r="W5">
-        <v>0.9999519230691644</v>
+        <v>0.9997349336699386</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000851501046482</v>
+        <v>1.000539946993403</v>
       </c>
       <c r="D6">
-        <v>0.9995070924961087</v>
+        <v>0.9996874355045371</v>
       </c>
       <c r="E6">
-        <v>1.001529283112946</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="F6">
-        <v>1.001529283112946</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="G6">
-        <v>0.9985084785758167</v>
+        <v>0.9990541895896751</v>
       </c>
       <c r="H6">
-        <v>1.000573467996217</v>
+        <v>1.000363658296492</v>
       </c>
       <c r="I6">
-        <v>0.9995412152026936</v>
+        <v>0.9997090736801967</v>
       </c>
       <c r="J6">
-        <v>0.9977060756056081</v>
+        <v>0.9985453678368221</v>
       </c>
       <c r="K6">
-        <v>1.001529283112946</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="L6">
-        <v>0.9977060756056081</v>
+        <v>0.9985453678368221</v>
       </c>
       <c r="M6">
-        <v>1.000573467996217</v>
+        <v>1.000363658296492</v>
       </c>
       <c r="N6">
-        <v>1.001529283112946</v>
+        <v>1.000969755941717</v>
       </c>
       <c r="O6">
-        <v>1.000573467996217</v>
+        <v>1.000363658296492</v>
       </c>
       <c r="P6">
-        <v>0.9991397718009123</v>
+        <v>0.9994545130666572</v>
       </c>
       <c r="Q6">
-        <v>1.000040280246163</v>
+        <v>1.000025546900515</v>
       </c>
       <c r="R6">
-        <v>0.99993627557159</v>
+        <v>0.9999595940250104</v>
       </c>
       <c r="S6">
-        <v>0.9992622120326443</v>
+        <v>0.9995321538792838</v>
       </c>
       <c r="T6">
-        <v>0.9999362755715903</v>
+        <v>0.9999595940250104</v>
       </c>
       <c r="U6">
-        <v>0.9998289798027198</v>
+        <v>0.9998915543948921</v>
       </c>
       <c r="V6">
-        <v>1.000169040464765</v>
+        <v>1.000107194704257</v>
       </c>
       <c r="W6">
-        <v>0.999848822754011</v>
+        <v>0.9999041357674168</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000031818500059</v>
+        <v>1.000270790734868</v>
       </c>
       <c r="D7">
-        <v>0.9999815823300934</v>
+        <v>0.9998432460734898</v>
       </c>
       <c r="E7">
-        <v>1.000057146129517</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="F7">
-        <v>1.000057146129517</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="G7">
-        <v>0.9999442660605599</v>
+        <v>0.9995256668011516</v>
       </c>
       <c r="H7">
-        <v>1.000021430004707</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="I7">
-        <v>0.9999828564003238</v>
+        <v>0.9998540976224762</v>
       </c>
       <c r="J7">
-        <v>0.9999142830886733</v>
+        <v>0.9992704871541801</v>
       </c>
       <c r="K7">
-        <v>1.000057146129517</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="L7">
-        <v>0.9999142830886733</v>
+        <v>0.9992704871541801</v>
       </c>
       <c r="M7">
-        <v>1.000021430004707</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="N7">
-        <v>1.000057146129517</v>
+        <v>1.000486342651299</v>
       </c>
       <c r="O7">
-        <v>1.000021430004707</v>
+        <v>1.000182376757925</v>
       </c>
       <c r="P7">
-        <v>0.9999678565466901</v>
+        <v>0.9997264319560526</v>
       </c>
       <c r="Q7">
-        <v>1.0000015061674</v>
+        <v>1.000012811415707</v>
       </c>
       <c r="R7">
-        <v>0.9999976197409657</v>
+        <v>0.9999797355211347</v>
       </c>
       <c r="S7">
-        <v>0.9999724318078246</v>
+        <v>0.9997653699951984</v>
       </c>
       <c r="T7">
-        <v>0.9999976197409657</v>
+        <v>0.9999797355211347</v>
       </c>
       <c r="U7">
-        <v>0.9999936103882476</v>
+        <v>0.9999456131592235</v>
       </c>
       <c r="V7">
-        <v>1.000006317536501</v>
+        <v>1.000053759057639</v>
       </c>
       <c r="W7">
-        <v>0.99999435156483</v>
+        <v>0.9999519230691644</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000002122849556</v>
+        <v>1.000851501046482</v>
       </c>
       <c r="D8">
-        <v>0.9999987730881021</v>
+        <v>0.9995070924961087</v>
       </c>
       <c r="E8">
-        <v>1.000003811406484</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="F8">
-        <v>1.000003811406484</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="G8">
-        <v>0.9999962835668212</v>
+        <v>0.9985084785758167</v>
       </c>
       <c r="H8">
-        <v>1.00000142986533</v>
+        <v>1.000573467996217</v>
       </c>
       <c r="I8">
-        <v>0.9999988564359558</v>
+        <v>0.9995412152026936</v>
       </c>
       <c r="J8">
-        <v>0.9999942840346907</v>
+        <v>0.9977060756056081</v>
       </c>
       <c r="K8">
-        <v>1.000003811406484</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="L8">
-        <v>0.9999942840346907</v>
+        <v>0.9977060756056081</v>
       </c>
       <c r="M8">
-        <v>1.00000142986533</v>
+        <v>1.000573467996217</v>
       </c>
       <c r="N8">
-        <v>1.000003811406484</v>
+        <v>1.001529283112946</v>
       </c>
       <c r="O8">
-        <v>1.00000142986533</v>
+        <v>1.000573467996217</v>
       </c>
       <c r="P8">
-        <v>0.9999978569500104</v>
+        <v>0.9991397718009123</v>
       </c>
       <c r="Q8">
-        <v>1.000000101476716</v>
+        <v>1.000040280246163</v>
       </c>
       <c r="R8">
-        <v>0.9999998417688351</v>
+        <v>0.99993627557159</v>
       </c>
       <c r="S8">
-        <v>0.9999981623293742</v>
+        <v>0.9992622120326443</v>
       </c>
       <c r="T8">
-        <v>0.9999998417688351</v>
+        <v>0.9999362755715903</v>
       </c>
       <c r="U8">
-        <v>0.9999995745986519</v>
+        <v>0.9998289798027198</v>
       </c>
       <c r="V8">
-        <v>1.000000421960218</v>
+        <v>1.000169040464765</v>
       </c>
       <c r="W8">
-        <v>0.9999996238890337</v>
+        <v>0.999848822754011</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000046830348517</v>
+        <v>1.000031818500059</v>
       </c>
       <c r="D9">
-        <v>0.9999728927211236</v>
+        <v>0.9999815823300934</v>
       </c>
       <c r="E9">
-        <v>1.000084108154848</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="F9">
-        <v>1.000084108154848</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="G9">
-        <v>0.9999179695924223</v>
+        <v>0.9999442660605599</v>
       </c>
       <c r="H9">
-        <v>1.000031539318426</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="I9">
-        <v>0.9999747686191648</v>
+        <v>0.9999828564003238</v>
       </c>
       <c r="J9">
-        <v>0.9998738405347125</v>
+        <v>0.9999142830886733</v>
       </c>
       <c r="K9">
-        <v>1.000084108154848</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="L9">
-        <v>0.9998738405347125</v>
+        <v>0.9999142830886733</v>
       </c>
       <c r="M9">
-        <v>1.000031539318426</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="N9">
-        <v>1.000084108154848</v>
+        <v>1.000057146129517</v>
       </c>
       <c r="O9">
-        <v>1.000031539318426</v>
+        <v>1.000021430004707</v>
       </c>
       <c r="P9">
-        <v>0.9999526899265692</v>
+        <v>0.9999678565466901</v>
       </c>
       <c r="Q9">
-        <v>1.000002216019775</v>
+        <v>1.0000015061674</v>
       </c>
       <c r="R9">
-        <v>0.9999964960026623</v>
+        <v>0.9999976197409657</v>
       </c>
       <c r="S9">
-        <v>0.9999594241914206</v>
+        <v>0.9999724318078246</v>
       </c>
       <c r="T9">
-        <v>0.9999964960026623</v>
+        <v>0.9999976197409657</v>
       </c>
       <c r="U9">
-        <v>0.9999905951822776</v>
+        <v>0.9999936103882476</v>
       </c>
       <c r="V9">
-        <v>1.000009297776792</v>
+        <v>1.000006317536501</v>
       </c>
       <c r="W9">
-        <v>0.999991686075955</v>
+        <v>0.99999435156483</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000864147849654</v>
+        <v>1.000002122849556</v>
       </c>
       <c r="D10">
-        <v>0.9994997711021779</v>
+        <v>0.9999987730881021</v>
       </c>
       <c r="E10">
-        <v>1.001551997576657</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="F10">
-        <v>1.001551997576657</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="G10">
-        <v>0.9984863249025804</v>
+        <v>0.9999962835668212</v>
       </c>
       <c r="H10">
-        <v>1.000581985439615</v>
+        <v>1.00000142986533</v>
       </c>
       <c r="I10">
-        <v>0.9995344008029509</v>
+        <v>0.9999988564359558</v>
       </c>
       <c r="J10">
-        <v>0.9976720035066111</v>
+        <v>0.9999942840346907</v>
       </c>
       <c r="K10">
-        <v>1.001551997576657</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="L10">
-        <v>0.9976720035066111</v>
+        <v>0.9999942840346907</v>
       </c>
       <c r="M10">
-        <v>1.000581985439615</v>
+        <v>1.00000142986533</v>
       </c>
       <c r="N10">
-        <v>1.001551997576657</v>
+        <v>1.000003811406484</v>
       </c>
       <c r="O10">
-        <v>1.000581985439615</v>
+        <v>1.00000142986533</v>
       </c>
       <c r="P10">
-        <v>0.999126994473113</v>
+        <v>0.9999978569500104</v>
       </c>
       <c r="Q10">
-        <v>1.000040878270896</v>
+        <v>1.000000101476716</v>
       </c>
       <c r="R10">
-        <v>0.9999353288409609</v>
+        <v>0.9999998417688351</v>
       </c>
       <c r="S10">
-        <v>0.9992512533494681</v>
+        <v>0.9999981623293742</v>
       </c>
       <c r="T10">
-        <v>0.9999353288409609</v>
+        <v>0.9999998417688351</v>
       </c>
       <c r="U10">
-        <v>0.9998264394062651</v>
+        <v>0.9999995745986519</v>
       </c>
       <c r="V10">
-        <v>1.000171551040343</v>
+        <v>1.000000421960218</v>
       </c>
       <c r="W10">
-        <v>0.9998465770774827</v>
+        <v>0.9999996238890337</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000539970786799</v>
+        <v>1.000046830348517</v>
       </c>
       <c r="D11">
-        <v>0.9996874221594511</v>
+        <v>0.9999728927211236</v>
       </c>
       <c r="E11">
-        <v>1.000969801616314</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="F11">
-        <v>1.000969801616314</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="G11">
-        <v>0.9990541460769073</v>
+        <v>0.9999179695924223</v>
       </c>
       <c r="H11">
-        <v>1.000363676419317</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="I11">
-        <v>0.9997090604557489</v>
+        <v>0.9999747686191648</v>
       </c>
       <c r="J11">
-        <v>0.9985453023500878</v>
+        <v>0.9998738405347125</v>
       </c>
       <c r="K11">
-        <v>1.000969801616314</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="L11">
-        <v>0.9985453023500878</v>
+        <v>0.9998738405347125</v>
       </c>
       <c r="M11">
-        <v>1.000363676419317</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="N11">
-        <v>1.000969801616314</v>
+        <v>1.000084108154848</v>
       </c>
       <c r="O11">
-        <v>1.000363676419317</v>
+        <v>1.000031539318426</v>
       </c>
       <c r="P11">
-        <v>0.9994544893847026</v>
+        <v>0.9999526899265692</v>
       </c>
       <c r="Q11">
-        <v>1.000025549289384</v>
+        <v>1.000002216019775</v>
       </c>
       <c r="R11">
-        <v>0.9999595934619064</v>
+        <v>0.9999964960026623</v>
       </c>
       <c r="S11">
-        <v>0.9995321336429521</v>
+        <v>0.9999594241914206</v>
       </c>
       <c r="T11">
-        <v>0.9999595934619064</v>
+        <v>0.9999964960026623</v>
       </c>
       <c r="U11">
-        <v>0.9998915506362926</v>
+        <v>0.9999905951822776</v>
       </c>
       <c r="V11">
-        <v>1.000107200832297</v>
+        <v>1.000009297776792</v>
       </c>
       <c r="W11">
-        <v>0.9999041320354929</v>
+        <v>0.999991686075955</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000276216357891</v>
+        <v>1.000864147849654</v>
       </c>
       <c r="D12">
-        <v>0.9998401048736845</v>
+        <v>0.9994997711021779</v>
       </c>
       <c r="E12">
-        <v>1.000496087094739</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="F12">
-        <v>1.000496087094739</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="G12">
-        <v>0.9995161621894734</v>
+        <v>0.9984863249025804</v>
       </c>
       <c r="H12">
-        <v>1.000186029578947</v>
+        <v>1.000581985439615</v>
       </c>
       <c r="I12">
-        <v>0.9998511738210515</v>
+        <v>0.9995344008029509</v>
       </c>
       <c r="J12">
-        <v>0.9992558682526318</v>
+        <v>0.9976720035066111</v>
       </c>
       <c r="K12">
-        <v>1.000496087094739</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="L12">
-        <v>0.9992558682526318</v>
+        <v>0.9976720035066111</v>
       </c>
       <c r="M12">
-        <v>1.000186029578947</v>
+        <v>1.000581985439615</v>
       </c>
       <c r="N12">
-        <v>1.000496087094739</v>
+        <v>1.001551997576657</v>
       </c>
       <c r="O12">
-        <v>1.000186029578947</v>
+        <v>1.000581985439615</v>
       </c>
       <c r="P12">
-        <v>0.9997209489157896</v>
+        <v>0.999126994473113</v>
       </c>
       <c r="Q12">
-        <v>1.000013067226316</v>
+        <v>1.000040878270896</v>
       </c>
       <c r="R12">
-        <v>0.9999793283087728</v>
+        <v>0.9999353288409609</v>
       </c>
       <c r="S12">
-        <v>0.9997606675684212</v>
+        <v>0.9992512533494681</v>
       </c>
       <c r="T12">
-        <v>0.9999793283087728</v>
+        <v>0.9999353288409609</v>
       </c>
       <c r="U12">
-        <v>0.9999445224500008</v>
+        <v>0.9998264394062651</v>
       </c>
       <c r="V12">
-        <v>1.000054835378948</v>
+        <v>1.000171551040343</v>
       </c>
       <c r="W12">
-        <v>0.9999509589684208</v>
+        <v>0.9998465770774827</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998300473722072</v>
+        <v>1.000539970786799</v>
       </c>
       <c r="D13">
-        <v>1.000098382417335</v>
+        <v>0.9996874221594511</v>
       </c>
       <c r="E13">
-        <v>0.9996947633785453</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="F13">
-        <v>0.9996947633785453</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="G13">
-        <v>1.000297699494365</v>
+        <v>0.9990541460769073</v>
       </c>
       <c r="H13">
-        <v>0.9998855359759488</v>
+        <v>1.000363676419317</v>
       </c>
       <c r="I13">
-        <v>1.000091569975472</v>
+        <v>0.9997090604557489</v>
       </c>
       <c r="J13">
-        <v>1.000457853191121</v>
+        <v>0.9985453023500878</v>
       </c>
       <c r="K13">
-        <v>0.9996947633785453</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="L13">
-        <v>1.000457853191121</v>
+        <v>0.9985453023500878</v>
       </c>
       <c r="M13">
-        <v>0.9998855359759488</v>
+        <v>1.000363676419317</v>
       </c>
       <c r="N13">
-        <v>0.9996947633785453</v>
+        <v>1.000969801616314</v>
       </c>
       <c r="O13">
-        <v>0.9998855359759488</v>
+        <v>1.000363676419317</v>
       </c>
       <c r="P13">
-        <v>1.000171694583535</v>
+        <v>0.9994544893847026</v>
       </c>
       <c r="Q13">
-        <v>0.9999919591966417</v>
+        <v>1.000025549289384</v>
       </c>
       <c r="R13">
-        <v>1.000012717515205</v>
+        <v>0.9999595934619064</v>
       </c>
       <c r="S13">
-        <v>1.000147257194801</v>
+        <v>0.9995321336429521</v>
       </c>
       <c r="T13">
-        <v>1.000012717515205</v>
+        <v>0.9999595934619064</v>
       </c>
       <c r="U13">
-        <v>1.000034133740737</v>
+        <v>0.9998915506362926</v>
       </c>
       <c r="V13">
-        <v>0.999966259668299</v>
+        <v>1.000107200832297</v>
       </c>
       <c r="W13">
-        <v>1.000030173472618</v>
+        <v>0.9999041320354929</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.001492999999998</v>
+        <v>1.000276216357891</v>
       </c>
       <c r="D14">
-        <v>0.99913575</v>
+        <v>0.9998401048736845</v>
       </c>
       <c r="E14">
-        <v>1.0026814</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="F14">
-        <v>1.0026814</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="G14">
-        <v>0.9973848100000001</v>
+        <v>0.9995161621894734</v>
       </c>
       <c r="H14">
-        <v>1.0010055</v>
+        <v>1.000186029578947</v>
       </c>
       <c r="I14">
-        <v>0.9991955799999999</v>
+        <v>0.9998511738210515</v>
       </c>
       <c r="J14">
-        <v>0.9959779000000001</v>
+        <v>0.9992558682526318</v>
       </c>
       <c r="K14">
-        <v>1.0026814</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="L14">
-        <v>0.9959779000000001</v>
+        <v>0.9992558682526318</v>
       </c>
       <c r="M14">
-        <v>1.0010055</v>
+        <v>1.000186029578947</v>
       </c>
       <c r="N14">
-        <v>1.0026814</v>
+        <v>1.000496087094739</v>
       </c>
       <c r="O14">
-        <v>1.0010055</v>
+        <v>1.000186029578947</v>
       </c>
       <c r="P14">
-        <v>0.9984917</v>
+        <v>0.9997209489157896</v>
       </c>
       <c r="Q14">
-        <v>1.000070625</v>
+        <v>1.000013067226316</v>
       </c>
       <c r="R14">
-        <v>0.9998882666666665</v>
+        <v>0.9999793283087728</v>
       </c>
       <c r="S14">
-        <v>0.9987063833333334</v>
+        <v>0.9997606675684212</v>
       </c>
       <c r="T14">
-        <v>0.9998882666666665</v>
+        <v>0.9999793283087728</v>
       </c>
       <c r="U14">
-        <v>0.9997001374999999</v>
+        <v>0.9999445224500008</v>
       </c>
       <c r="V14">
-        <v>1.00029639</v>
+        <v>1.000054835378948</v>
       </c>
       <c r="W14">
-        <v>0.9997349299999997</v>
+        <v>0.9999509589684208</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0014929</v>
+        <v>0.9998300473722072</v>
       </c>
       <c r="D15">
-        <v>0.9991357999999999</v>
+        <v>1.000098382417335</v>
       </c>
       <c r="E15">
-        <v>1.0026812</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="F15">
-        <v>1.0026812</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="G15">
-        <v>0.99738498</v>
+        <v>1.000297699494365</v>
       </c>
       <c r="H15">
-        <v>1.0010055</v>
+        <v>0.9998855359759488</v>
       </c>
       <c r="I15">
-        <v>0.99919563</v>
+        <v>1.000091569975472</v>
       </c>
       <c r="J15">
-        <v>0.9959781599999999</v>
+        <v>1.000457853191121</v>
       </c>
       <c r="K15">
-        <v>1.0026812</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="L15">
-        <v>0.9959781599999999</v>
+        <v>1.000457853191121</v>
       </c>
       <c r="M15">
-        <v>1.0010055</v>
+        <v>0.9998855359759488</v>
       </c>
       <c r="N15">
-        <v>1.0026812</v>
+        <v>0.9996947633785453</v>
       </c>
       <c r="O15">
-        <v>1.0010055</v>
+        <v>0.9998855359759488</v>
       </c>
       <c r="P15">
-        <v>0.99849183</v>
+        <v>1.000171694583535</v>
       </c>
       <c r="Q15">
-        <v>1.00007065</v>
+        <v>0.9999919591966417</v>
       </c>
       <c r="R15">
-        <v>0.9998882866666667</v>
+        <v>1.000012717515205</v>
       </c>
       <c r="S15">
-        <v>0.9987064866666667</v>
+        <v>1.000147257194801</v>
       </c>
       <c r="T15">
-        <v>0.9998882866666667</v>
+        <v>1.000012717515205</v>
       </c>
       <c r="U15">
-        <v>0.999700165</v>
+        <v>1.000034133740737</v>
       </c>
       <c r="V15">
-        <v>1.000296372</v>
+        <v>0.999966259668299</v>
       </c>
       <c r="W15">
-        <v>0.99973495875</v>
+        <v>1.000030173472618</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0039812</v>
+        <v>1.001492999999998</v>
       </c>
       <c r="D16">
-        <v>0.99769533</v>
+        <v>0.99913575</v>
       </c>
       <c r="E16">
-        <v>1.0071504</v>
+        <v>1.0026814</v>
       </c>
       <c r="F16">
-        <v>1.0071504</v>
+        <v>1.0026814</v>
       </c>
       <c r="G16">
-        <v>0.99302616</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="H16">
+        <v>1.0010055</v>
+      </c>
+      <c r="I16">
+        <v>0.9991955799999999</v>
+      </c>
+      <c r="J16">
+        <v>0.9959779000000001</v>
+      </c>
+      <c r="K16">
         <v>1.0026814</v>
       </c>
-      <c r="I16">
-        <v>0.99785488</v>
-      </c>
-      <c r="J16">
-        <v>0.98927441</v>
-      </c>
-      <c r="K16">
-        <v>1.0071504</v>
-      </c>
       <c r="L16">
-        <v>0.98927441</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M16">
+        <v>1.0010055</v>
+      </c>
+      <c r="N16">
         <v>1.0026814</v>
       </c>
-      <c r="N16">
-        <v>1.0071504</v>
-      </c>
       <c r="O16">
-        <v>1.0026814</v>
+        <v>1.0010055</v>
       </c>
       <c r="P16">
-        <v>0.9959779049999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q16">
-        <v>1.000188365</v>
+        <v>1.000070625</v>
       </c>
       <c r="R16">
-        <v>0.99970207</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S16">
-        <v>0.99655038</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T16">
-        <v>0.99970207</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U16">
-        <v>0.999200385</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V16">
-        <v>1.000790388</v>
+        <v>1.00029639</v>
       </c>
       <c r="W16">
-        <v>0.9992931475</v>
+        <v>0.9997349299999997</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0000933</v>
+        <v>1.0014929</v>
       </c>
       <c r="D17">
-        <v>0.99994602</v>
+        <v>0.9991357999999999</v>
       </c>
       <c r="E17">
-        <v>1.0001675</v>
+        <v>1.0026812</v>
       </c>
       <c r="F17">
-        <v>1.0001675</v>
+        <v>1.0026812</v>
       </c>
       <c r="G17">
-        <v>0.9998366400000001</v>
+        <v>0.99738498</v>
       </c>
       <c r="H17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="I17">
-        <v>0.99994975</v>
+        <v>0.99919563</v>
       </c>
       <c r="J17">
-        <v>0.9997487599999999</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="K17">
-        <v>1.0001675</v>
+        <v>1.0026812</v>
       </c>
       <c r="L17">
-        <v>0.9997487599999999</v>
+        <v>0.9959781599999999</v>
       </c>
       <c r="M17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="N17">
-        <v>1.0001675</v>
+        <v>1.0026812</v>
       </c>
       <c r="O17">
-        <v>1.0000628</v>
+        <v>1.0010055</v>
       </c>
       <c r="P17">
-        <v>0.99990578</v>
+        <v>0.99849183</v>
       </c>
       <c r="Q17">
-        <v>1.00000441</v>
+        <v>1.00007065</v>
       </c>
       <c r="R17">
-        <v>0.9999930200000001</v>
+        <v>0.9998882866666667</v>
       </c>
       <c r="S17">
-        <v>0.9999191933333332</v>
+        <v>0.9987064866666667</v>
       </c>
       <c r="T17">
-        <v>0.9999930200000001</v>
+        <v>0.9998882866666667</v>
       </c>
       <c r="U17">
-        <v>0.99998127</v>
+        <v>0.999700165</v>
       </c>
       <c r="V17">
-        <v>1.000018516</v>
+        <v>1.000296372</v>
       </c>
       <c r="W17">
-        <v>0.99998344625</v>
+        <v>0.99973495875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000572641369863</v>
+        <v>1.0039812</v>
       </c>
       <c r="D18">
-        <v>0.9996685027397261</v>
+        <v>0.99769533</v>
       </c>
       <c r="E18">
-        <v>1.001028487123288</v>
+        <v>1.0071504</v>
       </c>
       <c r="F18">
-        <v>1.001028487123288</v>
+        <v>1.0071504</v>
       </c>
       <c r="G18">
-        <v>0.99899691479452</v>
+        <v>0.99302616</v>
       </c>
       <c r="H18">
-        <v>1.000385680821918</v>
+        <v>1.0026814</v>
       </c>
       <c r="I18">
-        <v>0.9996914636986299</v>
+        <v>0.99785488</v>
       </c>
       <c r="J18">
-        <v>0.9984572884931506</v>
+        <v>0.98927441</v>
       </c>
       <c r="K18">
-        <v>1.001028487123288</v>
+        <v>1.0071504</v>
       </c>
       <c r="L18">
-        <v>0.9984572884931506</v>
+        <v>0.98927441</v>
       </c>
       <c r="M18">
-        <v>1.000385680821918</v>
+        <v>1.0026814</v>
       </c>
       <c r="N18">
-        <v>1.001028487123288</v>
+        <v>1.0071504</v>
       </c>
       <c r="O18">
-        <v>1.000385680821918</v>
+        <v>1.0026814</v>
       </c>
       <c r="P18">
-        <v>0.9994214846575344</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="Q18">
-        <v>1.000027091780822</v>
+        <v>1.000188365</v>
       </c>
       <c r="R18">
-        <v>0.999957152146119</v>
+        <v>0.99970207</v>
       </c>
       <c r="S18">
-        <v>0.999503824018265</v>
+        <v>0.99655038</v>
       </c>
       <c r="T18">
-        <v>0.999957152146119</v>
+        <v>0.99970207</v>
       </c>
       <c r="U18">
-        <v>0.9998849897945208</v>
+        <v>0.999200385</v>
       </c>
       <c r="V18">
-        <v>1.000113689260274</v>
+        <v>1.000790388</v>
       </c>
       <c r="W18">
-        <v>0.9998983324828767</v>
+        <v>0.9992931475</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000674421578947</v>
+        <v>1.0000933</v>
       </c>
       <c r="D19">
-        <v>0.9996095889473684</v>
+        <v>0.99994602</v>
       </c>
       <c r="E19">
-        <v>1.001211267894737</v>
+        <v>1.0001675</v>
       </c>
       <c r="F19">
-        <v>1.001211267894737</v>
+        <v>1.0001675</v>
       </c>
       <c r="G19">
-        <v>0.9988186368421051</v>
+        <v>0.9998366400000001</v>
       </c>
       <c r="H19">
-        <v>1.000454223157895</v>
+        <v>1.0000628</v>
       </c>
       <c r="I19">
-        <v>0.9996366189473683</v>
+        <v>0.99994975</v>
       </c>
       <c r="J19">
-        <v>0.9981830857894737</v>
+        <v>0.9997487599999999</v>
       </c>
       <c r="K19">
-        <v>1.001211267894737</v>
+        <v>1.0001675</v>
       </c>
       <c r="L19">
-        <v>0.9981830857894737</v>
+        <v>0.9997487599999999</v>
       </c>
       <c r="M19">
-        <v>1.000454223157895</v>
+        <v>1.0000628</v>
       </c>
       <c r="N19">
-        <v>1.001211267894737</v>
+        <v>1.0001675</v>
       </c>
       <c r="O19">
-        <v>1.000454223157895</v>
+        <v>1.0000628</v>
       </c>
       <c r="P19">
-        <v>0.9993186544736843</v>
+        <v>0.99990578</v>
       </c>
       <c r="Q19">
-        <v>1.000031906052631</v>
+        <v>1.00000441</v>
       </c>
       <c r="R19">
-        <v>0.9999495256140353</v>
+        <v>0.9999930200000001</v>
       </c>
       <c r="S19">
-        <v>0.9994156326315791</v>
+        <v>0.9999191933333332</v>
       </c>
       <c r="T19">
-        <v>0.9999495256140351</v>
+        <v>0.9999930200000001</v>
       </c>
       <c r="U19">
-        <v>0.9998645414473684</v>
+        <v>0.99998127</v>
       </c>
       <c r="V19">
-        <v>1.000133886736842</v>
+        <v>1.000018516</v>
       </c>
       <c r="W19">
-        <v>0.9998802582894737</v>
+        <v>0.99998344625</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001492968421053</v>
+        <v>1.000572641369863</v>
       </c>
       <c r="D20">
-        <v>0.9991357505263155</v>
+        <v>0.9996685027397261</v>
       </c>
       <c r="E20">
-        <v>1.002681394736842</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="F20">
-        <v>1.002681394736842</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="G20">
-        <v>0.9973848152631581</v>
+        <v>0.99899691479452</v>
       </c>
       <c r="H20">
-        <v>1.00100552631579</v>
+        <v>1.000385680821918</v>
       </c>
       <c r="I20">
-        <v>0.9991955810526315</v>
+        <v>0.9996914636986299</v>
       </c>
       <c r="J20">
-        <v>0.9959779089473684</v>
+        <v>0.9984572884931506</v>
       </c>
       <c r="K20">
-        <v>1.002681394736842</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="L20">
-        <v>0.9959779089473684</v>
+        <v>0.9984572884931506</v>
       </c>
       <c r="M20">
-        <v>1.00100552631579</v>
+        <v>1.000385680821918</v>
       </c>
       <c r="N20">
-        <v>1.002681394736842</v>
+        <v>1.001028487123288</v>
       </c>
       <c r="O20">
-        <v>1.00100552631579</v>
+        <v>1.000385680821918</v>
       </c>
       <c r="P20">
-        <v>0.9984917176315792</v>
+        <v>0.9994214846575344</v>
       </c>
       <c r="Q20">
-        <v>1.000070638421053</v>
+        <v>1.000027091780822</v>
       </c>
       <c r="R20">
-        <v>0.9998882766666668</v>
+        <v>0.999957152146119</v>
       </c>
       <c r="S20">
-        <v>0.998706395263158</v>
+        <v>0.999503824018265</v>
       </c>
       <c r="T20">
-        <v>0.9998882766666668</v>
+        <v>0.999957152146119</v>
       </c>
       <c r="U20">
-        <v>0.999700145131579</v>
+        <v>0.9998849897945208</v>
       </c>
       <c r="V20">
-        <v>1.000296395052632</v>
+        <v>1.000113689260274</v>
       </c>
       <c r="W20">
-        <v>0.9997349339473685</v>
+        <v>0.9998983324828767</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9988102947714953</v>
+        <v>1.000674421578947</v>
       </c>
       <c r="D21">
-        <v>1.000688686572624</v>
+        <v>0.9996095889473684</v>
       </c>
       <c r="E21">
-        <v>0.9978632677161556</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="F21">
-        <v>0.9978632677161556</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="G21">
-        <v>1.002083980368774</v>
+        <v>0.9988186368421051</v>
       </c>
       <c r="H21">
-        <v>0.9991987250610594</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="I21">
-        <v>1.000641020265506</v>
+        <v>0.9996366189473683</v>
       </c>
       <c r="J21">
-        <v>1.003205081314129</v>
+        <v>0.9981830857894737</v>
       </c>
       <c r="K21">
-        <v>0.9978632677161556</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="L21">
-        <v>1.003205081314129</v>
+        <v>0.9981830857894737</v>
       </c>
       <c r="M21">
-        <v>0.9991987250610594</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="N21">
-        <v>0.9978632677161556</v>
+        <v>1.001211267894737</v>
       </c>
       <c r="O21">
-        <v>0.9991987250610594</v>
+        <v>1.000454223157895</v>
       </c>
       <c r="P21">
-        <v>1.001201903187594</v>
+        <v>0.9993186544736843</v>
       </c>
       <c r="Q21">
-        <v>0.9999437058168419</v>
+        <v>1.000031906052631</v>
       </c>
       <c r="R21">
-        <v>1.000089024697115</v>
+        <v>0.9999495256140353</v>
       </c>
       <c r="S21">
-        <v>1.001030830982604</v>
+        <v>0.9994156326315791</v>
       </c>
       <c r="T21">
-        <v>1.000089024697115</v>
+        <v>0.9999495256140351</v>
       </c>
       <c r="U21">
-        <v>1.000238940165992</v>
+        <v>0.9998645414473684</v>
       </c>
       <c r="V21">
-        <v>0.9997638056760249</v>
+        <v>1.000133886736842</v>
       </c>
       <c r="W21">
-        <v>1.00021122264135</v>
+        <v>0.9998802582894737</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9996823969090204</v>
+        <v>1.001492968421053</v>
       </c>
       <c r="D22">
-        <v>1.000183856412997</v>
+        <v>0.9991357505263155</v>
       </c>
       <c r="E22">
-        <v>0.9994295731410595</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="F22">
-        <v>0.9994295731410595</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="G22">
-        <v>1.000556339015841</v>
+        <v>0.9973848152631581</v>
       </c>
       <c r="H22">
-        <v>0.999786091092604</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="I22">
-        <v>1.000171135636562</v>
+        <v>0.9991955810526315</v>
       </c>
       <c r="J22">
-        <v>1.000855633959365</v>
+        <v>0.9959779089473684</v>
       </c>
       <c r="K22">
-        <v>0.9994295731410595</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="L22">
-        <v>1.000855633959365</v>
+        <v>0.9959779089473684</v>
       </c>
       <c r="M22">
-        <v>0.999786091092604</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="N22">
-        <v>0.9994295731410595</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="O22">
-        <v>0.999786091092604</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="P22">
-        <v>1.000320862525985</v>
+        <v>0.9984917176315792</v>
       </c>
       <c r="Q22">
-        <v>0.9999849737528005</v>
+        <v>1.000070638421053</v>
       </c>
       <c r="R22">
-        <v>1.000023766064343</v>
+        <v>0.9998882766666668</v>
       </c>
       <c r="S22">
-        <v>1.000275193821655</v>
+        <v>0.998706395263158</v>
       </c>
       <c r="T22">
-        <v>1.000023766064343</v>
+        <v>0.9998882766666668</v>
       </c>
       <c r="U22">
-        <v>1.000063788651506</v>
+        <v>0.999700145131579</v>
       </c>
       <c r="V22">
-        <v>0.999936945549417</v>
+        <v>1.000296395052632</v>
       </c>
       <c r="W22">
-        <v>1.000056389657507</v>
+        <v>0.9997349339473685</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9996197386281405</v>
+        <v>0.9988102947714953</v>
       </c>
       <c r="D23">
-        <v>1.000220127180249</v>
+        <v>1.000688686572624</v>
       </c>
       <c r="E23">
-        <v>0.9993170378978251</v>
+        <v>0.9978632677161556</v>
       </c>
       <c r="F23">
-        <v>0.9993170378978251</v>
+        <v>0.9978632677161556</v>
       </c>
       <c r="G23">
-        <v>1.000666094573274</v>
+        <v>1.002083980368774</v>
       </c>
       <c r="H23">
-        <v>0.9997438903312167</v>
+        <v>0.9991987250610594</v>
       </c>
       <c r="I23">
-        <v>1.000204892840112</v>
+        <v>1.000641020265506</v>
       </c>
       <c r="J23">
-        <v>1.001024441259902</v>
+        <v>1.003205081314129</v>
       </c>
       <c r="K23">
-        <v>0.9993170378978251</v>
+        <v>0.9978632677161556</v>
       </c>
       <c r="L23">
-        <v>1.001024441259902</v>
+        <v>1.003205081314129</v>
       </c>
       <c r="M23">
-        <v>0.9997438903312167</v>
+        <v>0.9991987250610594</v>
       </c>
       <c r="N23">
-        <v>0.9993170378978251</v>
+        <v>0.9978632677161556</v>
       </c>
       <c r="O23">
-        <v>0.9997438903312167</v>
+        <v>0.9991987250610594</v>
       </c>
       <c r="P23">
-        <v>1.000384165795559</v>
+        <v>1.001201903187594</v>
       </c>
       <c r="Q23">
-        <v>0.999982008755733</v>
+        <v>0.9999437058168419</v>
       </c>
       <c r="R23">
-        <v>1.000028456496315</v>
+        <v>1.000089024697115</v>
       </c>
       <c r="S23">
-        <v>1.000329486257123</v>
+        <v>1.001030830982604</v>
       </c>
       <c r="T23">
-        <v>1.000028456496315</v>
+        <v>1.000089024697115</v>
       </c>
       <c r="U23">
-        <v>1.000076374167298</v>
+        <v>1.000238940165992</v>
       </c>
       <c r="V23">
-        <v>0.9999245069134035</v>
+        <v>0.9997638056760249</v>
       </c>
       <c r="W23">
-        <v>1.000067514130242</v>
+        <v>1.00021122264135</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9999013919139135</v>
+        <v>0.9996823969090204</v>
       </c>
       <c r="D24">
-        <v>1.000057084164284</v>
+        <v>1.000183856412997</v>
       </c>
       <c r="E24">
-        <v>0.9998229032557282</v>
+        <v>0.9994295731410595</v>
       </c>
       <c r="F24">
-        <v>0.9998229032557282</v>
+        <v>0.9994295731410595</v>
       </c>
       <c r="G24">
-        <v>1.000172721091205</v>
+        <v>1.000556339015841</v>
       </c>
       <c r="H24">
-        <v>0.9999335899456648</v>
+        <v>0.999786091092604</v>
       </c>
       <c r="I24">
-        <v>1.000053127353346</v>
+        <v>1.000171135636562</v>
       </c>
       <c r="J24">
-        <v>1.000265638310051</v>
+        <v>1.000855633959365</v>
       </c>
       <c r="K24">
-        <v>0.9998229032557282</v>
+        <v>0.9994295731410595</v>
       </c>
       <c r="L24">
-        <v>1.000265638310051</v>
+        <v>1.000855633959365</v>
       </c>
       <c r="M24">
-        <v>0.9999335899456648</v>
+        <v>0.999786091092604</v>
       </c>
       <c r="N24">
-        <v>0.9998229032557282</v>
+        <v>0.9994295731410595</v>
       </c>
       <c r="O24">
-        <v>0.9999335899456648</v>
+        <v>0.999786091092604</v>
       </c>
       <c r="P24">
-        <v>1.000099614127858</v>
+        <v>1.000320862525985</v>
       </c>
       <c r="Q24">
-        <v>0.9999953370549743</v>
+        <v>0.9999849737528005</v>
       </c>
       <c r="R24">
-        <v>1.000007377170481</v>
+        <v>1.000023766064343</v>
       </c>
       <c r="S24">
-        <v>1.000085437473333</v>
+        <v>1.000275193821655</v>
       </c>
       <c r="T24">
-        <v>1.000007377170481</v>
+        <v>1.000023766064343</v>
       </c>
       <c r="U24">
-        <v>1.000019803918932</v>
+        <v>1.000063788651506</v>
       </c>
       <c r="V24">
-        <v>0.9999804237862913</v>
+        <v>0.999936945549417</v>
       </c>
       <c r="W24">
-        <v>1.000017505747482</v>
+        <v>1.000056389657507</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.001167632012898</v>
+        <v>0.9996197386281405</v>
       </c>
       <c r="D25">
-        <v>0.9993240778638219</v>
+        <v>1.000220127180249</v>
       </c>
       <c r="E25">
-        <v>1.002097100633146</v>
+        <v>0.9993170378978251</v>
       </c>
       <c r="F25">
-        <v>1.002097100633146</v>
+        <v>0.9993170378978251</v>
       </c>
       <c r="G25">
-        <v>0.9979546875536024</v>
+        <v>1.000666094573274</v>
       </c>
       <c r="H25">
-        <v>1.000786404164449</v>
+        <v>0.9997438903312167</v>
       </c>
       <c r="I25">
-        <v>0.9993708713611218</v>
+        <v>1.000204892840112</v>
       </c>
       <c r="J25">
-        <v>0.9968543618284069</v>
+        <v>1.001024441259902</v>
       </c>
       <c r="K25">
-        <v>1.002097100633146</v>
+        <v>0.9993170378978251</v>
       </c>
       <c r="L25">
-        <v>0.9968543618284069</v>
+        <v>1.001024441259902</v>
       </c>
       <c r="M25">
-        <v>1.000786404164449</v>
+        <v>0.9997438903312167</v>
       </c>
       <c r="N25">
-        <v>1.002097100633146</v>
+        <v>0.9993170378978251</v>
       </c>
       <c r="O25">
-        <v>1.000786404164449</v>
+        <v>0.9997438903312167</v>
       </c>
       <c r="P25">
-        <v>0.9988203829964278</v>
+        <v>1.000384165795559</v>
       </c>
       <c r="Q25">
-        <v>1.000055241014135</v>
+        <v>0.999982008755733</v>
       </c>
       <c r="R25">
-        <v>0.9999126222086673</v>
+        <v>1.000028456496315</v>
       </c>
       <c r="S25">
-        <v>0.9989882812855592</v>
+        <v>1.000329486257123</v>
       </c>
       <c r="T25">
-        <v>0.9999126222086673</v>
+        <v>1.000028456496315</v>
       </c>
       <c r="U25">
-        <v>0.9997654861224559</v>
+        <v>1.000076374167298</v>
       </c>
       <c r="V25">
-        <v>1.000231809024594</v>
+        <v>0.9999245069134035</v>
       </c>
       <c r="W25">
-        <v>0.9997926924477369</v>
+        <v>1.000067514130242</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000312757115541</v>
+        <v>0.9999013919139135</v>
       </c>
       <c r="D26">
-        <v>0.9998189554299206</v>
+        <v>1.000057084164284</v>
       </c>
       <c r="E26">
-        <v>1.000561718777046</v>
+        <v>0.9998229032557282</v>
       </c>
       <c r="F26">
-        <v>1.000561718777046</v>
+        <v>0.9998229032557282</v>
       </c>
       <c r="G26">
-        <v>0.9994521494688489</v>
+        <v>1.000172721091205</v>
       </c>
       <c r="H26">
-        <v>1.000210645786653</v>
+        <v>0.9999335899456648</v>
       </c>
       <c r="I26">
-        <v>0.9998314881139966</v>
+        <v>1.000053127353346</v>
       </c>
       <c r="J26">
-        <v>0.9991574225324154</v>
+        <v>1.000265638310051</v>
       </c>
       <c r="K26">
-        <v>1.000561718777046</v>
+        <v>0.9998229032557282</v>
       </c>
       <c r="L26">
-        <v>0.9991574225324154</v>
+        <v>1.000265638310051</v>
       </c>
       <c r="M26">
-        <v>1.000210645786653</v>
+        <v>0.9999335899456648</v>
       </c>
       <c r="N26">
-        <v>1.000561718777046</v>
+        <v>0.9998229032557282</v>
       </c>
       <c r="O26">
-        <v>1.000210645786653</v>
+        <v>0.9999335899456648</v>
       </c>
       <c r="P26">
-        <v>0.9996840341595343</v>
+        <v>1.000099614127858</v>
       </c>
       <c r="Q26">
-        <v>1.000014800608287</v>
+        <v>0.9999953370549743</v>
       </c>
       <c r="R26">
-        <v>0.9999765956987048</v>
+        <v>1.000007377170481</v>
       </c>
       <c r="S26">
-        <v>0.9997290079163298</v>
+        <v>1.000085437473333</v>
       </c>
       <c r="T26">
-        <v>0.9999765956987048</v>
+        <v>1.000007377170481</v>
       </c>
       <c r="U26">
-        <v>0.9999371856315087</v>
+        <v>1.000019803918932</v>
       </c>
       <c r="V26">
-        <v>1.000062092260616</v>
+        <v>0.9999804237862913</v>
       </c>
       <c r="W26">
-        <v>0.9999444728763842</v>
+        <v>1.000017505747482</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000088983482497</v>
+        <v>1.001167632012898</v>
       </c>
       <c r="D27">
-        <v>0.999948484251433</v>
+        <v>0.9993240778638219</v>
       </c>
       <c r="E27">
-        <v>1.000159808110587</v>
+        <v>1.002097100633146</v>
       </c>
       <c r="F27">
-        <v>1.000159808110587</v>
+        <v>1.002097100633146</v>
       </c>
       <c r="G27">
-        <v>0.9998441414523235</v>
+        <v>0.9979546875536024</v>
       </c>
       <c r="H27">
-        <v>1.000059935681941</v>
+        <v>1.000786404164449</v>
       </c>
       <c r="I27">
-        <v>0.999952052812367</v>
+        <v>0.9993708713611218</v>
       </c>
       <c r="J27">
-        <v>0.9997602684672413</v>
+        <v>0.9968543618284069</v>
       </c>
       <c r="K27">
-        <v>1.000159808110587</v>
+        <v>1.002097100633146</v>
       </c>
       <c r="L27">
-        <v>0.9997602684672413</v>
+        <v>0.9968543618284069</v>
       </c>
       <c r="M27">
-        <v>1.000059935681941</v>
+        <v>1.000786404164449</v>
       </c>
       <c r="N27">
-        <v>1.000159808110587</v>
+        <v>1.002097100633146</v>
       </c>
       <c r="O27">
-        <v>1.000059935681941</v>
+        <v>1.000786404164449</v>
       </c>
       <c r="P27">
-        <v>0.9999101020745913</v>
+        <v>0.9988203829964278</v>
       </c>
       <c r="Q27">
-        <v>1.000004209966687</v>
+        <v>1.000055241014135</v>
       </c>
       <c r="R27">
-        <v>0.9999933374199234</v>
+        <v>0.9999126222086673</v>
       </c>
       <c r="S27">
-        <v>0.9999228961335386</v>
+        <v>0.9989882812855592</v>
       </c>
       <c r="T27">
-        <v>0.9999933374199234</v>
+        <v>0.9999126222086673</v>
       </c>
       <c r="U27">
-        <v>0.9999821241278007</v>
+        <v>0.9997654861224559</v>
       </c>
       <c r="V27">
-        <v>1.000017660924358</v>
+        <v>1.000231809024594</v>
       </c>
       <c r="W27">
-        <v>0.9999842012425415</v>
+        <v>0.9997926924477369</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000154433158064</v>
+        <v>1.000312757115541</v>
       </c>
       <c r="D28">
-        <v>0.9999106012701982</v>
+        <v>0.9998189554299206</v>
       </c>
       <c r="E28">
-        <v>1.000277376877186</v>
+        <v>1.000561718777046</v>
       </c>
       <c r="F28">
-        <v>1.000277376877186</v>
+        <v>1.000561718777046</v>
       </c>
       <c r="G28">
-        <v>0.999729476172482</v>
+        <v>0.9994521494688489</v>
       </c>
       <c r="H28">
-        <v>1.000104018159949</v>
+        <v>1.000210645786653</v>
       </c>
       <c r="I28">
-        <v>0.9999167906986328</v>
+        <v>0.9998314881139966</v>
       </c>
       <c r="J28">
-        <v>0.9995839465749847</v>
+        <v>0.9991574225324154</v>
       </c>
       <c r="K28">
-        <v>1.000277376877186</v>
+        <v>1.000561718777046</v>
       </c>
       <c r="L28">
-        <v>0.9995839465749847</v>
+        <v>0.9991574225324154</v>
       </c>
       <c r="M28">
-        <v>1.000104018159949</v>
+        <v>1.000210645786653</v>
       </c>
       <c r="N28">
-        <v>1.000277376877186</v>
+        <v>1.000561718777046</v>
       </c>
       <c r="O28">
-        <v>1.000104018159949</v>
+        <v>1.000210645786653</v>
       </c>
       <c r="P28">
-        <v>0.9998439823674669</v>
+        <v>0.9996840341595343</v>
       </c>
       <c r="Q28">
-        <v>1.000007309715074</v>
+        <v>1.000014800608287</v>
       </c>
       <c r="R28">
-        <v>0.9999884472040398</v>
+        <v>0.9999765956987048</v>
       </c>
       <c r="S28">
-        <v>0.9998661886683773</v>
+        <v>0.9997290079163298</v>
       </c>
       <c r="T28">
-        <v>0.9999884472040398</v>
+        <v>0.9999765956987048</v>
       </c>
       <c r="U28">
-        <v>0.9999689857205794</v>
+        <v>0.9999371856315087</v>
       </c>
       <c r="V28">
-        <v>1.000030663951901</v>
+        <v>1.000062092260616</v>
       </c>
       <c r="W28">
-        <v>0.9999725826339307</v>
+        <v>0.9999444728763842</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000088983482497</v>
+      </c>
+      <c r="D29">
+        <v>0.999948484251433</v>
+      </c>
+      <c r="E29">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="F29">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="G29">
+        <v>0.9998441414523235</v>
+      </c>
+      <c r="H29">
+        <v>1.000059935681941</v>
+      </c>
+      <c r="I29">
+        <v>0.999952052812367</v>
+      </c>
+      <c r="J29">
+        <v>0.9997602684672413</v>
+      </c>
+      <c r="K29">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="L29">
+        <v>0.9997602684672413</v>
+      </c>
+      <c r="M29">
+        <v>1.000059935681941</v>
+      </c>
+      <c r="N29">
+        <v>1.000159808110587</v>
+      </c>
+      <c r="O29">
+        <v>1.000059935681941</v>
+      </c>
+      <c r="P29">
+        <v>0.9999101020745913</v>
+      </c>
+      <c r="Q29">
+        <v>1.000004209966687</v>
+      </c>
+      <c r="R29">
+        <v>0.9999933374199234</v>
+      </c>
+      <c r="S29">
+        <v>0.9999228961335386</v>
+      </c>
+      <c r="T29">
+        <v>0.9999933374199234</v>
+      </c>
+      <c r="U29">
+        <v>0.9999821241278007</v>
+      </c>
+      <c r="V29">
+        <v>1.000017660924358</v>
+      </c>
+      <c r="W29">
+        <v>0.9999842012425415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000154433158064</v>
+      </c>
+      <c r="D30">
+        <v>0.9999106012701982</v>
+      </c>
+      <c r="E30">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="F30">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="G30">
+        <v>0.999729476172482</v>
+      </c>
+      <c r="H30">
+        <v>1.000104018159949</v>
+      </c>
+      <c r="I30">
+        <v>0.9999167906986328</v>
+      </c>
+      <c r="J30">
+        <v>0.9995839465749847</v>
+      </c>
+      <c r="K30">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="L30">
+        <v>0.9995839465749847</v>
+      </c>
+      <c r="M30">
+        <v>1.000104018159949</v>
+      </c>
+      <c r="N30">
+        <v>1.000277376877186</v>
+      </c>
+      <c r="O30">
+        <v>1.000104018159949</v>
+      </c>
+      <c r="P30">
+        <v>0.9998439823674669</v>
+      </c>
+      <c r="Q30">
+        <v>1.000007309715074</v>
+      </c>
+      <c r="R30">
+        <v>0.9999884472040398</v>
+      </c>
+      <c r="S30">
+        <v>0.9998661886683773</v>
+      </c>
+      <c r="T30">
+        <v>0.9999884472040398</v>
+      </c>
+      <c r="U30">
+        <v>0.9999689857205794</v>
+      </c>
+      <c r="V30">
+        <v>1.000030663951901</v>
+      </c>
+      <c r="W30">
+        <v>0.9999725826339307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9998702757171415</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.000075099224972</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9997670243458768</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9997670243458768</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000227227581387</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9999126431470846</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000069889763716</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.000349467957848</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9997670243458768</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000349467957848</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9999126431470846</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9997670243458768</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9999126431470846</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000131055552466</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999938711860282</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000009711816936</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000112403443302</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000009711816936</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000026058668945</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9999742518043316</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000023033860639</v>
       </c>
     </row>
